--- a/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
+++ b/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
@@ -5,29 +5,31 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\kalimasta mandir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\Finalized valuations\kalimasta mandir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kalimasta mandir final" sheetId="17" state="hidden" r:id="rId1"/>
     <sheet name="kalimasta mandir final (2)" sheetId="18" r:id="rId2"/>
     <sheet name="WCR" sheetId="6" r:id="rId3"/>
     <sheet name="valuated" sheetId="19" r:id="rId4"/>
+    <sheet name="M" sheetId="20" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="0">#REF!</definedName>
     <definedName name="description_124" localSheetId="1">#REF!</definedName>
+    <definedName name="description_124" localSheetId="4">#REF!</definedName>
     <definedName name="description_124" localSheetId="3">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_247">[1]Abstract!$B$22</definedName>
@@ -44,9 +46,11 @@
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'kalimasta mandir final'!$A$1:$K$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'kalimasta mandir final (2)'!$A$1:$K$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">M!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">valuated!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'kalimasta mandir final'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'kalimasta mandir final (2)'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">M!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">valuated!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">WCR!$1:$12</definedName>
   </definedNames>
@@ -68,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="76">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -277,22 +281,25 @@
     <t>-slab top extra bars along short sides</t>
   </si>
   <si>
-    <t xml:space="preserve">Date:2081/07/14       </t>
-  </si>
-  <si>
     <t xml:space="preserve">F.Y:2081/2082            </t>
   </si>
   <si>
     <t xml:space="preserve">Work Finished:            </t>
   </si>
   <si>
-    <t>Date:2081/07/14</t>
-  </si>
-  <si>
     <t>Detail Valuated Sheet</t>
   </si>
   <si>
     <t>Total Valuated</t>
+  </si>
+  <si>
+    <t>Detail Quantity Measurement Sheet</t>
+  </si>
+  <si>
+    <t>Date:2081/07/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:2081/07/25       </t>
   </si>
 </sst>
 </file>
@@ -580,9 +587,6 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -648,22 +652,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,9 +685,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,36 +698,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1336,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1356,113 +1363,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1503,45 +1510,45 @@
       <c r="A9" s="29">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>2</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="39">
         <f>12.25/3.281</f>
         <v>3.7336177994513866</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="39">
         <f>12.25/3.281</f>
         <v>3.7336177994513866</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <v>0.15</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="40">
         <f>PRODUCT(C10:F10)</f>
         <v>4.1819705617140643</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="21"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1552,7 +1559,7 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="19"/>
@@ -1569,7 +1576,7 @@
       <c r="I11" s="23">
         <v>4473.1499999999996</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="42">
         <f>G11*I11</f>
         <v>18706.581618131266</v>
       </c>
@@ -1583,7 +1590,7 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="19"/>
@@ -1593,7 +1600,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="22"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="43">
+      <c r="J12" s="42">
         <f>0.13*G11*3093.15</f>
         <v>1681.6100915855618</v>
       </c>
@@ -1607,7 +1614,7 @@
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="39"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
@@ -1615,7 +1622,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="43"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="21"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1628,45 +1635,45 @@
       <c r="A14" s="29">
         <v>2</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <v>2</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="39">
         <f>12.25/3.281</f>
         <v>3.7336177994513866</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="39">
         <f>12.25/3.281</f>
         <v>3.7336177994513866</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="39">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="40">
         <f>PRODUCT(C15:F15)</f>
         <v>2.0909852808570322</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="21"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1677,7 +1684,7 @@
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="19"/>
@@ -1694,7 +1701,7 @@
       <c r="I16" s="23">
         <v>12568.22</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="42">
         <f>G16*I16</f>
         <v>26279.963026572968</v>
       </c>
@@ -1708,7 +1715,7 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="19"/>
@@ -1718,7 +1725,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
-      <c r="J17" s="43">
+      <c r="J17" s="42">
         <f>0.13*G16*8523.52</f>
         <v>2316.9321319417695</v>
       </c>
@@ -1732,7 +1739,7 @@
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="39"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
@@ -1740,7 +1747,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
-      <c r="J18" s="43"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="21"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1753,7 +1760,7 @@
       <c r="A19" s="18">
         <v>3</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="19"/>
@@ -1763,7 +1770,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="43"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="21"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1774,7 +1781,7 @@
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="19">
@@ -1791,13 +1798,13 @@
       <c r="F20" s="21">
         <v>0.125</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="40">
         <f>PRODUCT(C20:F20)</f>
         <v>6.3893636028964709</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="43"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="21"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1808,7 +1815,7 @@
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="19">
@@ -1824,13 +1831,13 @@
       <c r="F21" s="21">
         <v>0.23</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="40">
         <f t="shared" ref="G21:G22" si="0">PRODUCT(C21:F21)</f>
         <v>0.90289545870161536</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="43"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="21"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1841,7 +1848,7 @@
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="19">
         <v>3</v>
       </c>
@@ -1855,13 +1862,13 @@
       <c r="F22" s="21">
         <v>0.23</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="40">
         <f t="shared" si="0"/>
         <v>0.76181804327948799</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="43"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="21"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1872,7 +1879,7 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="19"/>
@@ -1889,7 +1896,7 @@
       <c r="I23" s="23">
         <v>13568.9</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="42">
         <f>G23*I23</f>
         <v>109284.96682837332</v>
       </c>
@@ -1903,7 +1910,7 @@
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="19"/>
@@ -1913,7 +1920,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="22"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="43">
+      <c r="J24" s="42">
         <f>0.13*G23*9524.2</f>
         <v>9972.1233510957518</v>
       </c>
@@ -1927,7 +1934,7 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
-      <c r="B25" s="39"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="19"/>
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
@@ -1935,7 +1942,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="22"/>
       <c r="I25" s="23"/>
-      <c r="J25" s="43"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="21"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1948,7 +1955,7 @@
       <c r="A26" s="18">
         <v>4</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="60" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="19"/>
@@ -1958,7 +1965,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="43"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="21"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1969,7 +1976,7 @@
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
-      <c r="B27" s="39" t="str">
+      <c r="B27" s="38" t="str">
         <f>B20</f>
         <v>-slab</v>
       </c>
@@ -1986,13 +1993,13 @@
         <v>5.4099359951234378</v>
       </c>
       <c r="F27" s="21"/>
-      <c r="G27" s="41">
+      <c r="G27" s="40">
         <f>PRODUCT(C27:F27)</f>
         <v>51.114908823171767</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="43"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="21"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2003,7 +2010,7 @@
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
-      <c r="B28" s="39" t="str">
+      <c r="B28" s="38" t="str">
         <f>B21</f>
         <v>-beam</v>
       </c>
@@ -2020,13 +2027,13 @@
         <f>F21*2</f>
         <v>0.46</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="40">
         <f t="shared" ref="G28:G29" si="1">PRODUCT(C28:F28)</f>
         <v>7.8512648582749156</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="43"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="21"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2037,7 +2044,7 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
-      <c r="B29" s="39"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="19">
         <f>C22</f>
         <v>3</v>
@@ -2051,13 +2058,13 @@
         <f>F22*2</f>
         <v>0.46</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="40">
         <f t="shared" si="1"/>
         <v>6.6245047241694603</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="23"/>
-      <c r="J29" s="43"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="21"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2068,7 +2075,7 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="19"/>
@@ -2085,7 +2092,7 @@
       <c r="I30" s="23">
         <v>915.42</v>
       </c>
-      <c r="J30" s="43">
+      <c r="J30" s="42">
         <f>G30*I30</f>
         <v>60043.018826069128</v>
       </c>
@@ -2099,7 +2106,7 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="19"/>
@@ -2109,7 +2116,7 @@
       <c r="G31" s="23"/>
       <c r="H31" s="22"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="43">
+      <c r="J31" s="42">
         <f>0.13*G30*46827.87/100</f>
         <v>3992.9132900670002</v>
       </c>
@@ -2123,7 +2130,7 @@
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
-      <c r="B32" s="39"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="19"/>
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
@@ -2131,7 +2138,7 @@
       <c r="G32" s="23"/>
       <c r="H32" s="22"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="43"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="21"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2144,25 +2151,25 @@
       <c r="A33" s="18">
         <v>5</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="60" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="35" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="22"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="43"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="21"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2173,7 +2180,7 @@
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="39" t="str">
+      <c r="B34" s="38" t="str">
         <f>B27</f>
         <v>-slab</v>
       </c>
@@ -2189,17 +2196,17 @@
         <f>8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="40">
         <f>PRODUCT(C34:E34)</f>
         <v>246.35668890469253</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="40">
         <f>F34/1000</f>
         <v>0.24635668890469253</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="43"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="21"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2210,7 +2217,7 @@
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
-      <c r="B35" s="39"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="19">
         <f>2*(TRUNC((D20-0.3-0.3-0.3)/0.15,0)+1)</f>
         <v>114</v>
@@ -2223,17 +2230,17 @@
         <f>8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="40">
         <f>PRODUCT(C35:E35)</f>
         <v>243.64748778037409</v>
       </c>
-      <c r="G35" s="41">
+      <c r="G35" s="40">
         <f>F35/1000</f>
         <v>0.24364748778037409</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="43"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="21"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2244,7 +2251,7 @@
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
-      <c r="B36" s="39" t="str">
+      <c r="B36" s="38" t="str">
         <f>B28</f>
         <v>-beam</v>
       </c>
@@ -2260,17 +2267,17 @@
         <f>12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="40">
         <f t="shared" ref="F36:F37" si="2">PRODUCT(C36:E36)</f>
         <v>83.985234853872456</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="40">
         <f t="shared" ref="G36:G39" si="3">F36/1000</f>
         <v>8.3985234853872451E-2</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="43"/>
+      <c r="J36" s="42"/>
       <c r="K36" s="21"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2281,7 +2288,7 @@
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
-      <c r="B37" s="39"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="19">
         <f>3*5</f>
         <v>15</v>
@@ -2294,17 +2301,17 @@
         <f>12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="40">
         <f t="shared" si="2"/>
         <v>72.132479934979173</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="40">
         <f t="shared" si="3"/>
         <v>7.2132479934979177E-2</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="43"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="21"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2315,7 +2322,7 @@
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="19">
@@ -2330,17 +2337,17 @@
         <f t="shared" ref="E38:E39" si="4">12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="40">
         <f t="shared" ref="F38:F39" si="5">PRODUCT(C38:E38)</f>
         <v>102.18618984726876</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="40">
         <f t="shared" si="3"/>
         <v>0.10218618984726877</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="43"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="21"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -2351,7 +2358,7 @@
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
-      <c r="B39" s="39"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="19">
         <f>23+3+3</f>
         <v>29</v>
@@ -2364,17 +2371,17 @@
         <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="40">
         <f t="shared" si="5"/>
         <v>28.494226015103788</v>
       </c>
-      <c r="G39" s="41">
+      <c r="G39" s="40">
         <f t="shared" si="3"/>
         <v>2.8494226015103787E-2</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="43"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="21"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -2385,7 +2392,7 @@
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="19"/>
@@ -2402,7 +2409,7 @@
       <c r="I40" s="23">
         <v>131940</v>
       </c>
-      <c r="J40" s="43">
+      <c r="J40" s="42">
         <f>G40*I40</f>
         <v>102491.29642995022</v>
       </c>
@@ -2416,7 +2423,7 @@
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="19"/>
@@ -2426,7 +2433,7 @@
       <c r="G41" s="23"/>
       <c r="H41" s="22"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="43">
+      <c r="J41" s="42">
         <f>0.13*G40*106200</f>
         <v>10724.532655084831</v>
       </c>
@@ -2440,7 +2447,7 @@
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
-      <c r="B42" s="39"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="19"/>
       <c r="D42" s="20"/>
       <c r="E42" s="21"/>
@@ -2448,7 +2455,7 @@
       <c r="G42" s="23"/>
       <c r="H42" s="22"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="43"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="21"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -2470,7 +2477,7 @@
       <c r="D43" s="20"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="34">
+      <c r="G43" s="33">
         <f t="shared" ref="G43" si="6">PRODUCT(C43:F43)</f>
         <v>1</v>
       </c>
@@ -2480,7 +2487,7 @@
       <c r="I43" s="23">
         <v>500</v>
       </c>
-      <c r="J43" s="34">
+      <c r="J43" s="33">
         <f>G43*I43</f>
         <v>500</v>
       </c>
@@ -2502,7 +2509,7 @@
       <c r="G44" s="23"/>
       <c r="H44" s="22"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="43"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="21"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2512,226 +2519,233 @@
       <c r="R44" s="25"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="44" t="s">
+      <c r="A45" s="41"/>
+      <c r="B45" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43">
+      <c r="C45" s="44"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42">
         <f>SUM(J10:J43)</f>
         <v>345993.93824887183</v>
       </c>
-      <c r="K45" s="38"/>
+      <c r="K45" s="37"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="56"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="55"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="54"/>
     </row>
     <row r="47" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="82">
+      <c r="C47" s="63">
         <f>J45</f>
         <v>345993.93824887183</v>
       </c>
-      <c r="D47" s="82"/>
-      <c r="E47" s="41">
+      <c r="D47" s="63"/>
+      <c r="E47" s="40">
         <v>100</v>
       </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="53"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="52"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="85">
+      <c r="C48" s="66">
         <v>300000</v>
       </c>
-      <c r="D48" s="85"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="47"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="46"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="85">
+      <c r="C49" s="66">
         <f>C48-C51-C52</f>
         <v>285000</v>
       </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="41">
+      <c r="D49" s="66"/>
+      <c r="E49" s="40">
         <f>C49/C47*100</f>
         <v>82.371385302999386</v>
       </c>
-      <c r="F49" s="47"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="47"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="46"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="82">
+      <c r="C50" s="63">
         <f>C47-C49</f>
         <v>60993.938248871826</v>
       </c>
-      <c r="D50" s="82"/>
-      <c r="E50" s="41">
+      <c r="D50" s="63"/>
+      <c r="E50" s="40">
         <f>100-E49</f>
         <v>17.628614697000614</v>
       </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="47"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="46"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="82">
+      <c r="C51" s="63">
         <f>C48*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D51" s="82"/>
-      <c r="E51" s="41">
+      <c r="D51" s="63"/>
+      <c r="E51" s="40">
         <v>3</v>
       </c>
-      <c r="F51" s="47"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="47"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="46"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="82">
+      <c r="C52" s="63">
         <f>C48*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D52" s="82"/>
-      <c r="E52" s="41">
+      <c r="D52" s="63"/>
+      <c r="E52" s="40">
         <v>2</v>
       </c>
-      <c r="F52" s="47"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="47"/>
-    </row>
-    <row r="53" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-    </row>
-    <row r="54" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="46"/>
+    </row>
+    <row r="53" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+    </row>
+    <row r="54" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A7:F7"/>
@@ -2740,13 +2754,6 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -2783,113 +2790,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2930,7 +2937,7 @@
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="19"/>
@@ -2940,7 +2947,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="43"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="21"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2949,7 +2956,7 @@
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="19">
@@ -2966,13 +2973,13 @@
       <c r="F10" s="21">
         <v>0.125</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="40">
         <f>PRODUCT(C10:F10)</f>
         <v>6.9670479995236381</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="43"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="21"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2981,7 +2988,7 @@
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="19">
@@ -2997,13 +3004,13 @@
       <c r="F11" s="21">
         <v>0.23</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="40">
         <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
         <v>0.93514172508381599</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="43"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="21"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3012,7 +3019,7 @@
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
-      <c r="B12" s="39"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="19">
         <v>3</v>
       </c>
@@ -3026,13 +3033,13 @@
       <c r="F12" s="21">
         <v>0.23</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="40">
         <f t="shared" si="0"/>
         <v>0.81018744285278876</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="43"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="21"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -3041,7 +3048,7 @@
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="19">
@@ -3056,13 +3063,13 @@
       <c r="F13" s="21">
         <v>0.3</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="40">
         <f t="shared" si="0"/>
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="43"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="21"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3071,7 +3078,7 @@
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="19"/>
@@ -3088,7 +3095,7 @@
       <c r="I14" s="23">
         <v>13568.9</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="42">
         <f>G14*I14</f>
         <v>118950.0951475513</v>
       </c>
@@ -3100,7 +3107,7 @@
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="19"/>
@@ -3110,7 +3117,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="43">
+      <c r="J15" s="42">
         <f>0.13*G14*9524.2</f>
         <v>10854.054824382232</v>
       </c>
@@ -3122,7 +3129,7 @@
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="39"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
@@ -3130,7 +3137,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="43"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="21"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -3141,7 +3148,7 @@
       <c r="A17" s="18">
         <v>2</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="60" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="19"/>
@@ -3151,7 +3158,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
-      <c r="J17" s="43"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="21"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -3160,7 +3167,7 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="39" t="str">
+      <c r="B18" s="38" t="str">
         <f>B10</f>
         <v>-slab</v>
       </c>
@@ -3177,13 +3184,13 @@
         <v>5.7147211216092648</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="41">
+      <c r="G18" s="40">
         <f>PRODUCT(C18:F18)</f>
         <v>55.736383996189105</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
-      <c r="J18" s="43"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="21"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -3192,7 +3199,7 @@
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="39" t="str">
+      <c r="B19" s="38" t="str">
         <f>B11</f>
         <v>-beam</v>
       </c>
@@ -3209,13 +3216,13 @@
         <f>F11*2</f>
         <v>0.46</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="40">
         <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
         <v>8.131667174641878</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="43"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="21"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -3224,7 +3231,7 @@
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="19">
         <f>C12</f>
         <v>3</v>
@@ -3238,13 +3245,13 @@
         <f>F12*2</f>
         <v>0.46</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="40">
         <f t="shared" si="1"/>
         <v>7.0451081987199018</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="43"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="21"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -3253,7 +3260,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
-      <c r="B21" s="39" t="str">
+      <c r="B21" s="38" t="str">
         <f>B13</f>
         <v>-column</v>
       </c>
@@ -3270,13 +3277,13 @@
         <f>F13</f>
         <v>0.3</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="40">
         <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="43"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="21"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -3285,7 +3292,7 @@
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="19"/>
@@ -3302,7 +3309,7 @@
       <c r="I22" s="23">
         <v>915.42</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="42">
         <f>G22*I22</f>
         <v>65574.426750074272</v>
       </c>
@@ -3314,7 +3321,7 @@
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="19"/>
@@ -3324,7 +3331,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
-      <c r="J23" s="43">
+      <c r="J23" s="42">
         <f>0.13*G22*46827.87/100</f>
         <v>4360.7567570405945</v>
       </c>
@@ -3336,7 +3343,7 @@
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
@@ -3344,7 +3351,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="22"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="43"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="21"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -3355,25 +3362,25 @@
       <c r="A25" s="18">
         <v>3</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="60" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="35" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="22"/>
       <c r="I25" s="23"/>
-      <c r="J25" s="43"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="21"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -3382,7 +3389,7 @@
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="19">
@@ -3396,17 +3403,17 @@
         <f>8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="40">
         <f>PRODUCT(C26:E26)</f>
         <v>129.64165547239813</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="40">
         <f>F26/1000</f>
         <v>0.12964165547239812</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="43"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="21"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -3415,7 +3422,7 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
-      <c r="B27" s="39"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="19">
         <f>60</f>
         <v>60</v>
@@ -3428,17 +3435,17 @@
         <f>8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <f>PRODUCT(C27:E27)</f>
         <v>133.07595922652308</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="40">
         <f>F27/1000</f>
         <v>0.13307595922652307</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="43"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="21"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -3447,7 +3454,7 @@
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="19">
@@ -3462,17 +3469,17 @@
         <f t="shared" ref="E28:E32" si="2">8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="40">
         <f t="shared" ref="F28:F32" si="3">PRODUCT(C28:E28)</f>
         <v>14.629686071319718</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="40">
         <f t="shared" ref="G28:G32" si="4">F28/1000</f>
         <v>1.4629686071319717E-2</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="43"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="21"/>
       <c r="M28" s="1">
         <f>12.75*0.3</f>
@@ -3490,7 +3497,7 @@
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
-      <c r="B29" s="39"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="19">
         <f>9</f>
         <v>9</v>
@@ -3503,17 +3510,17 @@
         <f t="shared" si="2"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="40">
         <f t="shared" si="3"/>
         <v>9.3012293000101582</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="40">
         <f t="shared" si="4"/>
         <v>9.3012293000101585E-3</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="23"/>
-      <c r="J29" s="43"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="21"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -3525,7 +3532,7 @@
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
-      <c r="B30" s="39"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="19">
         <f>13+12</f>
         <v>25</v>
@@ -3538,17 +3545,17 @@
         <f t="shared" si="2"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="40">
         <f t="shared" si="3"/>
         <v>95.32474667088097</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="40">
         <f t="shared" si="4"/>
         <v>9.5324746670880964E-2</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
-      <c r="J30" s="43"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="21"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -3557,7 +3564,7 @@
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="19">
@@ -3572,17 +3579,17 @@
         <f t="shared" si="2"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="40">
         <f t="shared" si="3"/>
         <v>34.114260557418135</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="40">
         <f t="shared" si="4"/>
         <v>3.4114260557418133E-2</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="43"/>
+      <c r="J31" s="42"/>
       <c r="K31" s="21"/>
       <c r="M31" s="1">
         <f>12.75*0.3</f>
@@ -3600,7 +3607,7 @@
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
-      <c r="B32" s="39"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="19">
         <f>10*4</f>
         <v>40</v>
@@ -3613,17 +3620,17 @@
         <f t="shared" si="2"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="40">
         <f t="shared" si="3"/>
         <v>88.717306151015393</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="40">
         <f t="shared" si="4"/>
         <v>8.871730615101539E-2</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="43"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="21"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -3632,7 +3639,7 @@
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
-      <c r="B33" s="39" t="str">
+      <c r="B33" s="38" t="str">
         <f>B19</f>
         <v>-beam</v>
       </c>
@@ -3648,39 +3655,39 @@
         <f>12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="40">
         <f t="shared" ref="F33:F34" si="5">PRODUCT(C33:E33)</f>
         <v>86.69443597819091</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="40">
         <f t="shared" ref="G33:G34" si="6">F33/1000</f>
         <v>8.6694435978190904E-2</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="43"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="21"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="62">
+      <c r="N33" s="61">
         <f>SUM(F26:F32)</f>
         <v>504.80484344956568</v>
       </c>
-      <c r="O33" s="62">
+      <c r="O33" s="61">
         <f>F35+F36</f>
         <v>120.96399396450192</v>
       </c>
-      <c r="P33" s="62">
+      <c r="P33" s="61">
         <f>F41+F42</f>
         <v>10.145185185185184</v>
       </c>
-      <c r="Q33" s="63">
+      <c r="Q33" s="62">
         <f>SUM(N33:P33)</f>
         <v>635.91402259925269</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="39"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="19">
         <f>3*5</f>
         <v>15</v>
@@ -3693,20 +3700,20 @@
         <f>12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="40">
         <f t="shared" si="5"/>
         <v>76.196281621456862</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="40">
         <f t="shared" si="6"/>
         <v>7.6196281621456863E-2</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="43"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="21"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="62">
+      <c r="N34" s="61">
         <f>SUM(F33+F34+F37+F38+F39+F40)</f>
         <v>352.08290155440409</v>
       </c>
@@ -3715,7 +3722,7 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="19">
@@ -3730,17 +3737,17 @@
         <f t="shared" ref="E35:E42" si="7">8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="40">
         <f>PRODUCT(C35:E35)</f>
         <v>64.630581612802473</v>
       </c>
-      <c r="G35" s="41">
+      <c r="G35" s="40">
         <f>F35/1000</f>
         <v>6.4630581612802468E-2</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="43"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="21"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -3749,7 +3756,7 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
-      <c r="B36" s="39"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="19">
         <f>(29+7+7)*3</f>
         <v>129</v>
@@ -3762,17 +3769,17 @@
         <f t="shared" si="7"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="40">
         <f>PRODUCT(C36:E36)</f>
         <v>56.333412351699451</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="40">
         <f>F36/1000</f>
         <v>5.6333412351699454E-2</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="43"/>
+      <c r="J36" s="42"/>
       <c r="K36" s="21"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -3781,7 +3788,7 @@
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="38" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="19">
@@ -3795,17 +3802,17 @@
         <f>12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="40">
         <f t="shared" ref="F37:F39" si="8">PRODUCT(C37:E37)</f>
         <v>8.2175488502827712</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="40">
         <f t="shared" ref="G37:G39" si="9">F37/1000</f>
         <v>8.2175488502827711E-3</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="43"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="21"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3814,7 +3821,7 @@
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
-      <c r="B38" s="39"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="19">
         <v>2</v>
       </c>
@@ -3826,17 +3833,17 @@
         <f>12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="40">
         <f t="shared" si="8"/>
         <v>5.8247824172847027</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="40">
         <f t="shared" si="9"/>
         <v>5.824782417284703E-3</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="43"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="21"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -3845,7 +3852,7 @@
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
-      <c r="B39" s="39"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="19">
         <v>6</v>
       </c>
@@ -3857,17 +3864,17 @@
         <f>12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="40">
         <f t="shared" si="8"/>
         <v>12.597785228080866</v>
       </c>
-      <c r="G39" s="41">
+      <c r="G39" s="40">
         <f t="shared" si="9"/>
         <v>1.2597785228080867E-2</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="43"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="21"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1">
@@ -3879,7 +3886,7 @@
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="19">
@@ -3894,17 +3901,17 @@
         <f t="shared" ref="E40" si="10">12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40" s="40">
         <f t="shared" ref="F40" si="11">PRODUCT(C40:E40)</f>
         <v>162.55206745910797</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="40">
         <f t="shared" ref="G40:G42" si="12">F40/1000</f>
         <v>0.16255206745910797</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="43"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="21"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3913,7 +3920,7 @@
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="19">
@@ -3928,17 +3935,17 @@
         <f t="shared" si="7"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="40">
         <f>PRODUCT(C41:E41)</f>
         <v>5.0725925925925921</v>
       </c>
-      <c r="G41" s="41">
+      <c r="G41" s="40">
         <f t="shared" si="12"/>
         <v>5.0725925925925921E-3</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="43"/>
+      <c r="J41" s="42"/>
       <c r="K41" s="21"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3947,7 +3954,7 @@
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
-      <c r="B42" s="39"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="19">
         <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
         <v>12</v>
@@ -3960,17 +3967,17 @@
         <f t="shared" si="7"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F42" s="41">
+      <c r="F42" s="40">
         <f>PRODUCT(C42:E42)</f>
         <v>5.0725925925925921</v>
       </c>
-      <c r="G42" s="41">
+      <c r="G42" s="40">
         <f t="shared" si="12"/>
         <v>5.0725925925925921E-3</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="43"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="21"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3979,7 +3986,7 @@
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="19"/>
@@ -3996,7 +4003,7 @@
       <c r="I43" s="23">
         <v>131940</v>
       </c>
-      <c r="J43" s="43">
+      <c r="J43" s="42">
         <f>G43*I43</f>
         <v>130356.31417283347</v>
       </c>
@@ -4008,7 +4015,7 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="19"/>
@@ -4018,7 +4025,7 @@
       <c r="G44" s="23"/>
       <c r="H44" s="22"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="43">
+      <c r="J44" s="42">
         <f>0.13*G43*106200</f>
         <v>13640.285534865385</v>
       </c>
@@ -4030,7 +4037,7 @@
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
-      <c r="B45" s="39"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="19"/>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
@@ -4038,7 +4045,7 @@
       <c r="G45" s="23"/>
       <c r="H45" s="22"/>
       <c r="I45" s="23"/>
-      <c r="J45" s="43"/>
+      <c r="J45" s="42"/>
       <c r="K45" s="21"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -4058,7 +4065,7 @@
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="34">
+      <c r="G46" s="33">
         <f t="shared" ref="G46" si="13">PRODUCT(C46:F46)</f>
         <v>1</v>
       </c>
@@ -4068,7 +4075,7 @@
       <c r="I46" s="23">
         <v>500</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="33">
         <f>G46*I46</f>
         <v>500</v>
       </c>
@@ -4088,7 +4095,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="43"/>
+      <c r="J47" s="42"/>
       <c r="K47" s="21"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -4096,233 +4103,226 @@
       <c r="P47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="44" t="s">
+      <c r="A48" s="41"/>
+      <c r="B48" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43">
+      <c r="C48" s="44"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42">
         <f>SUM(J9:J46)</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="K48" s="38"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="56"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="55"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="54"/>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="82">
+      <c r="C50" s="63">
         <f>J48</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="D50" s="82"/>
-      <c r="E50" s="41">
+      <c r="D50" s="63"/>
+      <c r="E50" s="40">
         <v>100</v>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="53"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="52"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="85">
+      <c r="C51" s="66">
         <v>300000</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="47"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="46"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="85">
+      <c r="C52" s="66">
         <f>C51-C54-C55</f>
         <v>285000</v>
       </c>
-      <c r="D52" s="85"/>
-      <c r="E52" s="41">
+      <c r="D52" s="66"/>
+      <c r="E52" s="40">
         <f>C52/C50*100</f>
         <v>82.792054089654883</v>
       </c>
-      <c r="F52" s="47"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="47"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="46"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="54"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="82">
+      <c r="C53" s="63">
         <f>C50-C52</f>
         <v>59235.93318674725</v>
       </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="41">
+      <c r="D53" s="63"/>
+      <c r="E53" s="40">
         <f>100-E52</f>
         <v>17.207945910345117</v>
       </c>
-      <c r="F53" s="47"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="47"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="46"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="54"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="82">
+      <c r="C54" s="63">
         <f>C51*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D54" s="82"/>
-      <c r="E54" s="41">
+      <c r="D54" s="63"/>
+      <c r="E54" s="40">
         <v>3</v>
       </c>
-      <c r="F54" s="47"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="47"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="46"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="54"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="82">
+      <c r="C55" s="63">
         <f>C51*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D55" s="82"/>
-      <c r="E55" s="41">
+      <c r="D55" s="63"/>
+      <c r="E55" s="40">
         <v>2</v>
       </c>
-      <c r="F55" s="47"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="47"/>
-    </row>
-    <row r="56" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-    </row>
-    <row r="57" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="46"/>
+    </row>
+    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+    </row>
+    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A7:F7"/>
@@ -4331,6 +4331,13 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -4347,8 +4354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4367,90 +4374,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="64">
+      <c r="C6" s="82">
         <f>F24</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="D6" s="65"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -4458,11 +4465,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="64">
+      <c r="J6" s="82">
         <f>I24</f>
         <v>352237.30428883055</v>
       </c>
-      <c r="K6" s="65"/>
+      <c r="K6" s="83"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -4471,77 +4478,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="I7" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="I7" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="str">
+      <c r="A8" s="67" t="str">
         <f>'kalimasta mandir final (2)'!A6:F6</f>
         <v>Project:- कालीमस्ट मन्दिर निर्माण</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="I8" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="I8" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="76" t="str">
+      <c r="A9" s="78" t="str">
         <f>'kalimasta mandir final (2)'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="I9" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="I9" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77" t="s">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="70" t="s">
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="71" t="s">
+      <c r="K11" s="74" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="70"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -4560,15 +4567,15 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <f>'kalimasta mandir final (2)'!A9</f>
         <v>1</v>
       </c>
-      <c r="B13" s="61" t="str">
+      <c r="B13" s="60" t="str">
         <f>'kalimasta mandir final (2)'!B9</f>
         <v>d]lzgsf] k|of]u u/L ;'k/ :6«Sr/df l;d]G6 s+lqm6 ug]{ sfd -!M!=%M#_</v>
       </c>
@@ -4608,7 +4615,7 @@
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
-      <c r="B14" s="33" t="str">
+      <c r="B14" s="32" t="str">
         <f>'kalimasta mandir final (2)'!B15</f>
         <v>VAT calculation</v>
       </c>
@@ -4644,12 +4651,12 @@
       <c r="J15" s="28"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <f>'kalimasta mandir final (2)'!A17</f>
         <v>2</v>
       </c>
-      <c r="B16" s="32" t="str">
+      <c r="B16" s="60" t="str">
         <f>'kalimasta mandir final (2)'!B17</f>
         <v>kmnfd]sf] kfOk / KnfOaf]8{af6 kmdf{ agfpg] sfd</v>
       </c>
@@ -4689,7 +4696,7 @@
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
-      <c r="B17" s="33" t="str">
+      <c r="B17" s="32" t="str">
         <f>'kalimasta mandir final (2)'!B23</f>
         <v>VAT calculation</v>
       </c>
@@ -4725,12 +4732,12 @@
       <c r="J18" s="28"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <f>'kalimasta mandir final (2)'!A25</f>
         <v>3</v>
       </c>
-      <c r="B19" s="32" t="str">
+      <c r="B19" s="60" t="str">
         <f>'kalimasta mandir final (2)'!B25</f>
         <v>cf/=;L=;L= nflu kmnfd] 808L sf6\g], df]8\g] #) dL6/ ;Dd</v>
       </c>
@@ -4770,7 +4777,7 @@
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
-      <c r="B20" s="33" t="str">
+      <c r="B20" s="32" t="str">
         <f>'kalimasta mandir final (2)'!B44</f>
         <v>VAT calculation</v>
       </c>
@@ -4888,6 +4895,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -4901,13 +4915,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4925,8 +4932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4945,113 +4952,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="A5" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
+      <c r="H7" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -5092,7 +5099,7 @@
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="19"/>
@@ -5102,7 +5109,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="43"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="21"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -5111,7 +5118,7 @@
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="19">
@@ -5128,13 +5135,13 @@
       <c r="F10" s="21">
         <v>0.125</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="40">
         <f>PRODUCT(C10:F10)</f>
         <v>7.0599419728506199</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="43"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="21"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -5143,7 +5150,7 @@
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="19">
@@ -5159,13 +5166,13 @@
       <c r="F11" s="21">
         <v>0.23</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="40">
         <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
         <v>1.0318805242304177</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="43"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="21"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -5174,7 +5181,7 @@
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
-      <c r="B12" s="39"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="19">
         <v>3</v>
       </c>
@@ -5188,13 +5195,13 @@
       <c r="F12" s="21">
         <v>0.23</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="40">
         <f t="shared" si="0"/>
         <v>0.90692624199939043</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="43"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="21"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -5203,7 +5210,7 @@
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="19">
@@ -5218,13 +5225,13 @@
       <c r="F13" s="21">
         <v>0.3</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="40">
         <f t="shared" si="0"/>
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="43"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="21"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -5233,7 +5240,7 @@
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="19"/>
@@ -5250,7 +5257,7 @@
       <c r="I14" s="23">
         <v>13568.9</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="42">
         <f>G14*I14</f>
         <v>122835.84236570842</v>
       </c>
@@ -5262,7 +5269,7 @@
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="19"/>
@@ -5272,7 +5279,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="43">
+      <c r="J15" s="42">
         <f>0.13*G14*9524.2</f>
         <v>11208.624640297478</v>
       </c>
@@ -5284,7 +5291,7 @@
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="39"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
@@ -5292,7 +5299,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="43"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="21"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -5303,7 +5310,7 @@
       <c r="A17" s="18">
         <v>2</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="60" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="19"/>
@@ -5313,7 +5320,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
-      <c r="J17" s="43"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="21"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -5322,7 +5329,7 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="39" t="str">
+      <c r="B18" s="38" t="str">
         <f>B10</f>
         <v>-slab</v>
       </c>
@@ -5339,13 +5346,13 @@
         <v>5.790917403230722</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="41">
+      <c r="G18" s="40">
         <f>PRODUCT(C18:F18)</f>
         <v>56.479535782804959</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
-      <c r="J18" s="43"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="21"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -5354,7 +5361,7 @@
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="39" t="str">
+      <c r="B19" s="38" t="str">
         <f>B11</f>
         <v>-beam</v>
       </c>
@@ -5371,13 +5378,13 @@
         <f>F11*2</f>
         <v>0.46</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="40">
         <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
         <v>8.9728741237427609</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="43"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="21"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -5386,7 +5393,7 @@
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="19">
         <f>C12</f>
         <v>3</v>
@@ -5400,13 +5407,13 @@
         <f>F12*2</f>
         <v>0.46</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="40">
         <f t="shared" si="1"/>
         <v>7.8863151478207856</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="43"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="21"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -5415,7 +5422,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
-      <c r="B21" s="39" t="str">
+      <c r="B21" s="38" t="str">
         <f>B13</f>
         <v>-column</v>
       </c>
@@ -5432,13 +5439,13 @@
         <f>F13</f>
         <v>0.3</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="40">
         <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="43"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="21"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -5447,7 +5454,7 @@
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="19"/>
@@ -5464,7 +5471,7 @@
       <c r="I22" s="23">
         <v>915.42</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="42">
         <f>G22*I22</f>
         <v>67794.838089270008</v>
       </c>
@@ -5476,7 +5483,7 @@
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="19"/>
@@ -5486,7 +5493,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
-      <c r="J23" s="43">
+      <c r="J23" s="42">
         <f>0.13*G22*46827.87/100</f>
         <v>4508.4160539752247</v>
       </c>
@@ -5498,7 +5505,7 @@
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
@@ -5506,7 +5513,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="22"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="43"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="21"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -5517,25 +5524,25 @@
       <c r="A25" s="18">
         <v>3</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="60" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="35" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="22"/>
       <c r="I25" s="23"/>
-      <c r="J25" s="43"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="21"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -5544,7 +5551,7 @@
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="19">
@@ -5559,17 +5566,17 @@
         <f>8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="40">
         <f>PRODUCT(C26:E26)</f>
         <v>92.474065043403641</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="40">
         <f t="shared" ref="G26:G36" si="2">F26/1000</f>
         <v>9.2474065043403636E-2</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="43"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="21"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -5578,7 +5585,7 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="19">
@@ -5593,17 +5600,17 @@
         <f t="shared" ref="E27:E36" si="3">8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <f t="shared" ref="F27:F36" si="4">PRODUCT(C27:E27)</f>
         <v>150.27035569553092</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="40">
         <f t="shared" si="2"/>
         <v>0.15027035569553093</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="43"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="21"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -5612,7 +5619,7 @@
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="19">
@@ -5627,24 +5634,24 @@
         <f t="shared" si="3"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="40">
         <f t="shared" si="4"/>
         <v>157.85611884362262</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="40">
         <f t="shared" si="2"/>
         <v>0.15785611884362263</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="43"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="21"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="62">
+      <c r="N28" s="61">
         <f>SUM(F26:F36)</f>
         <v>551.40551096662023</v>
       </c>
-      <c r="O28" s="62" t="e">
+      <c r="O28" s="61" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -5652,7 +5659,7 @@
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="19">
@@ -5666,17 +5673,17 @@
         <f t="shared" si="3"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="40">
         <f t="shared" si="4"/>
         <v>68.633095149401143</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="40">
         <f t="shared" si="2"/>
         <v>6.8633095149401149E-2</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="23"/>
-      <c r="J29" s="43"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="21"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -5685,7 +5692,7 @@
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="19">
@@ -5699,17 +5706,17 @@
         <f t="shared" si="3"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="40">
         <f t="shared" si="4"/>
         <v>12.7928477090318</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="40">
         <f t="shared" si="2"/>
         <v>1.27928477090318E-2</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
-      <c r="J30" s="43"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="21"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -5718,7 +5725,7 @@
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
-      <c r="B31" s="39"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="19">
         <v>15</v>
       </c>
@@ -5730,17 +5737,17 @@
         <f t="shared" si="3"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="40">
         <f t="shared" si="4"/>
         <v>11.739871538713354</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="40">
         <f t="shared" si="2"/>
         <v>1.1739871538713354E-2</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="43"/>
+      <c r="J31" s="42"/>
       <c r="K31" s="21"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -5749,7 +5756,7 @@
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
-      <c r="B32" s="39"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="19">
         <v>15</v>
       </c>
@@ -5761,17 +5768,17 @@
         <f t="shared" si="3"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="40">
         <f t="shared" si="4"/>
         <v>11.432828744623929</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="40">
         <f t="shared" si="2"/>
         <v>1.1432828744623929E-2</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="43"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="21"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -5780,7 +5787,7 @@
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="38" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="19">
@@ -5794,17 +5801,17 @@
         <f t="shared" si="3"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="40">
         <f t="shared" si="4"/>
         <v>12.493029451273888</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="40">
         <f t="shared" si="2"/>
         <v>1.2493029451273887E-2</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="43"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="21"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -5813,7 +5820,7 @@
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="39"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="19">
         <v>15</v>
       </c>
@@ -5825,17 +5832,17 @@
         <f t="shared" si="3"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="40">
         <f t="shared" si="4"/>
         <v>10.98671362615282</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="40">
         <f t="shared" si="2"/>
         <v>1.0986713626152821E-2</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="43"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="21"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -5844,7 +5851,7 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
-      <c r="B35" s="39"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="19">
         <v>15</v>
       </c>
@@ -5856,17 +5863,17 @@
         <f t="shared" si="3"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="40">
         <f t="shared" si="4"/>
         <v>10.98671362615282</v>
       </c>
-      <c r="G35" s="41">
+      <c r="G35" s="40">
         <f t="shared" si="2"/>
         <v>1.0986713626152821E-2</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="43"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="21"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -5875,7 +5882,7 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
-      <c r="B36" s="39"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="19">
         <v>15</v>
       </c>
@@ -5887,17 +5894,17 @@
         <f t="shared" si="3"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="40">
         <f t="shared" si="4"/>
         <v>11.739871538713354</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="40">
         <f t="shared" si="2"/>
         <v>1.1739871538713354E-2</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="43"/>
+      <c r="J36" s="42"/>
       <c r="K36" s="21"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -5906,7 +5913,7 @@
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
-      <c r="B37" s="39" t="str">
+      <c r="B37" s="38" t="str">
         <f>B19</f>
         <v>-beam</v>
       </c>
@@ -5922,39 +5929,39 @@
         <f>12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="40">
         <f t="shared" ref="F37:F38" si="5">PRODUCT(C37:E37)</f>
         <v>86.69443597819091</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="40">
         <f t="shared" ref="G37:G38" si="6">F37/1000</f>
         <v>8.6694435978190904E-2</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="43"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="21"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="62" t="e">
+      <c r="N37" s="61" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="O37" s="62">
+      <c r="O37" s="61">
         <f>F39+F40</f>
         <v>99.566031133236237</v>
       </c>
-      <c r="P37" s="62">
+      <c r="P37" s="61">
         <f>F48+F49</f>
         <v>10.145185185185184</v>
       </c>
-      <c r="Q37" s="63" t="e">
+      <c r="Q37" s="62" t="e">
         <f>SUM(N37:P37)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
-      <c r="B38" s="39"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="19">
         <f>3*4</f>
         <v>12</v>
@@ -5967,20 +5974,20 @@
         <f>12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="40">
         <f t="shared" si="5"/>
         <v>61.76978563446103</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="40">
         <f t="shared" si="6"/>
         <v>6.1769785634461033E-2</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="43"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="21"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="62" t="e">
+      <c r="N38" s="61" t="e">
         <f>SUM(F37+F38+F41+F42+#REF!+F47)</f>
         <v>#REF!</v>
       </c>
@@ -5989,7 +5996,7 @@
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="19">
@@ -6004,17 +6011,17 @@
         <f t="shared" ref="E39:E49" si="7">8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="40">
         <f>PRODUCT(C39:E39)</f>
         <v>52.403174280650653</v>
       </c>
-      <c r="G39" s="41">
+      <c r="G39" s="40">
         <f>F39/1000</f>
         <v>5.2403174280650652E-2</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="43"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="21"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -6023,7 +6030,7 @@
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
-      <c r="B40" s="39"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="19">
         <f>36*3</f>
         <v>108</v>
@@ -6036,17 +6043,17 @@
         <f t="shared" si="7"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40" s="40">
         <f>PRODUCT(C40:E40)</f>
         <v>47.162856852585584</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="40">
         <f>F40/1000</f>
         <v>4.7162856852585582E-2</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="43"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="21"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -6055,7 +6062,7 @@
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="38" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="19">
@@ -6069,17 +6076,17 @@
         <f>12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="40">
         <f t="shared" ref="F41:F47" si="8">PRODUCT(C41:E41)</f>
         <v>12.597785228080866</v>
       </c>
-      <c r="G41" s="41">
+      <c r="G41" s="40">
         <f t="shared" ref="G41:G49" si="9">F41/1000</f>
         <v>1.2597785228080867E-2</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="43"/>
+      <c r="J41" s="42"/>
       <c r="K41" s="21"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -6088,7 +6095,7 @@
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
-      <c r="B42" s="39"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="19">
         <v>1</v>
       </c>
@@ -6100,17 +6107,17 @@
         <f>12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F42" s="41">
+      <c r="F42" s="40">
         <f t="shared" si="8"/>
         <v>2.3480646144468147</v>
       </c>
-      <c r="G42" s="41">
+      <c r="G42" s="40">
         <f t="shared" si="9"/>
         <v>2.3480646144468146E-3</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="43"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="21"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -6119,7 +6126,7 @@
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
-      <c r="B43" s="39"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="19">
         <v>1</v>
       </c>
@@ -6131,17 +6138,17 @@
         <f t="shared" ref="E43:E46" si="10">12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43" s="40">
         <f t="shared" ref="F43:F46" si="11">PRODUCT(C43:E43)</f>
         <v>5.1474821362050855</v>
       </c>
-      <c r="G43" s="41">
+      <c r="G43" s="40">
         <f t="shared" ref="G43:G46" si="12">F43/1000</f>
         <v>5.1474821362050855E-3</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="43"/>
+      <c r="J43" s="42"/>
       <c r="K43" s="21"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -6150,7 +6157,7 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
-      <c r="B44" s="39"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="19">
         <v>1</v>
       </c>
@@ -6162,17 +6169,17 @@
         <f t="shared" si="10"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="40">
         <f t="shared" si="11"/>
         <v>2.0771445020149679</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44" s="40">
         <f t="shared" si="12"/>
         <v>2.0771445020149677E-3</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="43"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="21"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -6181,7 +6188,7 @@
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
-      <c r="B45" s="39"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="19">
         <v>2</v>
       </c>
@@ -6193,17 +6200,17 @@
         <f t="shared" si="10"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F45" s="41">
+      <c r="F45" s="40">
         <f t="shared" si="11"/>
         <v>4.8765620237732401</v>
       </c>
-      <c r="G45" s="41">
+      <c r="G45" s="40">
         <f t="shared" si="12"/>
         <v>4.8765620237732404E-3</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="23"/>
-      <c r="J45" s="43"/>
+      <c r="J45" s="42"/>
       <c r="K45" s="21"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -6212,7 +6219,7 @@
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
-      <c r="B46" s="39"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="19">
         <v>2</v>
       </c>
@@ -6224,17 +6231,17 @@
         <f t="shared" si="10"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F46" s="41">
+      <c r="F46" s="40">
         <f t="shared" si="11"/>
         <v>4.8765620237732401</v>
       </c>
-      <c r="G46" s="41">
+      <c r="G46" s="40">
         <f t="shared" si="12"/>
         <v>4.8765620237732404E-3</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="43"/>
+      <c r="J46" s="42"/>
       <c r="K46" s="21"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -6243,7 +6250,7 @@
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="19">
@@ -6258,17 +6265,17 @@
         <f t="shared" ref="E47" si="13">12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F47" s="41">
+      <c r="F47" s="40">
         <f t="shared" si="8"/>
         <v>156.04998476074368</v>
       </c>
-      <c r="G47" s="41">
+      <c r="G47" s="40">
         <f t="shared" si="9"/>
         <v>0.15604998476074369</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="43"/>
+      <c r="J47" s="42"/>
       <c r="K47" s="21"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -6277,7 +6284,7 @@
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="19">
@@ -6292,17 +6299,17 @@
         <f t="shared" si="7"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F48" s="41">
+      <c r="F48" s="40">
         <f>PRODUCT(C48:E48)</f>
         <v>5.0725925925925921</v>
       </c>
-      <c r="G48" s="41">
+      <c r="G48" s="40">
         <f t="shared" si="9"/>
         <v>5.0725925925925921E-3</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="43"/>
+      <c r="J48" s="42"/>
       <c r="K48" s="21"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -6311,7 +6318,7 @@
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
-      <c r="B49" s="39"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="19">
         <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
         <v>12</v>
@@ -6324,17 +6331,17 @@
         <f t="shared" si="7"/>
         <v>0.39506172839506171</v>
       </c>
-      <c r="F49" s="41">
+      <c r="F49" s="40">
         <f>PRODUCT(C49:E49)</f>
         <v>5.0725925925925921</v>
       </c>
-      <c r="G49" s="41">
+      <c r="G49" s="40">
         <f t="shared" si="9"/>
         <v>5.0725925925925921E-3</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="23"/>
-      <c r="J49" s="43"/>
+      <c r="J49" s="42"/>
       <c r="K49" s="21"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -6343,7 +6350,7 @@
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="19"/>
@@ -6360,7 +6367,7 @@
       <c r="I50" s="23">
         <v>131940</v>
       </c>
-      <c r="J50" s="43">
+      <c r="J50" s="42">
         <f>G50*I50</f>
         <v>131617.34524059738</v>
       </c>
@@ -6372,7 +6379,7 @@
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="19"/>
@@ -6382,7 +6389,7 @@
       <c r="G51" s="23"/>
       <c r="H51" s="22"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="43">
+      <c r="J51" s="42">
         <f>0.13*G50*106200</f>
         <v>13772.237898982017</v>
       </c>
@@ -6394,7 +6401,7 @@
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
-      <c r="B52" s="39"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="19"/>
       <c r="D52" s="20"/>
       <c r="E52" s="21"/>
@@ -6402,7 +6409,7 @@
       <c r="G52" s="23"/>
       <c r="H52" s="22"/>
       <c r="I52" s="23"/>
-      <c r="J52" s="43"/>
+      <c r="J52" s="42"/>
       <c r="K52" s="21"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -6422,7 +6429,7 @@
       <c r="D53" s="20"/>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
-      <c r="G53" s="34">
+      <c r="G53" s="33">
         <f t="shared" ref="G53" si="14">PRODUCT(C53:F53)</f>
         <v>1</v>
       </c>
@@ -6432,7 +6439,7 @@
       <c r="I53" s="23">
         <v>500</v>
       </c>
-      <c r="J53" s="34">
+      <c r="J53" s="33">
         <f>G53*I53</f>
         <v>500</v>
       </c>
@@ -6452,7 +6459,7 @@
       <c r="G54" s="23"/>
       <c r="H54" s="22"/>
       <c r="I54" s="23"/>
-      <c r="J54" s="43"/>
+      <c r="J54" s="42"/>
       <c r="K54" s="21"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -6460,169 +6467,1896 @@
       <c r="P54" s="1"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="44" t="s">
+      <c r="A55" s="41"/>
+      <c r="B55" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43">
+      <c r="C55" s="44"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42">
         <f>SUM(J9:J53)</f>
         <v>352237.30428883055</v>
       </c>
-      <c r="K55" s="38"/>
+      <c r="K55" s="37"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="56"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="55"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="54"/>
     </row>
     <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="48"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="82">
+        <v>72</v>
+      </c>
+      <c r="C57" s="63">
         <f>J55</f>
         <v>352237.30428883055</v>
       </c>
-      <c r="D57" s="82"/>
-      <c r="E57" s="41">
+      <c r="D57" s="63"/>
+      <c r="E57" s="40">
         <v>100</v>
       </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="53"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="52"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="54"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="85">
+      <c r="C58" s="66">
         <v>300000</v>
       </c>
-      <c r="D58" s="85"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="47"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="46"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="54"/>
+      <c r="A59" s="53"/>
       <c r="B59" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="85">
+      <c r="C59" s="66">
         <f>C58-C61-C62</f>
         <v>285000</v>
       </c>
-      <c r="D59" s="85"/>
-      <c r="E59" s="41">
+      <c r="D59" s="66"/>
+      <c r="E59" s="40">
         <f>C59/C57*100</f>
         <v>80.91136189433908</v>
       </c>
-      <c r="F59" s="47"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="47"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="46"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="54"/>
+      <c r="A60" s="53"/>
       <c r="B60" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="82">
+      <c r="C60" s="63">
         <f>C57-C59</f>
         <v>67237.30428883055</v>
       </c>
-      <c r="D60" s="82"/>
-      <c r="E60" s="41">
+      <c r="D60" s="63"/>
+      <c r="E60" s="40">
         <f>100-E59</f>
         <v>19.08863810566092</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="47"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="46"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="54"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="82">
+      <c r="C61" s="63">
         <f>C58*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D61" s="82"/>
-      <c r="E61" s="41">
+      <c r="D61" s="63"/>
+      <c r="E61" s="40">
         <v>3</v>
       </c>
-      <c r="F61" s="47"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="47"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="46"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="54"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="82">
+      <c r="C62" s="63">
         <f>C58*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D62" s="82"/>
-      <c r="E62" s="41">
+      <c r="D62" s="63"/>
+      <c r="E62" s="40">
         <v>2</v>
       </c>
-      <c r="F62" s="47"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="47"/>
-    </row>
-    <row r="63" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-    </row>
-    <row r="64" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="46"/>
+    </row>
+    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+    </row>
+    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Milan Phuyal&amp;RApproved By:
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q64"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="21"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E10" s="21">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="40">
+        <f>PRODUCT(C10:F10)</f>
+        <v>7.0599419728506199</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G11" s="40">
+        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
+        <v>1.0318805242304177</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="19">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20">
+        <f>18.75/3.281</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="0"/>
+        <v>0.90692624199939043</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="21"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23">
+        <f>SUM(G10:G13)</f>
+        <v>9.0527487390804282</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="23">
+        <v>13568.9</v>
+      </c>
+      <c r="J14" s="42">
+        <f>G14*I14</f>
+        <v>122835.84236570842</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="42">
+        <f>0.13*G14*9524.2</f>
+        <v>11208.624640297478</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>2</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="38" t="str">
+        <f>B10</f>
+        <v>-slab</v>
+      </c>
+      <c r="C18" s="19">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E18" s="21">
+        <f>E10</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="40">
+        <f>PRODUCT(C18:F18)</f>
+        <v>56.479535782804959</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="38" t="str">
+        <f>B11</f>
+        <v>-beam</v>
+      </c>
+      <c r="C19" s="19">
+        <f>C11</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="20">
+        <f>D11</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21">
+        <f>F11*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G19" s="40">
+        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
+        <v>8.9728741237427609</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="19">
+        <f>C12</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="20">
+        <f>D12</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <f>F12*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G20" s="40">
+        <f t="shared" si="1"/>
+        <v>7.8863151478207856</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="38" t="str">
+        <f>B13</f>
+        <v>-column</v>
+      </c>
+      <c r="C21" s="19">
+        <f>C13</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="20">
+        <f>D13*4</f>
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21">
+        <f>F13</f>
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="40">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23">
+        <f>SUM(G18:G21)</f>
+        <v>74.058725054368495</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="23">
+        <v>915.42</v>
+      </c>
+      <c r="J22" s="42">
+        <f>G22*I22</f>
+        <v>67794.838089270008</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="42">
+        <f>0.13*G22*46827.87/100</f>
+        <v>4508.4160539752247</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>3</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="19">
+        <f>5+5+7+7</f>
+        <v>24</v>
+      </c>
+      <c r="D26" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E26" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F26" s="40">
+        <f>PRODUCT(C26:E26)</f>
+        <v>92.474065043403641</v>
+      </c>
+      <c r="G26" s="40">
+        <f t="shared" ref="G26:G38" si="2">F26/1000</f>
+        <v>9.2474065043403636E-2</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="19">
+        <f>29+5+5</f>
+        <v>39</v>
+      </c>
+      <c r="D27" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" ref="E27:E36" si="3">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" ref="F27:F38" si="4">PRODUCT(C27:E27)</f>
+        <v>150.27035569553092</v>
+      </c>
+      <c r="G27" s="40">
+        <f t="shared" si="2"/>
+        <v>0.15027035569553093</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="19">
+        <f>58+5+6</f>
+        <v>69</v>
+      </c>
+      <c r="D28" s="20">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F28" s="40">
+        <f t="shared" si="4"/>
+        <v>157.85611884362262</v>
+      </c>
+      <c r="G28" s="40">
+        <f t="shared" si="2"/>
+        <v>0.15785611884362263</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="61">
+        <f>SUM(F26:F36)</f>
+        <v>551.40551096662023</v>
+      </c>
+      <c r="O28" s="61" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="19">
+        <v>30</v>
+      </c>
+      <c r="D29" s="20">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F29" s="40">
+        <f t="shared" si="4"/>
+        <v>68.633095149401143</v>
+      </c>
+      <c r="G29" s="40">
+        <f t="shared" si="2"/>
+        <v>6.8633095149401149E-2</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="19">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20">
+        <f>7.083/3.281</f>
+        <v>2.1587930508991162</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F30" s="40">
+        <f t="shared" si="4"/>
+        <v>12.7928477090318</v>
+      </c>
+      <c r="G30" s="40">
+        <f t="shared" si="2"/>
+        <v>1.27928477090318E-2</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="19">
+        <v>15</v>
+      </c>
+      <c r="D31" s="20">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="4"/>
+        <v>11.739871538713354</v>
+      </c>
+      <c r="G31" s="40">
+        <f t="shared" si="2"/>
+        <v>1.1739871538713354E-2</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="19">
+        <v>15</v>
+      </c>
+      <c r="D32" s="20">
+        <f>6.33/3.281</f>
+        <v>1.929289850655288</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="4"/>
+        <v>11.432828744623929</v>
+      </c>
+      <c r="G32" s="40">
+        <f t="shared" si="2"/>
+        <v>1.1432828744623929E-2</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="19">
+        <v>15</v>
+      </c>
+      <c r="D33" s="20">
+        <f>6.917/3.281</f>
+        <v>2.1081987199024685</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" si="4"/>
+        <v>12.493029451273888</v>
+      </c>
+      <c r="G33" s="40">
+        <f t="shared" si="2"/>
+        <v>1.2493029451273887E-2</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="19">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" si="4"/>
+        <v>10.98671362615282</v>
+      </c>
+      <c r="G34" s="40">
+        <f t="shared" si="2"/>
+        <v>1.0986713626152821E-2</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="19">
+        <v>15</v>
+      </c>
+      <c r="D35" s="20">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" si="4"/>
+        <v>10.98671362615282</v>
+      </c>
+      <c r="G35" s="40">
+        <f t="shared" si="2"/>
+        <v>1.0986713626152821E-2</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="19">
+        <v>15</v>
+      </c>
+      <c r="D36" s="20">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="4"/>
+        <v>11.739871538713354</v>
+      </c>
+      <c r="G36" s="40">
+        <f t="shared" si="2"/>
+        <v>1.1739871538713354E-2</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="38" t="str">
+        <f>B19</f>
+        <v>-beam</v>
+      </c>
+      <c r="C37" s="19">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D37" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E37" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" si="4"/>
+        <v>86.69443597819091</v>
+      </c>
+      <c r="G37" s="40">
+        <f t="shared" si="2"/>
+        <v>8.6694435978190904E-2</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="21"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="61" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O37" s="61">
+        <f>F39+F40</f>
+        <v>99.566031133236237</v>
+      </c>
+      <c r="P37" s="61">
+        <f>F48+F49</f>
+        <v>10.145185185185184</v>
+      </c>
+      <c r="Q37" s="62" t="e">
+        <f>SUM(N37:P37)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="19">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D38" s="20">
+        <f>E10</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E38" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" si="4"/>
+        <v>61.76978563446103</v>
+      </c>
+      <c r="G38" s="40">
+        <f t="shared" si="2"/>
+        <v>6.1769785634461033E-2</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="21"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="61" t="e">
+        <f>SUM(F37+F38+F41+F42+#REF!+F47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="19">
+        <f>60*2</f>
+        <v>120</v>
+      </c>
+      <c r="D39" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" ref="E39:E49" si="5">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F39" s="40">
+        <f>PRODUCT(C39:E39)</f>
+        <v>52.403174280650653</v>
+      </c>
+      <c r="G39" s="40">
+        <f>F39/1000</f>
+        <v>5.2403174280650652E-2</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="19">
+        <f>36*3</f>
+        <v>108</v>
+      </c>
+      <c r="D40" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F40" s="40">
+        <f>PRODUCT(C40:E40)</f>
+        <v>47.162856852585584</v>
+      </c>
+      <c r="G40" s="40">
+        <f>F40/1000</f>
+        <v>4.7162856852585582E-2</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="21"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="19">
+        <v>6</v>
+      </c>
+      <c r="D41" s="20">
+        <f>7.75/3.281</f>
+        <v>2.3620847302651629</v>
+      </c>
+      <c r="E41" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F41" s="40">
+        <f t="shared" ref="F41:F47" si="6">PRODUCT(C41:E41)</f>
+        <v>12.597785228080866</v>
+      </c>
+      <c r="G41" s="40">
+        <f t="shared" ref="G41:G49" si="7">F41/1000</f>
+        <v>1.2597785228080867E-2</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="21"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20">
+        <f>8.667/3.281</f>
+        <v>2.6415726912526667</v>
+      </c>
+      <c r="E42" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F42" s="40">
+        <f t="shared" si="6"/>
+        <v>2.3480646144468147</v>
+      </c>
+      <c r="G42" s="40">
+        <f t="shared" si="7"/>
+        <v>2.3480646144468146E-3</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="21"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="20">
+        <f>D38</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E43" s="21">
+        <f t="shared" ref="E43:E47" si="8">12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F43" s="40">
+        <f t="shared" si="6"/>
+        <v>5.1474821362050855</v>
+      </c>
+      <c r="G43" s="40">
+        <f t="shared" si="7"/>
+        <v>5.1474821362050855E-3</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="21"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20">
+        <f>7.667/3.281</f>
+        <v>2.3367875647668392</v>
+      </c>
+      <c r="E44" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F44" s="40">
+        <f t="shared" si="6"/>
+        <v>2.0771445020149679</v>
+      </c>
+      <c r="G44" s="40">
+        <f t="shared" si="7"/>
+        <v>2.0771445020149677E-3</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="21"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="19">
+        <v>2</v>
+      </c>
+      <c r="D45" s="20">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E45" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F45" s="40">
+        <f t="shared" si="6"/>
+        <v>4.8765620237732401</v>
+      </c>
+      <c r="G45" s="40">
+        <f t="shared" si="7"/>
+        <v>4.8765620237732404E-3</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="21"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="19">
+        <v>2</v>
+      </c>
+      <c r="D46" s="20">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E46" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F46" s="40">
+        <f t="shared" si="6"/>
+        <v>4.8765620237732401</v>
+      </c>
+      <c r="G46" s="40">
+        <f t="shared" si="7"/>
+        <v>4.8765620237732404E-3</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="21"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="19">
+        <f>6*8</f>
+        <v>48</v>
+      </c>
+      <c r="D47" s="20">
+        <f>12/3.281</f>
+        <v>3.6574215178299299</v>
+      </c>
+      <c r="E47" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F47" s="40">
+        <f t="shared" si="6"/>
+        <v>156.04998476074368</v>
+      </c>
+      <c r="G47" s="40">
+        <f t="shared" si="7"/>
+        <v>0.15604998476074369</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="21"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D48" s="20">
+        <f>(0.23*4+0.075*2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="E48" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F48" s="40">
+        <f>PRODUCT(C48:E48)</f>
+        <v>5.0725925925925921</v>
+      </c>
+      <c r="G48" s="40">
+        <f t="shared" si="7"/>
+        <v>5.0725925925925921E-3</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="21"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D49" s="20">
+        <f>(0.23*4+0.075*2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="E49" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F49" s="40">
+        <f>PRODUCT(C49:E49)</f>
+        <v>5.0725925925925921</v>
+      </c>
+      <c r="G49" s="40">
+        <f t="shared" si="7"/>
+        <v>5.0725925925925921E-3</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="21"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="23">
+        <f>SUM(G26:G49)</f>
+        <v>0.99755453418673168</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="23">
+        <v>131940</v>
+      </c>
+      <c r="J50" s="42">
+        <f>G50*I50</f>
+        <v>131617.34524059738</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="42">
+        <f>0.13*G50*106200</f>
+        <v>13772.237898982017</v>
+      </c>
+      <c r="K51" s="21"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="21"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
+        <v>4</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="19">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="33">
+        <f t="shared" ref="G53" si="9">PRODUCT(C53:F53)</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="23">
+        <v>500</v>
+      </c>
+      <c r="J53" s="33">
+        <f>G53*I53</f>
+        <v>500</v>
+      </c>
+      <c r="K53" s="21"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="21"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="41"/>
+      <c r="B55" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="44"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42">
+        <f>SUM(J9:J53)</f>
+        <v>352237.30428883055</v>
+      </c>
+      <c r="K55" s="37"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="55"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="54"/>
+    </row>
+    <row r="57" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="47"/>
+      <c r="B57" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="63">
+        <f>J55</f>
+        <v>352237.30428883055</v>
+      </c>
+      <c r="D57" s="63"/>
+      <c r="E57" s="40">
+        <v>100</v>
+      </c>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="52"/>
+    </row>
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="53"/>
+      <c r="B58" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="66">
+        <v>300000</v>
+      </c>
+      <c r="D58" s="66"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="46"/>
+    </row>
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="53"/>
+      <c r="B59" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="66">
+        <f>C58-C61-C62</f>
+        <v>285000</v>
+      </c>
+      <c r="D59" s="66"/>
+      <c r="E59" s="40">
+        <f>C59/C57*100</f>
+        <v>80.91136189433908</v>
+      </c>
+      <c r="F59" s="46"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="46"/>
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="53"/>
+      <c r="B60" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="63">
+        <f>C57-C59</f>
+        <v>67237.30428883055</v>
+      </c>
+      <c r="D60" s="63"/>
+      <c r="E60" s="40">
+        <f>100-E59</f>
+        <v>19.08863810566092</v>
+      </c>
+      <c r="F60" s="46"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="46"/>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="53"/>
+      <c r="B61" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="63">
+        <f>C58*0.03</f>
+        <v>9000</v>
+      </c>
+      <c r="D61" s="63"/>
+      <c r="E61" s="40">
+        <v>3</v>
+      </c>
+      <c r="F61" s="46"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="46"/>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="53"/>
+      <c r="B62" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="63">
+        <f>C58*0.02</f>
+        <v>6000</v>
+      </c>
+      <c r="D62" s="63"/>
+      <c r="E62" s="40">
+        <v>2</v>
+      </c>
+      <c r="F62" s="46"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="46"/>
+    </row>
+    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+    </row>
+    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="C61:D61"/>

--- a/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
+++ b/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\Finalized valuations\kalimasta mandir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\Finalized valuations\kalimasta mandir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kalimasta mandir final" sheetId="17" state="hidden" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">valuated!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -260,9 +260,6 @@
     <t>Project:- कालीमस्ट मन्दिर निर्माण</t>
   </si>
   <si>
-    <t>Date:2081/07/11</t>
-  </si>
-  <si>
     <t>-slab bottom bars along short sides</t>
   </si>
   <si>
@@ -301,14 +298,17 @@
   <si>
     <t xml:space="preserve">Date:2081/07/25       </t>
   </si>
+  <si>
+    <t>Date:2081/07/04</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -504,7 +504,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,14 +534,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,7 +550,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +575,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -613,7 +613,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -628,7 +628,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -644,7 +644,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -652,15 +652,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -678,6 +671,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,24 +724,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1347,131 +1347,131 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="38" t="s">
         <v>46</v>
@@ -1557,7 +1557,7 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="38" t="s">
         <v>39</v>
@@ -1588,7 +1588,7 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="38" t="s">
         <v>37</v>
@@ -1612,7 +1612,7 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="38"/>
       <c r="C13" s="19"/>
@@ -1631,7 +1631,7 @@
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>2</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="38" t="s">
         <v>46</v>
@@ -1682,7 +1682,7 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="38" t="s">
         <v>39</v>
@@ -1713,7 +1713,7 @@
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="38" t="s">
         <v>37</v>
@@ -1737,7 +1737,7 @@
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="38"/>
       <c r="C18" s="19"/>
@@ -1756,7 +1756,7 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
     </row>
-    <row r="19" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>3</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="38" t="s">
         <v>49</v>
@@ -1813,7 +1813,7 @@
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="38" t="s">
         <v>50</v>
@@ -1846,7 +1846,7 @@
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
     </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="38"/>
       <c r="C22" s="19">
@@ -1877,7 +1877,7 @@
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
         <v>39</v>
@@ -1908,7 +1908,7 @@
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
     </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -1932,7 +1932,7 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="25"/>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="38"/>
       <c r="C25" s="19"/>
@@ -1951,7 +1951,7 @@
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
     </row>
-    <row r="26" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>4</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="38" t="str">
         <f>B20</f>
@@ -2008,7 +2008,7 @@
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="38" t="str">
         <f>B21</f>
@@ -2042,7 +2042,7 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="25"/>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="38"/>
       <c r="C29" s="19">
@@ -2073,7 +2073,7 @@
       <c r="Q29" s="25"/>
       <c r="R29" s="25"/>
     </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="38" t="s">
         <v>39</v>
@@ -2104,7 +2104,7 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
     </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="38" t="s">
         <v>37</v>
@@ -2128,7 +2128,7 @@
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
     </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="38"/>
       <c r="C32" s="19"/>
@@ -2147,7 +2147,7 @@
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
     </row>
-    <row r="33" spans="1:18" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>5</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="Q33" s="25"/>
       <c r="R33" s="25"/>
     </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="38" t="str">
         <f>B27</f>
@@ -2215,7 +2215,7 @@
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
     </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="38"/>
       <c r="C35" s="19">
@@ -2249,7 +2249,7 @@
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="38" t="str">
         <f>B28</f>
@@ -2286,7 +2286,7 @@
       <c r="Q36" s="25"/>
       <c r="R36" s="25"/>
     </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="38"/>
       <c r="C37" s="19">
@@ -2320,7 +2320,7 @@
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
     </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="38" t="s">
         <v>54</v>
@@ -2356,7 +2356,7 @@
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
     </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="38"/>
       <c r="C39" s="19">
@@ -2390,7 +2390,7 @@
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
     </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="38" t="s">
         <v>39</v>
@@ -2421,7 +2421,7 @@
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
     </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="38" t="s">
         <v>37</v>
@@ -2445,7 +2445,7 @@
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
     </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="38"/>
       <c r="C42" s="19"/>
@@ -2464,7 +2464,7 @@
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>6</v>
       </c>
@@ -2499,7 +2499,7 @@
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
     </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="24"/>
       <c r="C44" s="19"/>
@@ -2518,7 +2518,7 @@
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="43" t="s">
         <v>17</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="K45" s="37"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="55"/>
       <c r="B46" s="58"/>
       <c r="C46" s="59"/>
@@ -2549,16 +2549,16 @@
       <c r="J46" s="57"/>
       <c r="K46" s="54"/>
     </row>
-    <row r="47" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
       <c r="B47" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="63">
+      <c r="C47" s="70">
         <f>J45</f>
         <v>345993.93824887183</v>
       </c>
-      <c r="D47" s="63"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="40">
         <v>100</v>
       </c>
@@ -2569,15 +2569,15 @@
       <c r="J47" s="51"/>
       <c r="K47" s="52"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="66">
+      <c r="C48" s="73">
         <v>300000</v>
       </c>
-      <c r="D48" s="66"/>
+      <c r="D48" s="73"/>
       <c r="E48" s="40"/>
       <c r="F48" s="46"/>
       <c r="G48" s="45"/>
@@ -2586,16 +2586,16 @@
       <c r="J48" s="45"/>
       <c r="K48" s="46"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="66">
+      <c r="C49" s="73">
         <f>C48-C51-C52</f>
         <v>285000</v>
       </c>
-      <c r="D49" s="66"/>
+      <c r="D49" s="73"/>
       <c r="E49" s="40">
         <f>C49/C47*100</f>
         <v>82.371385302999386</v>
@@ -2607,16 +2607,16 @@
       <c r="J49" s="45"/>
       <c r="K49" s="46"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="53"/>
       <c r="B50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="63">
+      <c r="C50" s="70">
         <f>C47-C49</f>
         <v>60993.938248871826</v>
       </c>
-      <c r="D50" s="63"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="40">
         <f>100-E49</f>
         <v>17.628614697000614</v>
@@ -2628,16 +2628,16 @@
       <c r="J50" s="45"/>
       <c r="K50" s="46"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="53"/>
       <c r="B51" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="63">
+      <c r="C51" s="70">
         <f>C48*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D51" s="63"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="40">
         <v>3</v>
       </c>
@@ -2648,16 +2648,16 @@
       <c r="J51" s="45"/>
       <c r="K51" s="46"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="53"/>
       <c r="B52" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="63">
+      <c r="C52" s="70">
         <f>C48*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D52" s="63"/>
+      <c r="D52" s="70"/>
       <c r="E52" s="40">
         <v>2</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="J52" s="45"/>
       <c r="K52" s="46"/>
     </row>
-    <row r="53" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="54"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -2681,71 +2681,64 @@
       <c r="J53" s="54"/>
       <c r="K53" s="54"/>
     </row>
-    <row r="54" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A7:F7"/>
@@ -2754,1583 +2747,6 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q112"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="21"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="19">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E10" s="21">
-        <f>18.75/3.281</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.125</v>
-      </c>
-      <c r="G10" s="40">
-        <f>PRODUCT(C10:F10)</f>
-        <v>6.9670479995236381</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="19">
-        <v>4</v>
-      </c>
-      <c r="D11" s="20">
-        <f>14.5/3.281</f>
-        <v>4.4193843340444987</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="G11" s="40">
-        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
-        <v>0.93514172508381599</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="19">
-        <v>3</v>
-      </c>
-      <c r="D12" s="20">
-        <f>16.75/3.281</f>
-        <v>5.1051508686376099</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="G12" s="40">
-        <f t="shared" si="0"/>
-        <v>0.81018744285278876</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="40">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23">
-        <f>SUM(G10:G13)</f>
-        <v>8.7663771674602433</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="23">
-        <v>13568.9</v>
-      </c>
-      <c r="J14" s="42">
-        <f>G14*I14</f>
-        <v>118950.0951475513</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="42">
-        <f>0.13*G14*9524.2</f>
-        <v>10854.054824382232</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="21"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <v>2</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="21"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="38" t="str">
-        <f>B10</f>
-        <v>-slab</v>
-      </c>
-      <c r="C18" s="19">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <f>D10</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E18" s="21">
-        <f>E10</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="40">
-        <f>PRODUCT(C18:F18)</f>
-        <v>55.736383996189105</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="38" t="str">
-        <f>B11</f>
-        <v>-beam</v>
-      </c>
-      <c r="C19" s="19">
-        <f>C11</f>
-        <v>4</v>
-      </c>
-      <c r="D19" s="20">
-        <f>D11</f>
-        <v>4.4193843340444987</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21">
-        <f>F11*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G19" s="40">
-        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
-        <v>8.131667174641878</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="19">
-        <f>C12</f>
-        <v>3</v>
-      </c>
-      <c r="D20" s="20">
-        <f>D12</f>
-        <v>5.1051508686376099</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <f>F12*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G20" s="40">
-        <f t="shared" si="1"/>
-        <v>7.0451081987199018</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="38" t="str">
-        <f>B13</f>
-        <v>-column</v>
-      </c>
-      <c r="C21" s="19">
-        <f>C13</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="20">
-        <f>D13*4</f>
-        <v>1.2</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21">
-        <f>F13</f>
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="40">
-        <f t="shared" si="1"/>
-        <v>0.72</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="21"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="23">
-        <f>SUM(G18:G21)</f>
-        <v>71.633159369550881</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="23">
-        <v>915.42</v>
-      </c>
-      <c r="J22" s="42">
-        <f>G22*I22</f>
-        <v>65574.426750074272</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="42">
-        <f>0.13*G22*46827.87/100</f>
-        <v>4360.7567570405945</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>3</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="21"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="19">
-        <v>34</v>
-      </c>
-      <c r="D26" s="20">
-        <f>31.667/3.281</f>
-        <v>9.6516306004266994</v>
-      </c>
-      <c r="E26" s="21">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F26" s="40">
-        <f>PRODUCT(C26:E26)</f>
-        <v>129.64165547239813</v>
-      </c>
-      <c r="G26" s="40">
-        <f>F26/1000</f>
-        <v>0.12964165547239812</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="21"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="19">
-        <f>60</f>
-        <v>60</v>
-      </c>
-      <c r="D27" s="20">
-        <f>18.42/3.281</f>
-        <v>5.6141420298689431</v>
-      </c>
-      <c r="E27" s="21">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F27" s="40">
-        <f>PRODUCT(C27:E27)</f>
-        <v>133.07595922652308</v>
-      </c>
-      <c r="G27" s="40">
-        <f>F27/1000</f>
-        <v>0.13307595922652307</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="21"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="19">
-        <f>9*2</f>
-        <v>18</v>
-      </c>
-      <c r="D28" s="20">
-        <f>6.75/3.281</f>
-        <v>2.0572996037793354</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" ref="E28:E32" si="2">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F28" s="40">
-        <f t="shared" ref="F28:F32" si="3">PRODUCT(C28:E28)</f>
-        <v>14.629686071319718</v>
-      </c>
-      <c r="G28" s="40">
-        <f t="shared" ref="G28:G32" si="4">F28/1000</f>
-        <v>1.4629686071319717E-2</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="21"/>
-      <c r="M28" s="1">
-        <f>12.75*0.3</f>
-        <v>3.8249999999999997</v>
-      </c>
-      <c r="N28" s="1">
-        <f>13*0.3</f>
-        <v>3.9</v>
-      </c>
-      <c r="O28" s="1">
-        <f>13/3.281</f>
-        <v>3.9622066443157573</v>
-      </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="19">
-        <f>9</f>
-        <v>9</v>
-      </c>
-      <c r="D29" s="20">
-        <f>8.583/3.281</f>
-        <v>2.6159707406278572</v>
-      </c>
-      <c r="E29" s="21">
-        <f t="shared" si="2"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F29" s="40">
-        <f t="shared" si="3"/>
-        <v>9.3012293000101582</v>
-      </c>
-      <c r="G29" s="40">
-        <f t="shared" si="4"/>
-        <v>9.3012293000101585E-3</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="21"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1">
-        <f>12.75/3.281</f>
-        <v>3.8860103626943006</v>
-      </c>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="19">
-        <f>13+12</f>
-        <v>25</v>
-      </c>
-      <c r="D30" s="20">
-        <f>31.667/3.281</f>
-        <v>9.6516306004266994</v>
-      </c>
-      <c r="E30" s="21">
-        <f t="shared" si="2"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F30" s="40">
-        <f t="shared" si="3"/>
-        <v>95.32474667088097</v>
-      </c>
-      <c r="G30" s="40">
-        <f t="shared" si="4"/>
-        <v>9.5324746670880964E-2</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="19">
-        <f>10*4</f>
-        <v>40</v>
-      </c>
-      <c r="D31" s="20">
-        <f>7.083/3.281</f>
-        <v>2.1587930508991162</v>
-      </c>
-      <c r="E31" s="21">
-        <f t="shared" si="2"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F31" s="40">
-        <f t="shared" si="3"/>
-        <v>34.114260557418135</v>
-      </c>
-      <c r="G31" s="40">
-        <f t="shared" si="4"/>
-        <v>3.4114260557418133E-2</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="21"/>
-      <c r="M31" s="1">
-        <f>12.75*0.3</f>
-        <v>3.8249999999999997</v>
-      </c>
-      <c r="N31" s="1">
-        <f>13*0.3</f>
-        <v>3.9</v>
-      </c>
-      <c r="O31" s="1">
-        <f>13/3.281</f>
-        <v>3.9622066443157573</v>
-      </c>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="19">
-        <f>10*4</f>
-        <v>40</v>
-      </c>
-      <c r="D32" s="20">
-        <f>18.42/3.281</f>
-        <v>5.6141420298689431</v>
-      </c>
-      <c r="E32" s="21">
-        <f t="shared" si="2"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F32" s="40">
-        <f t="shared" si="3"/>
-        <v>88.717306151015393</v>
-      </c>
-      <c r="G32" s="40">
-        <f t="shared" si="4"/>
-        <v>8.871730615101539E-2</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="21"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="38" t="str">
-        <f>B19</f>
-        <v>-beam</v>
-      </c>
-      <c r="C33" s="19">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="D33" s="20">
-        <f>D10</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E33" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F33" s="40">
-        <f t="shared" ref="F33:F34" si="5">PRODUCT(C33:E33)</f>
-        <v>86.69443597819091</v>
-      </c>
-      <c r="G33" s="40">
-        <f t="shared" ref="G33:G34" si="6">F33/1000</f>
-        <v>8.6694435978190904E-2</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="21"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="61">
-        <f>SUM(F26:F32)</f>
-        <v>504.80484344956568</v>
-      </c>
-      <c r="O33" s="61">
-        <f>F35+F36</f>
-        <v>120.96399396450192</v>
-      </c>
-      <c r="P33" s="61">
-        <f>F41+F42</f>
-        <v>10.145185185185184</v>
-      </c>
-      <c r="Q33" s="62">
-        <f>SUM(N33:P33)</f>
-        <v>635.91402259925269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="19">
-        <f>3*5</f>
-        <v>15</v>
-      </c>
-      <c r="D34" s="20">
-        <f>E10</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="E34" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F34" s="40">
-        <f t="shared" si="5"/>
-        <v>76.196281621456862</v>
-      </c>
-      <c r="G34" s="40">
-        <f t="shared" si="6"/>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="21"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="61">
-        <f>SUM(F33+F34+F37+F38+F39+F40)</f>
-        <v>352.08290155440409</v>
-      </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="19">
-        <f>37*4</f>
-        <v>148</v>
-      </c>
-      <c r="D35" s="20">
-        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
-        <v>1.1053794574824747</v>
-      </c>
-      <c r="E35" s="21">
-        <f t="shared" ref="E35:E42" si="7">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F35" s="40">
-        <f>PRODUCT(C35:E35)</f>
-        <v>64.630581612802473</v>
-      </c>
-      <c r="G35" s="40">
-        <f>F35/1000</f>
-        <v>6.4630581612802468E-2</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="21"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="19">
-        <f>(29+7+7)*3</f>
-        <v>129</v>
-      </c>
-      <c r="D36" s="20">
-        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
-        <v>1.1053794574824747</v>
-      </c>
-      <c r="E36" s="21">
-        <f t="shared" si="7"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F36" s="40">
-        <f>PRODUCT(C36:E36)</f>
-        <v>56.333412351699451</v>
-      </c>
-      <c r="G36" s="40">
-        <f>F36/1000</f>
-        <v>5.6333412351699454E-2</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="21"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="19">
-        <v>4</v>
-      </c>
-      <c r="D37" s="20">
-        <f>(6.833+0.75)/3.281</f>
-        <v>2.3111856141420297</v>
-      </c>
-      <c r="E37" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F37" s="40">
-        <f t="shared" ref="F37:F39" si="8">PRODUCT(C37:E37)</f>
-        <v>8.2175488502827712</v>
-      </c>
-      <c r="G37" s="40">
-        <f t="shared" ref="G37:G39" si="9">F37/1000</f>
-        <v>8.2175488502827711E-3</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="21"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="19">
-        <v>2</v>
-      </c>
-      <c r="D38" s="20">
-        <f>10.75/3.281</f>
-        <v>3.2764401097226452</v>
-      </c>
-      <c r="E38" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F38" s="40">
-        <f t="shared" si="8"/>
-        <v>5.8247824172847027</v>
-      </c>
-      <c r="G38" s="40">
-        <f t="shared" si="9"/>
-        <v>5.824782417284703E-3</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="21"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="19">
-        <v>6</v>
-      </c>
-      <c r="D39" s="20">
-        <f>(4.5+2.5+0.75)/3.281</f>
-        <v>2.3620847302651629</v>
-      </c>
-      <c r="E39" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F39" s="40">
-        <f t="shared" si="8"/>
-        <v>12.597785228080866</v>
-      </c>
-      <c r="G39" s="40">
-        <f t="shared" si="9"/>
-        <v>1.2597785228080867E-2</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="21"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1">
-        <f>I43*SUM(G40:G42)</f>
-        <v>22785.67551388804</v>
-      </c>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="19">
-        <f>6*8</f>
-        <v>48</v>
-      </c>
-      <c r="D40" s="20">
-        <f>12.5/3.281</f>
-        <v>3.8098140810728434</v>
-      </c>
-      <c r="E40" s="21">
-        <f t="shared" ref="E40" si="10">12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F40" s="40">
-        <f t="shared" ref="F40" si="11">PRODUCT(C40:E40)</f>
-        <v>162.55206745910797</v>
-      </c>
-      <c r="G40" s="40">
-        <f t="shared" ref="G40:G42" si="12">F40/1000</f>
-        <v>0.16255206745910797</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="21"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="19">
-        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
-        <v>12</v>
-      </c>
-      <c r="D41" s="20">
-        <f>(0.23*4+0.075*2)</f>
-        <v>1.07</v>
-      </c>
-      <c r="E41" s="21">
-        <f t="shared" si="7"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F41" s="40">
-        <f>PRODUCT(C41:E41)</f>
-        <v>5.0725925925925921</v>
-      </c>
-      <c r="G41" s="40">
-        <f t="shared" si="12"/>
-        <v>5.0725925925925921E-3</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="21"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="19">
-        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
-        <v>12</v>
-      </c>
-      <c r="D42" s="20">
-        <f>(0.23*4+0.075*2)</f>
-        <v>1.07</v>
-      </c>
-      <c r="E42" s="21">
-        <f t="shared" si="7"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F42" s="40">
-        <f>PRODUCT(C42:E42)</f>
-        <v>5.0725925925925921</v>
-      </c>
-      <c r="G42" s="40">
-        <f t="shared" si="12"/>
-        <v>5.0725925925925921E-3</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="21"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="23">
-        <f>SUM(G26:G42)</f>
-        <v>0.98799692415365681</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="23">
-        <v>131940</v>
-      </c>
-      <c r="J43" s="42">
-        <f>G43*I43</f>
-        <v>130356.31417283347</v>
-      </c>
-      <c r="K43" s="21"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="42">
-        <f>0.13*G43*106200</f>
-        <v>13640.285534865385</v>
-      </c>
-      <c r="K44" s="21"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="21"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18">
-        <v>4</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="19">
-        <v>1</v>
-      </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="33">
-        <f t="shared" ref="G46" si="13">PRODUCT(C46:F46)</f>
-        <v>1</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" s="23">
-        <v>500</v>
-      </c>
-      <c r="J46" s="33">
-        <f>G46*I46</f>
-        <v>500</v>
-      </c>
-      <c r="K46" s="21"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="21"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42">
-        <f>SUM(J9:J46)</f>
-        <v>344235.93318674725</v>
-      </c>
-      <c r="K48" s="37"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="54"/>
-    </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47"/>
-      <c r="B50" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="63">
-        <f>J48</f>
-        <v>344235.93318674725</v>
-      </c>
-      <c r="D50" s="63"/>
-      <c r="E50" s="40">
-        <v>100</v>
-      </c>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="52"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="66">
-        <v>300000</v>
-      </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="46"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
-      <c r="B52" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="66">
-        <f>C51-C54-C55</f>
-        <v>285000</v>
-      </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="40">
-        <f>C52/C50*100</f>
-        <v>82.792054089654883</v>
-      </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="46"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="63">
-        <f>C50-C52</f>
-        <v>59235.93318674725</v>
-      </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="40">
-        <f>100-E52</f>
-        <v>17.207945910345117</v>
-      </c>
-      <c r="F53" s="46"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="46"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
-      <c r="B54" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="63">
-        <f>C51*0.03</f>
-        <v>9000</v>
-      </c>
-      <c r="D54" s="63"/>
-      <c r="E54" s="40">
-        <v>3</v>
-      </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="46"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
-      <c r="B55" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="63">
-        <f>C51*0.02</f>
-        <v>6000</v>
-      </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="40">
-        <v>2</v>
-      </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="46"/>
-    </row>
-    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-    </row>
-    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -4350,114 +2766,1698 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="21"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E10" s="21">
+        <f>18.75/3.281</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="40">
+        <f>PRODUCT(C10:F10)</f>
+        <v>6.9670479995236381</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="19">
+        <v>4</v>
+      </c>
+      <c r="D11" s="20">
+        <f>14.5/3.281</f>
+        <v>4.4193843340444987</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G11" s="40">
+        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
+        <v>0.93514172508381599</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="19">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20">
+        <f>16.75/3.281</f>
+        <v>5.1051508686376099</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="0"/>
+        <v>0.81018744285278876</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="21"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23">
+        <f>SUM(G10:G13)</f>
+        <v>8.7663771674602433</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="23">
+        <v>13568.9</v>
+      </c>
+      <c r="J14" s="42">
+        <f>G14*I14</f>
+        <v>118950.0951475513</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="42">
+        <f>0.13*G14*9524.2</f>
+        <v>10854.054824382232</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>2</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="38" t="str">
+        <f>B10</f>
+        <v>-slab</v>
+      </c>
+      <c r="C18" s="19">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E18" s="21">
+        <f>E10</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="40">
+        <f>PRODUCT(C18:F18)</f>
+        <v>55.736383996189105</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="38" t="str">
+        <f>B11</f>
+        <v>-beam</v>
+      </c>
+      <c r="C19" s="19">
+        <f>C11</f>
+        <v>4</v>
+      </c>
+      <c r="D19" s="20">
+        <f>D11</f>
+        <v>4.4193843340444987</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21">
+        <f>F11*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G19" s="40">
+        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
+        <v>8.131667174641878</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="19">
+        <f>C12</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="20">
+        <f>D12</f>
+        <v>5.1051508686376099</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <f>F12*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G20" s="40">
+        <f t="shared" si="1"/>
+        <v>7.0451081987199018</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="38" t="str">
+        <f>B13</f>
+        <v>-column</v>
+      </c>
+      <c r="C21" s="19">
+        <f>C13</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="20">
+        <f>D13*4</f>
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21">
+        <f>F13</f>
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="40">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23">
+        <f>SUM(G18:G21)</f>
+        <v>71.633159369550881</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="23">
+        <v>915.42</v>
+      </c>
+      <c r="J22" s="42">
+        <f>G22*I22</f>
+        <v>65574.426750074272</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="42">
+        <f>0.13*G22*46827.87/100</f>
+        <v>4360.7567570405945</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>3</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="19">
+        <v>34</v>
+      </c>
+      <c r="D26" s="20">
+        <f>31.667/3.281</f>
+        <v>9.6516306004266994</v>
+      </c>
+      <c r="E26" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F26" s="40">
+        <f>PRODUCT(C26:E26)</f>
+        <v>129.64165547239813</v>
+      </c>
+      <c r="G26" s="40">
+        <f>F26/1000</f>
+        <v>0.12964165547239812</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="19">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="D27" s="20">
+        <f>18.42/3.281</f>
+        <v>5.6141420298689431</v>
+      </c>
+      <c r="E27" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F27" s="40">
+        <f>PRODUCT(C27:E27)</f>
+        <v>133.07595922652308</v>
+      </c>
+      <c r="G27" s="40">
+        <f>F27/1000</f>
+        <v>0.13307595922652307</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="19">
+        <f>9*2</f>
+        <v>18</v>
+      </c>
+      <c r="D28" s="20">
+        <f>6.75/3.281</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" ref="E28:E32" si="2">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F28" s="40">
+        <f t="shared" ref="F28:F32" si="3">PRODUCT(C28:E28)</f>
+        <v>14.629686071319718</v>
+      </c>
+      <c r="G28" s="40">
+        <f t="shared" ref="G28:G32" si="4">F28/1000</f>
+        <v>1.4629686071319717E-2</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="1">
+        <f>12.75*0.3</f>
+        <v>3.8249999999999997</v>
+      </c>
+      <c r="N28" s="1">
+        <f>13*0.3</f>
+        <v>3.9</v>
+      </c>
+      <c r="O28" s="1">
+        <f>13/3.281</f>
+        <v>3.9622066443157573</v>
+      </c>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="19">
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="D29" s="20">
+        <f>8.583/3.281</f>
+        <v>2.6159707406278572</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="2"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F29" s="40">
+        <f t="shared" si="3"/>
+        <v>9.3012293000101582</v>
+      </c>
+      <c r="G29" s="40">
+        <f t="shared" si="4"/>
+        <v>9.3012293000101585E-3</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1">
+        <f>12.75/3.281</f>
+        <v>3.8860103626943006</v>
+      </c>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="19">
+        <f>13+12</f>
+        <v>25</v>
+      </c>
+      <c r="D30" s="20">
+        <f>31.667/3.281</f>
+        <v>9.6516306004266994</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="2"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F30" s="40">
+        <f t="shared" si="3"/>
+        <v>95.32474667088097</v>
+      </c>
+      <c r="G30" s="40">
+        <f t="shared" si="4"/>
+        <v>9.5324746670880964E-2</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="19">
+        <f>10*4</f>
+        <v>40</v>
+      </c>
+      <c r="D31" s="20">
+        <f>7.083/3.281</f>
+        <v>2.1587930508991162</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="2"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="3"/>
+        <v>34.114260557418135</v>
+      </c>
+      <c r="G31" s="40">
+        <f t="shared" si="4"/>
+        <v>3.4114260557418133E-2</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="1">
+        <f>12.75*0.3</f>
+        <v>3.8249999999999997</v>
+      </c>
+      <c r="N31" s="1">
+        <f>13*0.3</f>
+        <v>3.9</v>
+      </c>
+      <c r="O31" s="1">
+        <f>13/3.281</f>
+        <v>3.9622066443157573</v>
+      </c>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="19">
+        <f>10*4</f>
+        <v>40</v>
+      </c>
+      <c r="D32" s="20">
+        <f>18.42/3.281</f>
+        <v>5.6141420298689431</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="2"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="3"/>
+        <v>88.717306151015393</v>
+      </c>
+      <c r="G32" s="40">
+        <f t="shared" si="4"/>
+        <v>8.871730615101539E-2</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="38" t="str">
+        <f>B19</f>
+        <v>-beam</v>
+      </c>
+      <c r="C33" s="19">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D33" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E33" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" ref="F33:F34" si="5">PRODUCT(C33:E33)</f>
+        <v>86.69443597819091</v>
+      </c>
+      <c r="G33" s="40">
+        <f t="shared" ref="G33:G34" si="6">F33/1000</f>
+        <v>8.6694435978190904E-2</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="61">
+        <f>SUM(F26:F32)</f>
+        <v>504.80484344956568</v>
+      </c>
+      <c r="O33" s="61">
+        <f>F35+F36</f>
+        <v>120.96399396450192</v>
+      </c>
+      <c r="P33" s="61">
+        <f>F41+F42</f>
+        <v>10.145185185185184</v>
+      </c>
+      <c r="Q33" s="62">
+        <f>SUM(N33:P33)</f>
+        <v>635.91402259925269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="19">
+        <f>3*5</f>
+        <v>15</v>
+      </c>
+      <c r="D34" s="20">
+        <f>E10</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E34" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" si="5"/>
+        <v>76.196281621456862</v>
+      </c>
+      <c r="G34" s="40">
+        <f t="shared" si="6"/>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="61">
+        <f>SUM(F33+F34+F37+F38+F39+F40)</f>
+        <v>352.08290155440409</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="19">
+        <f>37*4</f>
+        <v>148</v>
+      </c>
+      <c r="D35" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" ref="E35:E42" si="7">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F35" s="40">
+        <f>PRODUCT(C35:E35)</f>
+        <v>64.630581612802473</v>
+      </c>
+      <c r="G35" s="40">
+        <f>F35/1000</f>
+        <v>6.4630581612802468E-2</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="19">
+        <f>(29+7+7)*3</f>
+        <v>129</v>
+      </c>
+      <c r="D36" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="7"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F36" s="40">
+        <f>PRODUCT(C36:E36)</f>
+        <v>56.333412351699451</v>
+      </c>
+      <c r="G36" s="40">
+        <f>F36/1000</f>
+        <v>5.6333412351699454E-2</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="19">
+        <v>4</v>
+      </c>
+      <c r="D37" s="20">
+        <f>(6.833+0.75)/3.281</f>
+        <v>2.3111856141420297</v>
+      </c>
+      <c r="E37" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" ref="F37:F39" si="8">PRODUCT(C37:E37)</f>
+        <v>8.2175488502827712</v>
+      </c>
+      <c r="G37" s="40">
+        <f t="shared" ref="G37:G39" si="9">F37/1000</f>
+        <v>8.2175488502827711E-3</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="21"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="19">
+        <v>2</v>
+      </c>
+      <c r="D38" s="20">
+        <f>10.75/3.281</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="E38" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" si="8"/>
+        <v>5.8247824172847027</v>
+      </c>
+      <c r="G38" s="40">
+        <f t="shared" si="9"/>
+        <v>5.824782417284703E-3</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="21"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="19">
+        <v>6</v>
+      </c>
+      <c r="D39" s="20">
+        <f>(4.5+2.5+0.75)/3.281</f>
+        <v>2.3620847302651629</v>
+      </c>
+      <c r="E39" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F39" s="40">
+        <f t="shared" si="8"/>
+        <v>12.597785228080866</v>
+      </c>
+      <c r="G39" s="40">
+        <f t="shared" si="9"/>
+        <v>1.2597785228080867E-2</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1">
+        <f>I43*SUM(G40:G42)</f>
+        <v>22785.67551388804</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="19">
+        <f>6*8</f>
+        <v>48</v>
+      </c>
+      <c r="D40" s="20">
+        <f>12.5/3.281</f>
+        <v>3.8098140810728434</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" ref="E40" si="10">12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F40" s="40">
+        <f t="shared" ref="F40" si="11">PRODUCT(C40:E40)</f>
+        <v>162.55206745910797</v>
+      </c>
+      <c r="G40" s="40">
+        <f t="shared" ref="G40:G42" si="12">F40/1000</f>
+        <v>0.16255206745910797</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="21"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D41" s="20">
+        <f>(0.23*4+0.075*2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="E41" s="21">
+        <f t="shared" si="7"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F41" s="40">
+        <f>PRODUCT(C41:E41)</f>
+        <v>5.0725925925925921</v>
+      </c>
+      <c r="G41" s="40">
+        <f t="shared" si="12"/>
+        <v>5.0725925925925921E-3</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="21"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D42" s="20">
+        <f>(0.23*4+0.075*2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="E42" s="21">
+        <f t="shared" si="7"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F42" s="40">
+        <f>PRODUCT(C42:E42)</f>
+        <v>5.0725925925925921</v>
+      </c>
+      <c r="G42" s="40">
+        <f t="shared" si="12"/>
+        <v>5.0725925925925921E-3</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="21"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="23">
+        <f>SUM(G26:G42)</f>
+        <v>0.98799692415365681</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="23">
+        <v>131940</v>
+      </c>
+      <c r="J43" s="42">
+        <f>G43*I43</f>
+        <v>130356.31417283347</v>
+      </c>
+      <c r="K43" s="21"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="42">
+        <f>0.13*G43*106200</f>
+        <v>13640.285534865385</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="21"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
+        <v>4</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="19">
+        <v>1</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="33">
+        <f t="shared" ref="G46" si="13">PRODUCT(C46:F46)</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="23">
+        <v>500</v>
+      </c>
+      <c r="J46" s="33">
+        <f>G46*I46</f>
+        <v>500</v>
+      </c>
+      <c r="K46" s="21"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="21"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="44"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42">
+        <f>SUM(J9:J46)</f>
+        <v>344235.93318674725</v>
+      </c>
+      <c r="K48" s="37"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="55"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="54"/>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
+      <c r="B50" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="70">
+        <f>J48</f>
+        <v>344235.93318674725</v>
+      </c>
+      <c r="D50" s="70"/>
+      <c r="E50" s="40">
+        <v>100</v>
+      </c>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="52"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="53"/>
+      <c r="B51" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="73">
+        <v>300000</v>
+      </c>
+      <c r="D51" s="73"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="46"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="53"/>
+      <c r="B52" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="73">
+        <f>C51-C54-C55</f>
+        <v>285000</v>
+      </c>
+      <c r="D52" s="73"/>
+      <c r="E52" s="40">
+        <f>C52/C50*100</f>
+        <v>82.792054089654883</v>
+      </c>
+      <c r="F52" s="46"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="46"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="53"/>
+      <c r="B53" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="70">
+        <f>C50-C52</f>
+        <v>59235.93318674725</v>
+      </c>
+      <c r="D53" s="70"/>
+      <c r="E53" s="40">
+        <f>100-E52</f>
+        <v>17.207945910345117</v>
+      </c>
+      <c r="F53" s="46"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="46"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="53"/>
+      <c r="B54" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="70">
+        <f>C51*0.03</f>
+        <v>9000</v>
+      </c>
+      <c r="D54" s="70"/>
+      <c r="E54" s="40">
+        <v>3</v>
+      </c>
+      <c r="F54" s="46"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="46"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="53"/>
+      <c r="B55" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="70">
+        <f>C51*0.02</f>
+        <v>6000</v>
+      </c>
+      <c r="D55" s="70"/>
+      <c r="E55" s="40">
+        <v>2</v>
+      </c>
+      <c r="F55" s="46"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="46"/>
+    </row>
+    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+    </row>
+    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Milan Phuyal&amp;RApproved By:
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="85" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="86" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="82">
+      <c r="C6" s="74">
         <f>F24</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -4465,90 +4465,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="82">
+      <c r="J6" s="74">
         <f>I24</f>
         <v>352237.30428883055</v>
       </c>
-      <c r="K6" s="83"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="75"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="I7" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="str">
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="I7" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="str">
         <f>'kalimasta mandir final (2)'!A6:F6</f>
         <v>Project:- कालीमस्ट मन्दिर निर्माण</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="I8" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="str">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="I8" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="str">
         <f>'kalimasta mandir final (2)'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="I9" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="I9" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="73" t="s">
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="80" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="73"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="79"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -4567,10 +4567,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <f>'kalimasta mandir final (2)'!A9</f>
         <v>1</v>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="32" t="str">
         <f>'kalimasta mandir final (2)'!B15</f>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="12"/>
@@ -4651,7 +4651,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <f>'kalimasta mandir final (2)'!A17</f>
         <v>2</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="32" t="str">
         <f>'kalimasta mandir final (2)'!B23</f>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="12"/>
@@ -4732,7 +4732,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <f>'kalimasta mandir final (2)'!A25</f>
         <v>3</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="32" t="str">
         <f>'kalimasta mandir final (2)'!B44</f>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="12"/>
@@ -4813,7 +4813,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <f>'kalimasta mandir final (2)'!A46</f>
         <v>4</v>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="12"/>
@@ -4869,7 +4869,7 @@
       <c r="J23" s="28"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
@@ -4895,13 +4895,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -4915,6 +4908,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4936,131 +4936,131 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="38" t="s">
         <v>49</v>
@@ -5148,7 +5148,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="38" t="s">
         <v>50</v>
@@ -5179,7 +5179,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="38"/>
       <c r="C12" s="19">
@@ -5208,7 +5208,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="38" t="s">
         <v>59</v>
@@ -5238,7 +5238,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="38" t="s">
         <v>39</v>
@@ -5267,7 +5267,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="38" t="s">
         <v>37</v>
@@ -5289,7 +5289,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="38"/>
       <c r="C16" s="19"/>
@@ -5306,7 +5306,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -5327,7 +5327,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="38" t="str">
         <f>B10</f>
@@ -5359,7 +5359,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="38" t="str">
         <f>B11</f>
@@ -5391,7 +5391,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="38"/>
       <c r="C20" s="19">
@@ -5420,7 +5420,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="38" t="str">
         <f>B13</f>
@@ -5452,7 +5452,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -5481,7 +5481,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
         <v>37</v>
@@ -5503,7 +5503,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="38"/>
       <c r="C24" s="19"/>
@@ -5520,7 +5520,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>3</v>
       </c>
@@ -5549,10 +5549,10 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="19">
         <f>5+5+7+7</f>
@@ -5583,10 +5583,10 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="19">
         <f>29+5+5</f>
@@ -5617,10 +5617,10 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="19">
         <f>58+5+6</f>
@@ -5657,10 +5657,10 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="19">
         <v>30</v>
@@ -5690,10 +5690,10 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="19">
         <v>15</v>
@@ -5723,7 +5723,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="38"/>
       <c r="C31" s="19">
@@ -5754,7 +5754,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="38"/>
       <c r="C32" s="19">
@@ -5785,10 +5785,10 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="19">
         <v>15</v>
@@ -5818,7 +5818,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="38"/>
       <c r="C34" s="19">
@@ -5849,7 +5849,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="38"/>
       <c r="C35" s="19">
@@ -5880,7 +5880,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="38"/>
       <c r="C36" s="19">
@@ -5911,7 +5911,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="38" t="str">
         <f>B19</f>
@@ -5959,7 +5959,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="38"/>
       <c r="C38" s="19">
@@ -5994,7 +5994,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="38" t="s">
         <v>54</v>
@@ -6028,7 +6028,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="38"/>
       <c r="C40" s="19">
@@ -6060,7 +6060,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="38" t="s">
         <v>60</v>
@@ -6093,7 +6093,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="38"/>
       <c r="C42" s="19">
@@ -6124,7 +6124,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="38"/>
       <c r="C43" s="19">
@@ -6155,7 +6155,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="38"/>
       <c r="C44" s="19">
@@ -6186,7 +6186,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="38"/>
       <c r="C45" s="19">
@@ -6217,7 +6217,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="38"/>
       <c r="C46" s="19">
@@ -6248,7 +6248,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="38" t="s">
         <v>59</v>
@@ -6282,7 +6282,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="38" t="s">
         <v>54</v>
@@ -6316,7 +6316,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="38"/>
       <c r="C49" s="19">
@@ -6348,7 +6348,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="38" t="s">
         <v>39</v>
@@ -6377,7 +6377,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="38" t="s">
         <v>37</v>
@@ -6399,7 +6399,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="38"/>
       <c r="C52" s="19"/>
@@ -6416,7 +6416,7 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>4</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="24"/>
       <c r="C54" s="19"/>
@@ -6466,7 +6466,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="43" t="s">
         <v>17</v>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="K55" s="37"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="55"/>
       <c r="B56" s="58"/>
       <c r="C56" s="59"/>
@@ -6497,16 +6497,16 @@
       <c r="J56" s="57"/>
       <c r="K56" s="54"/>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
       <c r="B57" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="63">
+        <v>71</v>
+      </c>
+      <c r="C57" s="70">
         <f>J55</f>
         <v>352237.30428883055</v>
       </c>
-      <c r="D57" s="63"/>
+      <c r="D57" s="70"/>
       <c r="E57" s="40">
         <v>100</v>
       </c>
@@ -6517,15 +6517,15 @@
       <c r="J57" s="51"/>
       <c r="K57" s="52"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="53"/>
       <c r="B58" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="66">
+      <c r="C58" s="73">
         <v>300000</v>
       </c>
-      <c r="D58" s="66"/>
+      <c r="D58" s="73"/>
       <c r="E58" s="40"/>
       <c r="F58" s="46"/>
       <c r="G58" s="45"/>
@@ -6534,16 +6534,16 @@
       <c r="J58" s="45"/>
       <c r="K58" s="46"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="53"/>
       <c r="B59" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="66">
+      <c r="C59" s="73">
         <f>C58-C61-C62</f>
         <v>285000</v>
       </c>
-      <c r="D59" s="66"/>
+      <c r="D59" s="73"/>
       <c r="E59" s="40">
         <f>C59/C57*100</f>
         <v>80.91136189433908</v>
@@ -6555,16 +6555,16 @@
       <c r="J59" s="45"/>
       <c r="K59" s="46"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="53"/>
       <c r="B60" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="63">
+      <c r="C60" s="70">
         <f>C57-C59</f>
         <v>67237.30428883055</v>
       </c>
-      <c r="D60" s="63"/>
+      <c r="D60" s="70"/>
       <c r="E60" s="40">
         <f>100-E59</f>
         <v>19.08863810566092</v>
@@ -6576,16 +6576,16 @@
       <c r="J60" s="45"/>
       <c r="K60" s="46"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="53"/>
       <c r="B61" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="63">
+      <c r="C61" s="70">
         <f>C58*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D61" s="63"/>
+      <c r="D61" s="70"/>
       <c r="E61" s="40">
         <v>3</v>
       </c>
@@ -6596,16 +6596,16 @@
       <c r="J61" s="45"/>
       <c r="K61" s="46"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
       <c r="B62" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="63">
+      <c r="C62" s="70">
         <f>C58*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D62" s="63"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="40">
         <v>2</v>
       </c>
@@ -6616,7 +6616,7 @@
       <c r="J62" s="45"/>
       <c r="K62" s="46"/>
     </row>
-    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="54"/>
       <c r="B63" s="54"/>
       <c r="C63" s="54"/>
@@ -6629,7 +6629,1734 @@
       <c r="J63" s="54"/>
       <c r="K63" s="54"/>
     </row>
-    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Milan Phuyal&amp;RApproved By:
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q64"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="21"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E10" s="21">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="40">
+        <f>PRODUCT(C10:F10)</f>
+        <v>7.0599419728506199</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G11" s="40">
+        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
+        <v>1.0318805242304177</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="19">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20">
+        <f>18.75/3.281</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="0"/>
+        <v>0.90692624199939043</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="21"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23">
+        <f>SUM(G10:G13)</f>
+        <v>9.0527487390804282</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="23">
+        <v>13568.9</v>
+      </c>
+      <c r="J14" s="42">
+        <f>G14*I14</f>
+        <v>122835.84236570842</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="42">
+        <f>0.13*G14*9524.2</f>
+        <v>11208.624640297478</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>2</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="38" t="str">
+        <f>B10</f>
+        <v>-slab</v>
+      </c>
+      <c r="C18" s="19">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E18" s="21">
+        <f>E10</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="40">
+        <f>PRODUCT(C18:F18)</f>
+        <v>56.479535782804959</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="38" t="str">
+        <f>B11</f>
+        <v>-beam</v>
+      </c>
+      <c r="C19" s="19">
+        <f>C11</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="20">
+        <f>D11</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21">
+        <f>F11*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G19" s="40">
+        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
+        <v>8.9728741237427609</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="19">
+        <f>C12</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="20">
+        <f>D12</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <f>F12*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G20" s="40">
+        <f t="shared" si="1"/>
+        <v>7.8863151478207856</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="38" t="str">
+        <f>B13</f>
+        <v>-column</v>
+      </c>
+      <c r="C21" s="19">
+        <f>C13</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="20">
+        <f>D13*4</f>
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21">
+        <f>F13</f>
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="40">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23">
+        <f>SUM(G18:G21)</f>
+        <v>74.058725054368495</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="23">
+        <v>915.42</v>
+      </c>
+      <c r="J22" s="42">
+        <f>G22*I22</f>
+        <v>67794.838089270008</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="42">
+        <f>0.13*G22*46827.87/100</f>
+        <v>4508.4160539752247</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>3</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="19">
+        <f>5+5+7+7</f>
+        <v>24</v>
+      </c>
+      <c r="D26" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E26" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F26" s="40">
+        <f>PRODUCT(C26:E26)</f>
+        <v>92.474065043403641</v>
+      </c>
+      <c r="G26" s="40">
+        <f t="shared" ref="G26:G38" si="2">F26/1000</f>
+        <v>9.2474065043403636E-2</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="19">
+        <f>29+5+5</f>
+        <v>39</v>
+      </c>
+      <c r="D27" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" ref="E27:E36" si="3">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" ref="F27:F38" si="4">PRODUCT(C27:E27)</f>
+        <v>150.27035569553092</v>
+      </c>
+      <c r="G27" s="40">
+        <f t="shared" si="2"/>
+        <v>0.15027035569553093</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="19">
+        <f>58+5+6</f>
+        <v>69</v>
+      </c>
+      <c r="D28" s="20">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F28" s="40">
+        <f t="shared" si="4"/>
+        <v>157.85611884362262</v>
+      </c>
+      <c r="G28" s="40">
+        <f t="shared" si="2"/>
+        <v>0.15785611884362263</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="61">
+        <f>SUM(F26:F36)</f>
+        <v>551.40551096662023</v>
+      </c>
+      <c r="O28" s="61" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="19">
+        <v>30</v>
+      </c>
+      <c r="D29" s="20">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F29" s="40">
+        <f t="shared" si="4"/>
+        <v>68.633095149401143</v>
+      </c>
+      <c r="G29" s="40">
+        <f t="shared" si="2"/>
+        <v>6.8633095149401149E-2</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="19">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20">
+        <f>7.083/3.281</f>
+        <v>2.1587930508991162</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F30" s="40">
+        <f t="shared" si="4"/>
+        <v>12.7928477090318</v>
+      </c>
+      <c r="G30" s="40">
+        <f t="shared" si="2"/>
+        <v>1.27928477090318E-2</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="19">
+        <v>15</v>
+      </c>
+      <c r="D31" s="20">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="4"/>
+        <v>11.739871538713354</v>
+      </c>
+      <c r="G31" s="40">
+        <f t="shared" si="2"/>
+        <v>1.1739871538713354E-2</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="19">
+        <v>15</v>
+      </c>
+      <c r="D32" s="20">
+        <f>6.33/3.281</f>
+        <v>1.929289850655288</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="4"/>
+        <v>11.432828744623929</v>
+      </c>
+      <c r="G32" s="40">
+        <f t="shared" si="2"/>
+        <v>1.1432828744623929E-2</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="19">
+        <v>15</v>
+      </c>
+      <c r="D33" s="20">
+        <f>6.917/3.281</f>
+        <v>2.1081987199024685</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" si="4"/>
+        <v>12.493029451273888</v>
+      </c>
+      <c r="G33" s="40">
+        <f t="shared" si="2"/>
+        <v>1.2493029451273887E-2</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="19">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" si="4"/>
+        <v>10.98671362615282</v>
+      </c>
+      <c r="G34" s="40">
+        <f t="shared" si="2"/>
+        <v>1.0986713626152821E-2</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="19">
+        <v>15</v>
+      </c>
+      <c r="D35" s="20">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" si="4"/>
+        <v>10.98671362615282</v>
+      </c>
+      <c r="G35" s="40">
+        <f t="shared" si="2"/>
+        <v>1.0986713626152821E-2</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="19">
+        <v>15</v>
+      </c>
+      <c r="D36" s="20">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="4"/>
+        <v>11.739871538713354</v>
+      </c>
+      <c r="G36" s="40">
+        <f t="shared" si="2"/>
+        <v>1.1739871538713354E-2</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="38" t="str">
+        <f>B19</f>
+        <v>-beam</v>
+      </c>
+      <c r="C37" s="19">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D37" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E37" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" si="4"/>
+        <v>86.69443597819091</v>
+      </c>
+      <c r="G37" s="40">
+        <f t="shared" si="2"/>
+        <v>8.6694435978190904E-2</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="21"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="61" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O37" s="61">
+        <f>F39+F40</f>
+        <v>99.566031133236237</v>
+      </c>
+      <c r="P37" s="61">
+        <f>F48+F49</f>
+        <v>10.145185185185184</v>
+      </c>
+      <c r="Q37" s="62" t="e">
+        <f>SUM(N37:P37)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="19">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D38" s="20">
+        <f>E10</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E38" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" si="4"/>
+        <v>61.76978563446103</v>
+      </c>
+      <c r="G38" s="40">
+        <f t="shared" si="2"/>
+        <v>6.1769785634461033E-2</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="21"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="61" t="e">
+        <f>SUM(F37+F38+F41+F42+#REF!+F47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="19">
+        <f>60*2</f>
+        <v>120</v>
+      </c>
+      <c r="D39" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" ref="E39:E49" si="5">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F39" s="40">
+        <f>PRODUCT(C39:E39)</f>
+        <v>52.403174280650653</v>
+      </c>
+      <c r="G39" s="40">
+        <f>F39/1000</f>
+        <v>5.2403174280650652E-2</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="19">
+        <f>36*3</f>
+        <v>108</v>
+      </c>
+      <c r="D40" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F40" s="40">
+        <f>PRODUCT(C40:E40)</f>
+        <v>47.162856852585584</v>
+      </c>
+      <c r="G40" s="40">
+        <f>F40/1000</f>
+        <v>4.7162856852585582E-2</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="21"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="19">
+        <v>6</v>
+      </c>
+      <c r="D41" s="20">
+        <f>7.75/3.281</f>
+        <v>2.3620847302651629</v>
+      </c>
+      <c r="E41" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F41" s="40">
+        <f t="shared" ref="F41:F47" si="6">PRODUCT(C41:E41)</f>
+        <v>12.597785228080866</v>
+      </c>
+      <c r="G41" s="40">
+        <f t="shared" ref="G41:G49" si="7">F41/1000</f>
+        <v>1.2597785228080867E-2</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="21"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20">
+        <f>8.667/3.281</f>
+        <v>2.6415726912526667</v>
+      </c>
+      <c r="E42" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F42" s="40">
+        <f t="shared" si="6"/>
+        <v>2.3480646144468147</v>
+      </c>
+      <c r="G42" s="40">
+        <f t="shared" si="7"/>
+        <v>2.3480646144468146E-3</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="21"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="20">
+        <f>D38</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E43" s="21">
+        <f t="shared" ref="E43:E47" si="8">12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F43" s="40">
+        <f t="shared" si="6"/>
+        <v>5.1474821362050855</v>
+      </c>
+      <c r="G43" s="40">
+        <f t="shared" si="7"/>
+        <v>5.1474821362050855E-3</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="21"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20">
+        <f>7.667/3.281</f>
+        <v>2.3367875647668392</v>
+      </c>
+      <c r="E44" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F44" s="40">
+        <f t="shared" si="6"/>
+        <v>2.0771445020149679</v>
+      </c>
+      <c r="G44" s="40">
+        <f t="shared" si="7"/>
+        <v>2.0771445020149677E-3</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="21"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="19">
+        <v>2</v>
+      </c>
+      <c r="D45" s="20">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E45" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F45" s="40">
+        <f t="shared" si="6"/>
+        <v>4.8765620237732401</v>
+      </c>
+      <c r="G45" s="40">
+        <f t="shared" si="7"/>
+        <v>4.8765620237732404E-3</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="21"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="19">
+        <v>2</v>
+      </c>
+      <c r="D46" s="20">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E46" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F46" s="40">
+        <f t="shared" si="6"/>
+        <v>4.8765620237732401</v>
+      </c>
+      <c r="G46" s="40">
+        <f t="shared" si="7"/>
+        <v>4.8765620237732404E-3</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="21"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="19">
+        <f>6*8</f>
+        <v>48</v>
+      </c>
+      <c r="D47" s="20">
+        <f>12/3.281</f>
+        <v>3.6574215178299299</v>
+      </c>
+      <c r="E47" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F47" s="40">
+        <f t="shared" si="6"/>
+        <v>156.04998476074368</v>
+      </c>
+      <c r="G47" s="40">
+        <f t="shared" si="7"/>
+        <v>0.15604998476074369</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="21"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D48" s="20">
+        <f>(0.23*4+0.075*2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="E48" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F48" s="40">
+        <f>PRODUCT(C48:E48)</f>
+        <v>5.0725925925925921</v>
+      </c>
+      <c r="G48" s="40">
+        <f t="shared" si="7"/>
+        <v>5.0725925925925921E-3</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="21"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D49" s="20">
+        <f>(0.23*4+0.075*2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="E49" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F49" s="40">
+        <f>PRODUCT(C49:E49)</f>
+        <v>5.0725925925925921</v>
+      </c>
+      <c r="G49" s="40">
+        <f t="shared" si="7"/>
+        <v>5.0725925925925921E-3</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="21"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="23">
+        <f>SUM(G26:G49)</f>
+        <v>0.99755453418673168</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="23">
+        <v>131940</v>
+      </c>
+      <c r="J50" s="42">
+        <f>G50*I50</f>
+        <v>131617.34524059738</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="42">
+        <f>0.13*G50*106200</f>
+        <v>13772.237898982017</v>
+      </c>
+      <c r="K51" s="21"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="21"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>4</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="19">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="33">
+        <f t="shared" ref="G53" si="9">PRODUCT(C53:F53)</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="23">
+        <v>500</v>
+      </c>
+      <c r="J53" s="33">
+        <f>G53*I53</f>
+        <v>500</v>
+      </c>
+      <c r="K53" s="21"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="21"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="44"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42">
+        <f>SUM(J9:J53)</f>
+        <v>352237.30428883055</v>
+      </c>
+      <c r="K55" s="37"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="54"/>
+    </row>
+    <row r="57" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
+      <c r="B57" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="70">
+        <f>J55</f>
+        <v>352237.30428883055</v>
+      </c>
+      <c r="D57" s="70"/>
+      <c r="E57" s="40">
+        <v>100</v>
+      </c>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="52"/>
+    </row>
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="53"/>
+      <c r="B58" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="73">
+        <v>300000</v>
+      </c>
+      <c r="D58" s="73"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="46"/>
+    </row>
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="53"/>
+      <c r="B59" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="73">
+        <f>C58-C61-C62</f>
+        <v>285000</v>
+      </c>
+      <c r="D59" s="73"/>
+      <c r="E59" s="40">
+        <f>C59/C57*100</f>
+        <v>80.91136189433908</v>
+      </c>
+      <c r="F59" s="46"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="46"/>
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="53"/>
+      <c r="B60" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="70">
+        <f>C57-C59</f>
+        <v>67237.30428883055</v>
+      </c>
+      <c r="D60" s="70"/>
+      <c r="E60" s="40">
+        <f>100-E59</f>
+        <v>19.08863810566092</v>
+      </c>
+      <c r="F60" s="46"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="46"/>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="53"/>
+      <c r="B61" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="70">
+        <f>C58*0.03</f>
+        <v>9000</v>
+      </c>
+      <c r="D61" s="70"/>
+      <c r="E61" s="40">
+        <v>3</v>
+      </c>
+      <c r="F61" s="46"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="46"/>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="53"/>
+      <c r="B62" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="70">
+        <f>C58*0.02</f>
+        <v>6000</v>
+      </c>
+      <c r="D62" s="70"/>
+      <c r="E62" s="40">
+        <v>2</v>
+      </c>
+      <c r="F62" s="46"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="46"/>
+    </row>
+    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+    </row>
+    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A6:F6"/>
@@ -6657,1731 +8384,4 @@
 Er. Prakash Singh Saud</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="21"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="19">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E10" s="21">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.125</v>
-      </c>
-      <c r="G10" s="40">
-        <f>PRODUCT(C10:F10)</f>
-        <v>7.0599419728506199</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="19">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="G11" s="40">
-        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
-        <v>1.0318805242304177</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="19">
-        <v>3</v>
-      </c>
-      <c r="D12" s="20">
-        <f>18.75/3.281</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="G12" s="40">
-        <f t="shared" si="0"/>
-        <v>0.90692624199939043</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="40">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23">
-        <f>SUM(G10:G13)</f>
-        <v>9.0527487390804282</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="23">
-        <v>13568.9</v>
-      </c>
-      <c r="J14" s="42">
-        <f>G14*I14</f>
-        <v>122835.84236570842</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="42">
-        <f>0.13*G14*9524.2</f>
-        <v>11208.624640297478</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="21"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <v>2</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="21"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="38" t="str">
-        <f>B10</f>
-        <v>-slab</v>
-      </c>
-      <c r="C18" s="19">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <f>D10</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E18" s="21">
-        <f>E10</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="40">
-        <f>PRODUCT(C18:F18)</f>
-        <v>56.479535782804959</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="38" t="str">
-        <f>B11</f>
-        <v>-beam</v>
-      </c>
-      <c r="C19" s="19">
-        <f>C11</f>
-        <v>2</v>
-      </c>
-      <c r="D19" s="20">
-        <f>D11</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21">
-        <f>F11*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G19" s="40">
-        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
-        <v>8.9728741237427609</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="19">
-        <f>C12</f>
-        <v>3</v>
-      </c>
-      <c r="D20" s="20">
-        <f>D12</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <f>F12*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G20" s="40">
-        <f t="shared" si="1"/>
-        <v>7.8863151478207856</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="38" t="str">
-        <f>B13</f>
-        <v>-column</v>
-      </c>
-      <c r="C21" s="19">
-        <f>C13</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="20">
-        <f>D13*4</f>
-        <v>1.2</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21">
-        <f>F13</f>
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="40">
-        <f t="shared" si="1"/>
-        <v>0.72</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="21"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="23">
-        <f>SUM(G18:G21)</f>
-        <v>74.058725054368495</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="23">
-        <v>915.42</v>
-      </c>
-      <c r="J22" s="42">
-        <f>G22*I22</f>
-        <v>67794.838089270008</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="42">
-        <f>0.13*G22*46827.87/100</f>
-        <v>4508.4160539752247</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>3</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="19">
-        <f>5+5+7+7</f>
-        <v>24</v>
-      </c>
-      <c r="D26" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E26" s="21">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F26" s="40">
-        <f>PRODUCT(C26:E26)</f>
-        <v>92.474065043403641</v>
-      </c>
-      <c r="G26" s="40">
-        <f t="shared" ref="G26:G38" si="2">F26/1000</f>
-        <v>9.2474065043403636E-2</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="21"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="19">
-        <f>29+5+5</f>
-        <v>39</v>
-      </c>
-      <c r="D27" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E27" s="21">
-        <f t="shared" ref="E27:E36" si="3">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F27" s="40">
-        <f t="shared" ref="F27:F38" si="4">PRODUCT(C27:E27)</f>
-        <v>150.27035569553092</v>
-      </c>
-      <c r="G27" s="40">
-        <f t="shared" si="2"/>
-        <v>0.15027035569553093</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="21"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="19">
-        <f>58+5+6</f>
-        <v>69</v>
-      </c>
-      <c r="D28" s="20">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F28" s="40">
-        <f t="shared" si="4"/>
-        <v>157.85611884362262</v>
-      </c>
-      <c r="G28" s="40">
-        <f t="shared" si="2"/>
-        <v>0.15785611884362263</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="21"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="61">
-        <f>SUM(F26:F36)</f>
-        <v>551.40551096662023</v>
-      </c>
-      <c r="O28" s="61" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="19">
-        <v>30</v>
-      </c>
-      <c r="D29" s="20">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E29" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F29" s="40">
-        <f t="shared" si="4"/>
-        <v>68.633095149401143</v>
-      </c>
-      <c r="G29" s="40">
-        <f t="shared" si="2"/>
-        <v>6.8633095149401149E-2</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="21"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="19">
-        <v>15</v>
-      </c>
-      <c r="D30" s="20">
-        <f>7.083/3.281</f>
-        <v>2.1587930508991162</v>
-      </c>
-      <c r="E30" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F30" s="40">
-        <f t="shared" si="4"/>
-        <v>12.7928477090318</v>
-      </c>
-      <c r="G30" s="40">
-        <f t="shared" si="2"/>
-        <v>1.27928477090318E-2</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="19">
-        <v>15</v>
-      </c>
-      <c r="D31" s="20">
-        <f>6.5/3.281</f>
-        <v>1.9811033221578787</v>
-      </c>
-      <c r="E31" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F31" s="40">
-        <f t="shared" si="4"/>
-        <v>11.739871538713354</v>
-      </c>
-      <c r="G31" s="40">
-        <f t="shared" si="2"/>
-        <v>1.1739871538713354E-2</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="21"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="19">
-        <v>15</v>
-      </c>
-      <c r="D32" s="20">
-        <f>6.33/3.281</f>
-        <v>1.929289850655288</v>
-      </c>
-      <c r="E32" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F32" s="40">
-        <f t="shared" si="4"/>
-        <v>11.432828744623929</v>
-      </c>
-      <c r="G32" s="40">
-        <f t="shared" si="2"/>
-        <v>1.1432828744623929E-2</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="21"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="19">
-        <v>15</v>
-      </c>
-      <c r="D33" s="20">
-        <f>6.917/3.281</f>
-        <v>2.1081987199024685</v>
-      </c>
-      <c r="E33" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F33" s="40">
-        <f t="shared" si="4"/>
-        <v>12.493029451273888</v>
-      </c>
-      <c r="G33" s="40">
-        <f t="shared" si="2"/>
-        <v>1.2493029451273887E-2</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="21"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="19">
-        <v>15</v>
-      </c>
-      <c r="D34" s="20">
-        <f>6.083/3.281</f>
-        <v>1.8540079244132885</v>
-      </c>
-      <c r="E34" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F34" s="40">
-        <f t="shared" si="4"/>
-        <v>10.98671362615282</v>
-      </c>
-      <c r="G34" s="40">
-        <f t="shared" si="2"/>
-        <v>1.0986713626152821E-2</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="21"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="19">
-        <v>15</v>
-      </c>
-      <c r="D35" s="20">
-        <f>6.083/3.281</f>
-        <v>1.8540079244132885</v>
-      </c>
-      <c r="E35" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F35" s="40">
-        <f t="shared" si="4"/>
-        <v>10.98671362615282</v>
-      </c>
-      <c r="G35" s="40">
-        <f t="shared" si="2"/>
-        <v>1.0986713626152821E-2</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="21"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="19">
-        <v>15</v>
-      </c>
-      <c r="D36" s="20">
-        <f>6.5/3.281</f>
-        <v>1.9811033221578787</v>
-      </c>
-      <c r="E36" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F36" s="40">
-        <f t="shared" si="4"/>
-        <v>11.739871538713354</v>
-      </c>
-      <c r="G36" s="40">
-        <f t="shared" si="2"/>
-        <v>1.1739871538713354E-2</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="21"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="38" t="str">
-        <f>B19</f>
-        <v>-beam</v>
-      </c>
-      <c r="C37" s="19">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="D37" s="20">
-        <f>D10</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E37" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F37" s="40">
-        <f t="shared" si="4"/>
-        <v>86.69443597819091</v>
-      </c>
-      <c r="G37" s="40">
-        <f t="shared" si="2"/>
-        <v>8.6694435978190904E-2</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="21"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="61" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O37" s="61">
-        <f>F39+F40</f>
-        <v>99.566031133236237</v>
-      </c>
-      <c r="P37" s="61">
-        <f>F48+F49</f>
-        <v>10.145185185185184</v>
-      </c>
-      <c r="Q37" s="62" t="e">
-        <f>SUM(N37:P37)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="19">
-        <f>3*4</f>
-        <v>12</v>
-      </c>
-      <c r="D38" s="20">
-        <f>E10</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E38" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F38" s="40">
-        <f t="shared" si="4"/>
-        <v>61.76978563446103</v>
-      </c>
-      <c r="G38" s="40">
-        <f t="shared" si="2"/>
-        <v>6.1769785634461033E-2</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="21"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="61" t="e">
-        <f>SUM(F37+F38+F41+F42+#REF!+F47)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="19">
-        <f>60*2</f>
-        <v>120</v>
-      </c>
-      <c r="D39" s="20">
-        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
-        <v>1.1053794574824747</v>
-      </c>
-      <c r="E39" s="21">
-        <f t="shared" ref="E39:E49" si="5">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F39" s="40">
-        <f>PRODUCT(C39:E39)</f>
-        <v>52.403174280650653</v>
-      </c>
-      <c r="G39" s="40">
-        <f>F39/1000</f>
-        <v>5.2403174280650652E-2</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="21"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="19">
-        <f>36*3</f>
-        <v>108</v>
-      </c>
-      <c r="D40" s="20">
-        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
-        <v>1.1053794574824747</v>
-      </c>
-      <c r="E40" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F40" s="40">
-        <f>PRODUCT(C40:E40)</f>
-        <v>47.162856852585584</v>
-      </c>
-      <c r="G40" s="40">
-        <f>F40/1000</f>
-        <v>4.7162856852585582E-2</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="21"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="19">
-        <v>6</v>
-      </c>
-      <c r="D41" s="20">
-        <f>7.75/3.281</f>
-        <v>2.3620847302651629</v>
-      </c>
-      <c r="E41" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F41" s="40">
-        <f t="shared" ref="F41:F47" si="6">PRODUCT(C41:E41)</f>
-        <v>12.597785228080866</v>
-      </c>
-      <c r="G41" s="40">
-        <f t="shared" ref="G41:G49" si="7">F41/1000</f>
-        <v>1.2597785228080867E-2</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="21"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="19">
-        <v>1</v>
-      </c>
-      <c r="D42" s="20">
-        <f>8.667/3.281</f>
-        <v>2.6415726912526667</v>
-      </c>
-      <c r="E42" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F42" s="40">
-        <f t="shared" si="6"/>
-        <v>2.3480646144468147</v>
-      </c>
-      <c r="G42" s="40">
-        <f t="shared" si="7"/>
-        <v>2.3480646144468146E-3</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="21"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="19">
-        <v>1</v>
-      </c>
-      <c r="D43" s="20">
-        <f>D38</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E43" s="21">
-        <f t="shared" ref="E43:E47" si="8">12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F43" s="40">
-        <f t="shared" si="6"/>
-        <v>5.1474821362050855</v>
-      </c>
-      <c r="G43" s="40">
-        <f t="shared" si="7"/>
-        <v>5.1474821362050855E-3</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="21"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="19">
-        <v>1</v>
-      </c>
-      <c r="D44" s="20">
-        <f>7.667/3.281</f>
-        <v>2.3367875647668392</v>
-      </c>
-      <c r="E44" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F44" s="40">
-        <f t="shared" si="6"/>
-        <v>2.0771445020149679</v>
-      </c>
-      <c r="G44" s="40">
-        <f t="shared" si="7"/>
-        <v>2.0771445020149677E-3</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="21"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="19">
-        <v>2</v>
-      </c>
-      <c r="D45" s="20">
-        <f>9/3.281</f>
-        <v>2.7430661383724475</v>
-      </c>
-      <c r="E45" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F45" s="40">
-        <f t="shared" si="6"/>
-        <v>4.8765620237732401</v>
-      </c>
-      <c r="G45" s="40">
-        <f t="shared" si="7"/>
-        <v>4.8765620237732404E-3</v>
-      </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="21"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="19">
-        <v>2</v>
-      </c>
-      <c r="D46" s="20">
-        <f>9/3.281</f>
-        <v>2.7430661383724475</v>
-      </c>
-      <c r="E46" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F46" s="40">
-        <f t="shared" si="6"/>
-        <v>4.8765620237732401</v>
-      </c>
-      <c r="G46" s="40">
-        <f t="shared" si="7"/>
-        <v>4.8765620237732404E-3</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="21"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="19">
-        <f>6*8</f>
-        <v>48</v>
-      </c>
-      <c r="D47" s="20">
-        <f>12/3.281</f>
-        <v>3.6574215178299299</v>
-      </c>
-      <c r="E47" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F47" s="40">
-        <f t="shared" si="6"/>
-        <v>156.04998476074368</v>
-      </c>
-      <c r="G47" s="40">
-        <f t="shared" si="7"/>
-        <v>0.15604998476074369</v>
-      </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="21"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="19">
-        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
-        <v>12</v>
-      </c>
-      <c r="D48" s="20">
-        <f>(0.23*4+0.075*2)</f>
-        <v>1.07</v>
-      </c>
-      <c r="E48" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F48" s="40">
-        <f>PRODUCT(C48:E48)</f>
-        <v>5.0725925925925921</v>
-      </c>
-      <c r="G48" s="40">
-        <f t="shared" si="7"/>
-        <v>5.0725925925925921E-3</v>
-      </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="21"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="19">
-        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
-        <v>12</v>
-      </c>
-      <c r="D49" s="20">
-        <f>(0.23*4+0.075*2)</f>
-        <v>1.07</v>
-      </c>
-      <c r="E49" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F49" s="40">
-        <f>PRODUCT(C49:E49)</f>
-        <v>5.0725925925925921</v>
-      </c>
-      <c r="G49" s="40">
-        <f t="shared" si="7"/>
-        <v>5.0725925925925921E-3</v>
-      </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="21"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="23">
-        <f>SUM(G26:G49)</f>
-        <v>0.99755453418673168</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I50" s="23">
-        <v>131940</v>
-      </c>
-      <c r="J50" s="42">
-        <f>G50*I50</f>
-        <v>131617.34524059738</v>
-      </c>
-      <c r="K50" s="21"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="42">
-        <f>0.13*G50*106200</f>
-        <v>13772.237898982017</v>
-      </c>
-      <c r="K51" s="21"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="21"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18">
-        <v>4</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="19">
-        <v>1</v>
-      </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="33">
-        <f t="shared" ref="G53" si="9">PRODUCT(C53:F53)</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" s="23">
-        <v>500</v>
-      </c>
-      <c r="J53" s="33">
-        <f>G53*I53</f>
-        <v>500</v>
-      </c>
-      <c r="K53" s="21"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="21"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42">
-        <f>SUM(J9:J53)</f>
-        <v>352237.30428883055</v>
-      </c>
-      <c r="K55" s="37"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="54"/>
-    </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
-      <c r="B57" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="63">
-        <f>J55</f>
-        <v>352237.30428883055</v>
-      </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="40">
-        <v>100</v>
-      </c>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="52"/>
-    </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="66">
-        <v>300000</v>
-      </c>
-      <c r="D58" s="66"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="46"/>
-    </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="66">
-        <f>C58-C61-C62</f>
-        <v>285000</v>
-      </c>
-      <c r="D59" s="66"/>
-      <c r="E59" s="40">
-        <f>C59/C57*100</f>
-        <v>80.91136189433908</v>
-      </c>
-      <c r="F59" s="46"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="46"/>
-    </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
-      <c r="B60" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="63">
-        <f>C57-C59</f>
-        <v>67237.30428883055</v>
-      </c>
-      <c r="D60" s="63"/>
-      <c r="E60" s="40">
-        <f>100-E59</f>
-        <v>19.08863810566092</v>
-      </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="46"/>
-    </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="53"/>
-      <c r="B61" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="63">
-        <f>C58*0.03</f>
-        <v>9000</v>
-      </c>
-      <c r="D61" s="63"/>
-      <c r="E61" s="40">
-        <v>3</v>
-      </c>
-      <c r="F61" s="46"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-    </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="53"/>
-      <c r="B62" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="63">
-        <f>C58*0.02</f>
-        <v>6000</v>
-      </c>
-      <c r="D62" s="63"/>
-      <c r="E62" s="40">
-        <v>2</v>
-      </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="46"/>
-    </row>
-    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-    </row>
-    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
+++ b/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\Finalized valuations\kalimasta mandir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\Finalized valuations\kalimasta mandir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="kalimasta mandir final" sheetId="17" state="hidden" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">valuated!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -305,10 +305,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -504,7 +504,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,14 +534,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,7 +550,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +575,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -613,7 +613,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -628,7 +628,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -644,7 +644,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -654,6 +654,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -671,31 +681,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,6 +708,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1347,131 +1347,131 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="38" t="s">
         <v>46</v>
@@ -1557,7 +1557,7 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="38" t="s">
         <v>39</v>
@@ -1588,7 +1588,7 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="38" t="s">
         <v>37</v>
@@ -1612,7 +1612,7 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="38"/>
       <c r="C13" s="19"/>
@@ -1631,7 +1631,7 @@
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:18" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>2</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="38" t="s">
         <v>46</v>
@@ -1682,7 +1682,7 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="38" t="s">
         <v>39</v>
@@ -1713,7 +1713,7 @@
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="38" t="s">
         <v>37</v>
@@ -1737,7 +1737,7 @@
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="38"/>
       <c r="C18" s="19"/>
@@ -1756,7 +1756,7 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
     </row>
-    <row r="19" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>3</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="38" t="s">
         <v>49</v>
@@ -1813,7 +1813,7 @@
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="38" t="s">
         <v>50</v>
@@ -1846,7 +1846,7 @@
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
     </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="38"/>
       <c r="C22" s="19">
@@ -1877,7 +1877,7 @@
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
         <v>39</v>
@@ -1908,7 +1908,7 @@
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
     </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -1932,7 +1932,7 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="25"/>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="38"/>
       <c r="C25" s="19"/>
@@ -1951,7 +1951,7 @@
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
     </row>
-    <row r="26" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>4</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="38" t="str">
         <f>B20</f>
@@ -2008,7 +2008,7 @@
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="38" t="str">
         <f>B21</f>
@@ -2042,7 +2042,7 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="25"/>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="38"/>
       <c r="C29" s="19">
@@ -2073,7 +2073,7 @@
       <c r="Q29" s="25"/>
       <c r="R29" s="25"/>
     </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="38" t="s">
         <v>39</v>
@@ -2104,7 +2104,7 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
     </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="38" t="s">
         <v>37</v>
@@ -2128,7 +2128,7 @@
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
     </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="38"/>
       <c r="C32" s="19"/>
@@ -2147,7 +2147,7 @@
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
     </row>
-    <row r="33" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>5</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="Q33" s="25"/>
       <c r="R33" s="25"/>
     </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="38" t="str">
         <f>B27</f>
@@ -2215,7 +2215,7 @@
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
     </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="38"/>
       <c r="C35" s="19">
@@ -2249,7 +2249,7 @@
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="38" t="str">
         <f>B28</f>
@@ -2286,7 +2286,7 @@
       <c r="Q36" s="25"/>
       <c r="R36" s="25"/>
     </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="38"/>
       <c r="C37" s="19">
@@ -2320,7 +2320,7 @@
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
     </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="38" t="s">
         <v>54</v>
@@ -2356,7 +2356,7 @@
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
     </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="38"/>
       <c r="C39" s="19">
@@ -2390,7 +2390,7 @@
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
     </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="38" t="s">
         <v>39</v>
@@ -2421,7 +2421,7 @@
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
     </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="38" t="s">
         <v>37</v>
@@ -2445,7 +2445,7 @@
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
     </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="38"/>
       <c r="C42" s="19"/>
@@ -2464,7 +2464,7 @@
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>6</v>
       </c>
@@ -2499,7 +2499,7 @@
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
     </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="24"/>
       <c r="C44" s="19"/>
@@ -2518,7 +2518,7 @@
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="41"/>
       <c r="B45" s="43" t="s">
         <v>17</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="K45" s="37"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="55"/>
       <c r="B46" s="58"/>
       <c r="C46" s="59"/>
@@ -2549,16 +2549,16 @@
       <c r="J46" s="57"/>
       <c r="K46" s="54"/>
     </row>
-    <row r="47" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="47"/>
       <c r="B47" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="64">
         <f>J45</f>
         <v>345993.93824887183</v>
       </c>
-      <c r="D47" s="70"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="40">
         <v>100</v>
       </c>
@@ -2569,15 +2569,15 @@
       <c r="J47" s="51"/>
       <c r="K47" s="52"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="53"/>
       <c r="B48" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="67">
         <v>300000</v>
       </c>
-      <c r="D48" s="73"/>
+      <c r="D48" s="67"/>
       <c r="E48" s="40"/>
       <c r="F48" s="46"/>
       <c r="G48" s="45"/>
@@ -2586,16 +2586,16 @@
       <c r="J48" s="45"/>
       <c r="K48" s="46"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="53"/>
       <c r="B49" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="67">
         <f>C48-C51-C52</f>
         <v>285000</v>
       </c>
-      <c r="D49" s="73"/>
+      <c r="D49" s="67"/>
       <c r="E49" s="40">
         <f>C49/C47*100</f>
         <v>82.371385302999386</v>
@@ -2607,16 +2607,16 @@
       <c r="J49" s="45"/>
       <c r="K49" s="46"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="53"/>
       <c r="B50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="70">
+      <c r="C50" s="64">
         <f>C47-C49</f>
         <v>60993.938248871826</v>
       </c>
-      <c r="D50" s="70"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="40">
         <f>100-E49</f>
         <v>17.628614697000614</v>
@@ -2628,16 +2628,16 @@
       <c r="J50" s="45"/>
       <c r="K50" s="46"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>
       <c r="B51" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="70">
+      <c r="C51" s="64">
         <f>C48*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D51" s="70"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="40">
         <v>3</v>
       </c>
@@ -2648,16 +2648,16 @@
       <c r="J51" s="45"/>
       <c r="K51" s="46"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="53"/>
       <c r="B52" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="70">
+      <c r="C52" s="64">
         <f>C48*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D52" s="70"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="40">
         <v>2</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="J52" s="45"/>
       <c r="K52" s="46"/>
     </row>
-    <row r="53" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="54"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -2681,64 +2681,71 @@
       <c r="J53" s="54"/>
       <c r="K53" s="54"/>
     </row>
-    <row r="54" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A7:F7"/>
@@ -2747,13 +2754,6 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -2770,135 +2770,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -2954,7 +2954,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="38" t="s">
         <v>49</v>
@@ -2986,7 +2986,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="38" t="s">
         <v>50</v>
@@ -3017,7 +3017,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="38"/>
       <c r="C12" s="19">
@@ -3046,7 +3046,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="38" t="s">
         <v>59</v>
@@ -3076,7 +3076,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="38" t="s">
         <v>39</v>
@@ -3105,7 +3105,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="38" t="s">
         <v>37</v>
@@ -3127,7 +3127,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="38"/>
       <c r="C16" s="19"/>
@@ -3144,7 +3144,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="38" t="str">
         <f>B10</f>
@@ -3197,7 +3197,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="38" t="str">
         <f>B11</f>
@@ -3229,7 +3229,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="38"/>
       <c r="C20" s="19">
@@ -3258,7 +3258,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="38" t="str">
         <f>B13</f>
@@ -3290,7 +3290,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -3319,7 +3319,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
         <v>37</v>
@@ -3341,7 +3341,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="38"/>
       <c r="C24" s="19"/>
@@ -3358,7 +3358,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>3</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="38" t="s">
         <v>55</v>
@@ -3420,7 +3420,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="38"/>
       <c r="C27" s="19">
@@ -3452,7 +3452,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="38" t="s">
         <v>56</v>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="38"/>
       <c r="C29" s="19">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="38"/>
       <c r="C30" s="19">
@@ -3562,7 +3562,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="38" t="s">
         <v>57</v>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="38"/>
       <c r="C32" s="19">
@@ -3637,7 +3637,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="38" t="str">
         <f>B19</f>
@@ -3685,7 +3685,7 @@
         <v>635.91402259925269</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="38"/>
       <c r="C34" s="19">
@@ -3720,7 +3720,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="38" t="s">
         <v>54</v>
@@ -3754,7 +3754,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="38"/>
       <c r="C36" s="19">
@@ -3786,7 +3786,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="38" t="s">
         <v>60</v>
@@ -3819,7 +3819,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="38"/>
       <c r="C38" s="19">
@@ -3850,7 +3850,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="38"/>
       <c r="C39" s="19">
@@ -3884,7 +3884,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="38" t="s">
         <v>59</v>
@@ -3918,7 +3918,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="38" t="s">
         <v>54</v>
@@ -3952,7 +3952,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="38"/>
       <c r="C42" s="19">
@@ -3984,7 +3984,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="38" t="s">
         <v>39</v>
@@ -4013,7 +4013,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="38" t="s">
         <v>37</v>
@@ -4035,7 +4035,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="38"/>
       <c r="C45" s="19"/>
@@ -4052,7 +4052,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>4</v>
       </c>
@@ -4085,7 +4085,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="24"/>
       <c r="C47" s="19"/>
@@ -4102,7 +4102,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="41"/>
       <c r="B48" s="43" t="s">
         <v>17</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="K48" s="37"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="55"/>
       <c r="B49" s="58"/>
       <c r="C49" s="59"/>
@@ -4133,16 +4133,16 @@
       <c r="J49" s="57"/>
       <c r="K49" s="54"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
       <c r="B50" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="70">
+      <c r="C50" s="64">
         <f>J48</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="D50" s="70"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="40">
         <v>100</v>
       </c>
@@ -4153,15 +4153,15 @@
       <c r="J50" s="51"/>
       <c r="K50" s="52"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>
       <c r="B51" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="67">
         <v>300000</v>
       </c>
-      <c r="D51" s="73"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="40"/>
       <c r="F51" s="46"/>
       <c r="G51" s="45"/>
@@ -4170,16 +4170,16 @@
       <c r="J51" s="45"/>
       <c r="K51" s="46"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="53"/>
       <c r="B52" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="73">
+      <c r="C52" s="67">
         <f>C51-C54-C55</f>
         <v>285000</v>
       </c>
-      <c r="D52" s="73"/>
+      <c r="D52" s="67"/>
       <c r="E52" s="40">
         <f>C52/C50*100</f>
         <v>82.792054089654883</v>
@@ -4191,16 +4191,16 @@
       <c r="J52" s="45"/>
       <c r="K52" s="46"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="53"/>
       <c r="B53" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="70">
+      <c r="C53" s="64">
         <f>C50-C52</f>
         <v>59235.93318674725</v>
       </c>
-      <c r="D53" s="70"/>
+      <c r="D53" s="64"/>
       <c r="E53" s="40">
         <f>100-E52</f>
         <v>17.207945910345117</v>
@@ -4212,16 +4212,16 @@
       <c r="J53" s="45"/>
       <c r="K53" s="46"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="53"/>
       <c r="B54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="70">
+      <c r="C54" s="64">
         <f>C51*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D54" s="70"/>
+      <c r="D54" s="64"/>
       <c r="E54" s="40">
         <v>3</v>
       </c>
@@ -4232,16 +4232,16 @@
       <c r="J54" s="45"/>
       <c r="K54" s="46"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="53"/>
       <c r="B55" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="70">
+      <c r="C55" s="64">
         <f>C51*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D55" s="70"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="40">
         <v>2</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="J55" s="45"/>
       <c r="K55" s="46"/>
     </row>
-    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="54"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -4265,71 +4265,64 @@
       <c r="J56" s="54"/>
       <c r="K56" s="54"/>
     </row>
-    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A7:F7"/>
@@ -4338,6 +4331,13 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -4358,106 +4358,106 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="74">
+      <c r="C6" s="83">
         <f>F24</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -4465,90 +4465,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="74">
+      <c r="J6" s="83">
         <f>I24</f>
-        <v>352237.30428883055</v>
-      </c>
-      <c r="K6" s="75"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>352016.20220883057</v>
+      </c>
+      <c r="K6" s="84"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="I7" s="82" t="s">
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="I7" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="str">
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="str">
         <f>'kalimasta mandir final (2)'!A6:F6</f>
         <v>Project:- कालीमस्ट मन्दिर निर्माण</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="I8" s="83" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="I8" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="str">
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="79" t="str">
         <f>'kalimasta mandir final (2)'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="I9" s="83" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="I9" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87" t="s">
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="79" t="s">
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="80" t="s">
+      <c r="K11" s="75" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="79"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="74"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -4567,10 +4567,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <f>'kalimasta mandir final (2)'!A9</f>
         <v>1</v>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="32" t="str">
         <f>'kalimasta mandir final (2)'!B15</f>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="12"/>
@@ -4651,7 +4651,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <f>'kalimasta mandir final (2)'!A17</f>
         <v>2</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
       <c r="B17" s="32" t="str">
         <f>'kalimasta mandir final (2)'!B23</f>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="12"/>
@@ -4732,7 +4732,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <f>'kalimasta mandir final (2)'!A25</f>
         <v>3</v>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="G19" s="12">
         <f>valuated!G50</f>
-        <v>0.99755453418673168</v>
+        <v>0.99603749714969458</v>
       </c>
       <c r="H19" s="12">
         <f>valuated!I50</f>
@@ -4767,15 +4767,15 @@
       </c>
       <c r="I19" s="12">
         <f>G19*H19</f>
-        <v>131617.34524059738</v>
+        <v>131417.1873739307</v>
       </c>
       <c r="J19" s="28">
         <f>I19-F19</f>
-        <v>1261.0310677639063</v>
+        <v>1060.8732010972308</v>
       </c>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="32" t="str">
         <f>'kalimasta mandir final (2)'!B44</f>
@@ -4792,15 +4792,15 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12">
         <f>valuated!J51</f>
-        <v>13772.237898982017</v>
+        <v>13751.293685648683</v>
       </c>
       <c r="J20" s="28">
         <f>I20-F20</f>
-        <v>131.95236411663245</v>
+        <v>111.00815078329833</v>
       </c>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="12"/>
@@ -4813,7 +4813,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <f>'kalimasta mandir final (2)'!A46</f>
         <v>4</v>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="12"/>
@@ -4869,7 +4869,7 @@
       <c r="J23" s="28"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
@@ -4885,16 +4885,23 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7">
         <f>SUM(I13:I22)</f>
-        <v>352237.30428883055</v>
+        <v>352016.20220883057</v>
       </c>
       <c r="J24" s="13">
         <f>I24-F24</f>
-        <v>8001.3711020832998</v>
+        <v>7780.2690220833174</v>
       </c>
       <c r="K24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -4908,13 +4915,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4932,135 +4932,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="38" t="s">
         <v>49</v>
@@ -5148,7 +5148,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="38" t="s">
         <v>50</v>
@@ -5179,7 +5179,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="38"/>
       <c r="C12" s="19">
@@ -5208,7 +5208,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="38" t="s">
         <v>59</v>
@@ -5238,7 +5238,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="38" t="s">
         <v>39</v>
@@ -5267,7 +5267,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="38" t="s">
         <v>37</v>
@@ -5289,7 +5289,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="38"/>
       <c r="C16" s="19"/>
@@ -5306,7 +5306,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -5327,7 +5327,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="38" t="str">
         <f>B10</f>
@@ -5359,7 +5359,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="38" t="str">
         <f>B11</f>
@@ -5391,7 +5391,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="38"/>
       <c r="C20" s="19">
@@ -5420,7 +5420,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="38" t="str">
         <f>B13</f>
@@ -5452,7 +5452,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -5481,7 +5481,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
         <v>37</v>
@@ -5503,7 +5503,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="38"/>
       <c r="C24" s="19"/>
@@ -5520,7 +5520,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>3</v>
       </c>
@@ -5549,7 +5549,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="38" t="s">
         <v>64</v>
@@ -5583,7 +5583,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="38" t="s">
         <v>63</v>
@@ -5617,7 +5617,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="38" t="s">
         <v>62</v>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="38" t="s">
         <v>65</v>
@@ -5690,7 +5690,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="38" t="s">
         <v>66</v>
@@ -5723,7 +5723,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="38"/>
       <c r="C31" s="19">
@@ -5754,7 +5754,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="38"/>
       <c r="C32" s="19">
@@ -5785,7 +5785,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="38" t="s">
         <v>67</v>
@@ -5818,7 +5818,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="38"/>
       <c r="C34" s="19">
@@ -5849,7 +5849,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="38"/>
       <c r="C35" s="19">
@@ -5880,7 +5880,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="38"/>
       <c r="C36" s="19">
@@ -5911,7 +5911,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="38" t="str">
         <f>B19</f>
@@ -5952,14 +5952,14 @@
       </c>
       <c r="P37" s="61">
         <f>F48+F49</f>
-        <v>10.145185185185184</v>
+        <v>8.6281481481481475</v>
       </c>
       <c r="Q37" s="62" t="e">
         <f>SUM(N37:P37)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="38"/>
       <c r="C38" s="19">
@@ -5994,7 +5994,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="38" t="s">
         <v>54</v>
@@ -6028,7 +6028,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="38"/>
       <c r="C40" s="19">
@@ -6060,7 +6060,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="38" t="s">
         <v>60</v>
@@ -6093,7 +6093,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="38"/>
       <c r="C42" s="19">
@@ -6124,7 +6124,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="38"/>
       <c r="C43" s="19">
@@ -6155,7 +6155,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="38"/>
       <c r="C44" s="19">
@@ -6186,7 +6186,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="38"/>
       <c r="C45" s="19">
@@ -6217,7 +6217,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="38"/>
       <c r="C46" s="19">
@@ -6248,7 +6248,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="38" t="s">
         <v>59</v>
@@ -6282,7 +6282,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="38" t="s">
         <v>54</v>
@@ -6316,7 +6316,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
       <c r="B49" s="38"/>
       <c r="C49" s="19">
@@ -6324,8 +6324,8 @@
         <v>12</v>
       </c>
       <c r="D49" s="20">
-        <f>(0.23*4+0.075*2)</f>
-        <v>1.07</v>
+        <f>(0.15*4+0.075*2)</f>
+        <v>0.75</v>
       </c>
       <c r="E49" s="21">
         <f t="shared" si="7"/>
@@ -6333,11 +6333,11 @@
       </c>
       <c r="F49" s="40">
         <f>PRODUCT(C49:E49)</f>
-        <v>5.0725925925925921</v>
+        <v>3.5555555555555554</v>
       </c>
       <c r="G49" s="40">
         <f t="shared" si="9"/>
-        <v>5.0725925925925921E-3</v>
+        <v>3.5555555555555553E-3</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="23"/>
@@ -6348,7 +6348,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
       <c r="B50" s="38" t="s">
         <v>39</v>
@@ -6359,7 +6359,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="23">
         <f>SUM(G26:G49)</f>
-        <v>0.99755453418673168</v>
+        <v>0.99603749714969458</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>58</v>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="J50" s="42">
         <f>G50*I50</f>
-        <v>131617.34524059738</v>
+        <v>131417.1873739307</v>
       </c>
       <c r="K50" s="21"/>
       <c r="M50" s="1"/>
@@ -6377,7 +6377,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="38" t="s">
         <v>37</v>
@@ -6391,7 +6391,7 @@
       <c r="I51" s="23"/>
       <c r="J51" s="42">
         <f>0.13*G50*106200</f>
-        <v>13772.237898982017</v>
+        <v>13751.293685648683</v>
       </c>
       <c r="K51" s="21"/>
       <c r="M51" s="1"/>
@@ -6399,7 +6399,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="38"/>
       <c r="C52" s="19"/>
@@ -6416,7 +6416,7 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>4</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="B54" s="24"/>
       <c r="C54" s="19"/>
@@ -6466,7 +6466,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="43" t="s">
         <v>17</v>
@@ -6480,11 +6480,11 @@
       <c r="I55" s="42"/>
       <c r="J55" s="42">
         <f>SUM(J9:J53)</f>
-        <v>352237.30428883055</v>
+        <v>352016.20220883057</v>
       </c>
       <c r="K55" s="37"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="55"/>
       <c r="B56" s="58"/>
       <c r="C56" s="59"/>
@@ -6497,16 +6497,16 @@
       <c r="J56" s="57"/>
       <c r="K56" s="54"/>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47"/>
       <c r="B57" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="70">
+      <c r="C57" s="64">
         <f>J55</f>
-        <v>352237.30428883055</v>
-      </c>
-      <c r="D57" s="70"/>
+        <v>352016.20220883057</v>
+      </c>
+      <c r="D57" s="64"/>
       <c r="E57" s="40">
         <v>100</v>
       </c>
@@ -6517,15 +6517,15 @@
       <c r="J57" s="51"/>
       <c r="K57" s="52"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="53"/>
       <c r="B58" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="73">
+      <c r="C58" s="67">
         <v>300000</v>
       </c>
-      <c r="D58" s="73"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="40"/>
       <c r="F58" s="46"/>
       <c r="G58" s="45"/>
@@ -6534,19 +6534,19 @@
       <c r="J58" s="45"/>
       <c r="K58" s="46"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="53"/>
       <c r="B59" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="73">
+      <c r="C59" s="67">
         <f>C58-C61-C62</f>
         <v>285000</v>
       </c>
-      <c r="D59" s="73"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="40">
         <f>C59/C57*100</f>
-        <v>80.91136189433908</v>
+        <v>80.962182482420573</v>
       </c>
       <c r="F59" s="46"/>
       <c r="G59" s="45"/>
@@ -6555,19 +6555,19 @@
       <c r="J59" s="45"/>
       <c r="K59" s="46"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="53"/>
       <c r="B60" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="70">
+      <c r="C60" s="64">
         <f>C57-C59</f>
-        <v>67237.30428883055</v>
-      </c>
-      <c r="D60" s="70"/>
+        <v>67016.202208830568</v>
+      </c>
+      <c r="D60" s="64"/>
       <c r="E60" s="40">
         <f>100-E59</f>
-        <v>19.08863810566092</v>
+        <v>19.037817517579427</v>
       </c>
       <c r="F60" s="46"/>
       <c r="G60" s="45"/>
@@ -6576,16 +6576,16 @@
       <c r="J60" s="45"/>
       <c r="K60" s="46"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="53"/>
       <c r="B61" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="70">
+      <c r="C61" s="64">
         <f>C58*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D61" s="70"/>
+      <c r="D61" s="64"/>
       <c r="E61" s="40">
         <v>3</v>
       </c>
@@ -6596,16 +6596,16 @@
       <c r="J61" s="45"/>
       <c r="K61" s="46"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="53"/>
       <c r="B62" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="70">
+      <c r="C62" s="64">
         <f>C58*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D62" s="70"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="40">
         <v>2</v>
       </c>
@@ -6616,7 +6616,7 @@
       <c r="J62" s="45"/>
       <c r="K62" s="46"/>
     </row>
-    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="54"/>
       <c r="B63" s="54"/>
       <c r="C63" s="54"/>
@@ -6629,7 +6629,1734 @@
       <c r="J63" s="54"/>
       <c r="K63" s="54"/>
     </row>
-    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Milan Phuyal&amp;RApproved By:
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="21"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E10" s="21">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="40">
+        <f>PRODUCT(C10:F10)</f>
+        <v>7.0599419728506199</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G11" s="40">
+        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
+        <v>1.0318805242304177</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="19">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20">
+        <f>18.75/3.281</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="0"/>
+        <v>0.90692624199939043</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="21"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23">
+        <f>SUM(G10:G13)</f>
+        <v>9.0527487390804282</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="23">
+        <v>13568.9</v>
+      </c>
+      <c r="J14" s="42">
+        <f>G14*I14</f>
+        <v>122835.84236570842</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="42">
+        <f>0.13*G14*9524.2</f>
+        <v>11208.624640297478</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>2</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="38" t="str">
+        <f>B10</f>
+        <v>-slab</v>
+      </c>
+      <c r="C18" s="19">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E18" s="21">
+        <f>E10</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="40">
+        <f>PRODUCT(C18:F18)</f>
+        <v>56.479535782804959</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="38" t="str">
+        <f>B11</f>
+        <v>-beam</v>
+      </c>
+      <c r="C19" s="19">
+        <f>C11</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="20">
+        <f>D11</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21">
+        <f>F11*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G19" s="40">
+        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
+        <v>8.9728741237427609</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="19">
+        <f>C12</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="20">
+        <f>D12</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <f>F12*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G20" s="40">
+        <f t="shared" si="1"/>
+        <v>7.8863151478207856</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="38" t="str">
+        <f>B13</f>
+        <v>-column</v>
+      </c>
+      <c r="C21" s="19">
+        <f>C13</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="20">
+        <f>D13*4</f>
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21">
+        <f>F13</f>
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="40">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23">
+        <f>SUM(G18:G21)</f>
+        <v>74.058725054368495</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="23">
+        <v>915.42</v>
+      </c>
+      <c r="J22" s="42">
+        <f>G22*I22</f>
+        <v>67794.838089270008</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="42">
+        <f>0.13*G22*46827.87/100</f>
+        <v>4508.4160539752247</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>3</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="19">
+        <f>5+5+7+7</f>
+        <v>24</v>
+      </c>
+      <c r="D26" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E26" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F26" s="40">
+        <f>PRODUCT(C26:E26)</f>
+        <v>92.474065043403641</v>
+      </c>
+      <c r="G26" s="40">
+        <f t="shared" ref="G26:G38" si="2">F26/1000</f>
+        <v>9.2474065043403636E-2</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="19">
+        <f>29+5+5</f>
+        <v>39</v>
+      </c>
+      <c r="D27" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" ref="E27:E36" si="3">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" ref="F27:F38" si="4">PRODUCT(C27:E27)</f>
+        <v>150.27035569553092</v>
+      </c>
+      <c r="G27" s="40">
+        <f t="shared" si="2"/>
+        <v>0.15027035569553093</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="19">
+        <f>58+5+6</f>
+        <v>69</v>
+      </c>
+      <c r="D28" s="20">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F28" s="40">
+        <f t="shared" si="4"/>
+        <v>157.85611884362262</v>
+      </c>
+      <c r="G28" s="40">
+        <f t="shared" si="2"/>
+        <v>0.15785611884362263</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="61">
+        <f>SUM(F26:F36)</f>
+        <v>551.40551096662023</v>
+      </c>
+      <c r="O28" s="61" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="19">
+        <v>30</v>
+      </c>
+      <c r="D29" s="20">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F29" s="40">
+        <f t="shared" si="4"/>
+        <v>68.633095149401143</v>
+      </c>
+      <c r="G29" s="40">
+        <f t="shared" si="2"/>
+        <v>6.8633095149401149E-2</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="19">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20">
+        <f>7.083/3.281</f>
+        <v>2.1587930508991162</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F30" s="40">
+        <f t="shared" si="4"/>
+        <v>12.7928477090318</v>
+      </c>
+      <c r="G30" s="40">
+        <f t="shared" si="2"/>
+        <v>1.27928477090318E-2</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="19">
+        <v>15</v>
+      </c>
+      <c r="D31" s="20">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="4"/>
+        <v>11.739871538713354</v>
+      </c>
+      <c r="G31" s="40">
+        <f t="shared" si="2"/>
+        <v>1.1739871538713354E-2</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="19">
+        <v>15</v>
+      </c>
+      <c r="D32" s="20">
+        <f>6.33/3.281</f>
+        <v>1.929289850655288</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="4"/>
+        <v>11.432828744623929</v>
+      </c>
+      <c r="G32" s="40">
+        <f t="shared" si="2"/>
+        <v>1.1432828744623929E-2</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="19">
+        <v>15</v>
+      </c>
+      <c r="D33" s="20">
+        <f>6.917/3.281</f>
+        <v>2.1081987199024685</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" si="4"/>
+        <v>12.493029451273888</v>
+      </c>
+      <c r="G33" s="40">
+        <f t="shared" si="2"/>
+        <v>1.2493029451273887E-2</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="19">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" si="4"/>
+        <v>10.98671362615282</v>
+      </c>
+      <c r="G34" s="40">
+        <f t="shared" si="2"/>
+        <v>1.0986713626152821E-2</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="19">
+        <v>15</v>
+      </c>
+      <c r="D35" s="20">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" si="4"/>
+        <v>10.98671362615282</v>
+      </c>
+      <c r="G35" s="40">
+        <f t="shared" si="2"/>
+        <v>1.0986713626152821E-2</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="19">
+        <v>15</v>
+      </c>
+      <c r="D36" s="20">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="4"/>
+        <v>11.739871538713354</v>
+      </c>
+      <c r="G36" s="40">
+        <f t="shared" si="2"/>
+        <v>1.1739871538713354E-2</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="38" t="str">
+        <f>B19</f>
+        <v>-beam</v>
+      </c>
+      <c r="C37" s="19">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D37" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E37" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" si="4"/>
+        <v>86.69443597819091</v>
+      </c>
+      <c r="G37" s="40">
+        <f t="shared" si="2"/>
+        <v>8.6694435978190904E-2</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="21"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="61" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O37" s="61">
+        <f>F39+F40</f>
+        <v>99.566031133236237</v>
+      </c>
+      <c r="P37" s="61">
+        <f>F48+F49</f>
+        <v>8.6281481481481475</v>
+      </c>
+      <c r="Q37" s="62" t="e">
+        <f>SUM(N37:P37)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="19">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D38" s="20">
+        <f>E10</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E38" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" si="4"/>
+        <v>61.76978563446103</v>
+      </c>
+      <c r="G38" s="40">
+        <f t="shared" si="2"/>
+        <v>6.1769785634461033E-2</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="21"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="61" t="e">
+        <f>SUM(F37+F38+F41+F42+#REF!+F47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="19">
+        <f>60*2</f>
+        <v>120</v>
+      </c>
+      <c r="D39" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" ref="E39:E49" si="5">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F39" s="40">
+        <f>PRODUCT(C39:E39)</f>
+        <v>52.403174280650653</v>
+      </c>
+      <c r="G39" s="40">
+        <f>F39/1000</f>
+        <v>5.2403174280650652E-2</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="19">
+        <f>36*3</f>
+        <v>108</v>
+      </c>
+      <c r="D40" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F40" s="40">
+        <f>PRODUCT(C40:E40)</f>
+        <v>47.162856852585584</v>
+      </c>
+      <c r="G40" s="40">
+        <f>F40/1000</f>
+        <v>4.7162856852585582E-2</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="21"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="19">
+        <v>6</v>
+      </c>
+      <c r="D41" s="20">
+        <f>7.75/3.281</f>
+        <v>2.3620847302651629</v>
+      </c>
+      <c r="E41" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F41" s="40">
+        <f t="shared" ref="F41:F47" si="6">PRODUCT(C41:E41)</f>
+        <v>12.597785228080866</v>
+      </c>
+      <c r="G41" s="40">
+        <f t="shared" ref="G41:G49" si="7">F41/1000</f>
+        <v>1.2597785228080867E-2</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="21"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20">
+        <f>8.667/3.281</f>
+        <v>2.6415726912526667</v>
+      </c>
+      <c r="E42" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F42" s="40">
+        <f t="shared" si="6"/>
+        <v>2.3480646144468147</v>
+      </c>
+      <c r="G42" s="40">
+        <f t="shared" si="7"/>
+        <v>2.3480646144468146E-3</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="21"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="20">
+        <f>D38</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E43" s="21">
+        <f t="shared" ref="E43:E47" si="8">12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F43" s="40">
+        <f t="shared" si="6"/>
+        <v>5.1474821362050855</v>
+      </c>
+      <c r="G43" s="40">
+        <f t="shared" si="7"/>
+        <v>5.1474821362050855E-3</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="21"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20">
+        <f>7.667/3.281</f>
+        <v>2.3367875647668392</v>
+      </c>
+      <c r="E44" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F44" s="40">
+        <f t="shared" si="6"/>
+        <v>2.0771445020149679</v>
+      </c>
+      <c r="G44" s="40">
+        <f t="shared" si="7"/>
+        <v>2.0771445020149677E-3</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="21"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="19">
+        <v>2</v>
+      </c>
+      <c r="D45" s="20">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E45" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F45" s="40">
+        <f t="shared" si="6"/>
+        <v>4.8765620237732401</v>
+      </c>
+      <c r="G45" s="40">
+        <f t="shared" si="7"/>
+        <v>4.8765620237732404E-3</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="21"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="19">
+        <v>2</v>
+      </c>
+      <c r="D46" s="20">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E46" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F46" s="40">
+        <f t="shared" si="6"/>
+        <v>4.8765620237732401</v>
+      </c>
+      <c r="G46" s="40">
+        <f t="shared" si="7"/>
+        <v>4.8765620237732404E-3</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="21"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="19">
+        <f>6*8</f>
+        <v>48</v>
+      </c>
+      <c r="D47" s="20">
+        <f>12/3.281</f>
+        <v>3.6574215178299299</v>
+      </c>
+      <c r="E47" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F47" s="40">
+        <f t="shared" si="6"/>
+        <v>156.04998476074368</v>
+      </c>
+      <c r="G47" s="40">
+        <f t="shared" si="7"/>
+        <v>0.15604998476074369</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="21"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D48" s="20">
+        <f>(0.23*4+0.075*2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="E48" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F48" s="40">
+        <f>PRODUCT(C48:E48)</f>
+        <v>5.0725925925925921</v>
+      </c>
+      <c r="G48" s="40">
+        <f t="shared" si="7"/>
+        <v>5.0725925925925921E-3</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="21"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D49" s="20">
+        <f>(0.15*4+0.075*2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E49" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F49" s="40">
+        <f>PRODUCT(C49:E49)</f>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="G49" s="40">
+        <f t="shared" si="7"/>
+        <v>3.5555555555555553E-3</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="21"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="23">
+        <f>SUM(G26:G49)</f>
+        <v>0.99603749714969458</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="23">
+        <v>131940</v>
+      </c>
+      <c r="J50" s="42">
+        <f>G50*I50</f>
+        <v>131417.1873739307</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="42">
+        <f>0.13*G50*106200</f>
+        <v>13751.293685648683</v>
+      </c>
+      <c r="K51" s="21"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="21"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
+        <v>4</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="19">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="33">
+        <f t="shared" ref="G53" si="9">PRODUCT(C53:F53)</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="23">
+        <v>500</v>
+      </c>
+      <c r="J53" s="33">
+        <f>G53*I53</f>
+        <v>500</v>
+      </c>
+      <c r="K53" s="21"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="21"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="41"/>
+      <c r="B55" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="44"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42">
+        <f>SUM(J9:J53)</f>
+        <v>352016.20220883057</v>
+      </c>
+      <c r="K55" s="37"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="55"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="54"/>
+    </row>
+    <row r="57" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="47"/>
+      <c r="B57" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="64">
+        <f>J55</f>
+        <v>352016.20220883057</v>
+      </c>
+      <c r="D57" s="64"/>
+      <c r="E57" s="40">
+        <v>100</v>
+      </c>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="52"/>
+    </row>
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="53"/>
+      <c r="B58" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="67">
+        <v>300000</v>
+      </c>
+      <c r="D58" s="67"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="46"/>
+    </row>
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="53"/>
+      <c r="B59" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="67">
+        <f>C58-C61-C62</f>
+        <v>285000</v>
+      </c>
+      <c r="D59" s="67"/>
+      <c r="E59" s="40">
+        <f>C59/C57*100</f>
+        <v>80.962182482420573</v>
+      </c>
+      <c r="F59" s="46"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="46"/>
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="53"/>
+      <c r="B60" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="64">
+        <f>C57-C59</f>
+        <v>67016.202208830568</v>
+      </c>
+      <c r="D60" s="64"/>
+      <c r="E60" s="40">
+        <f>100-E59</f>
+        <v>19.037817517579427</v>
+      </c>
+      <c r="F60" s="46"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="46"/>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="53"/>
+      <c r="B61" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="64">
+        <f>C58*0.03</f>
+        <v>9000</v>
+      </c>
+      <c r="D61" s="64"/>
+      <c r="E61" s="40">
+        <v>3</v>
+      </c>
+      <c r="F61" s="46"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="46"/>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="53"/>
+      <c r="B62" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="64">
+        <f>C58*0.02</f>
+        <v>6000</v>
+      </c>
+      <c r="D62" s="64"/>
+      <c r="E62" s="40">
+        <v>2</v>
+      </c>
+      <c r="F62" s="46"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="46"/>
+    </row>
+    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+    </row>
+    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="C61:D61"/>
@@ -6657,1731 +8384,4 @@
 Er. Prakash Singh Saud</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="21"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="19">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E10" s="21">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.125</v>
-      </c>
-      <c r="G10" s="40">
-        <f>PRODUCT(C10:F10)</f>
-        <v>7.0599419728506199</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="19">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="G11" s="40">
-        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
-        <v>1.0318805242304177</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="19">
-        <v>3</v>
-      </c>
-      <c r="D12" s="20">
-        <f>18.75/3.281</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="G12" s="40">
-        <f t="shared" si="0"/>
-        <v>0.90692624199939043</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="40">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23">
-        <f>SUM(G10:G13)</f>
-        <v>9.0527487390804282</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="23">
-        <v>13568.9</v>
-      </c>
-      <c r="J14" s="42">
-        <f>G14*I14</f>
-        <v>122835.84236570842</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="42">
-        <f>0.13*G14*9524.2</f>
-        <v>11208.624640297478</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="21"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>2</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="21"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="38" t="str">
-        <f>B10</f>
-        <v>-slab</v>
-      </c>
-      <c r="C18" s="19">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <f>D10</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E18" s="21">
-        <f>E10</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="40">
-        <f>PRODUCT(C18:F18)</f>
-        <v>56.479535782804959</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="38" t="str">
-        <f>B11</f>
-        <v>-beam</v>
-      </c>
-      <c r="C19" s="19">
-        <f>C11</f>
-        <v>2</v>
-      </c>
-      <c r="D19" s="20">
-        <f>D11</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21">
-        <f>F11*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G19" s="40">
-        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
-        <v>8.9728741237427609</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="19">
-        <f>C12</f>
-        <v>3</v>
-      </c>
-      <c r="D20" s="20">
-        <f>D12</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <f>F12*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G20" s="40">
-        <f t="shared" si="1"/>
-        <v>7.8863151478207856</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="38" t="str">
-        <f>B13</f>
-        <v>-column</v>
-      </c>
-      <c r="C21" s="19">
-        <f>C13</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="20">
-        <f>D13*4</f>
-        <v>1.2</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21">
-        <f>F13</f>
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="40">
-        <f t="shared" si="1"/>
-        <v>0.72</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="21"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="23">
-        <f>SUM(G18:G21)</f>
-        <v>74.058725054368495</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="23">
-        <v>915.42</v>
-      </c>
-      <c r="J22" s="42">
-        <f>G22*I22</f>
-        <v>67794.838089270008</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="42">
-        <f>0.13*G22*46827.87/100</f>
-        <v>4508.4160539752247</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
-        <v>3</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="19">
-        <f>5+5+7+7</f>
-        <v>24</v>
-      </c>
-      <c r="D26" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E26" s="21">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F26" s="40">
-        <f>PRODUCT(C26:E26)</f>
-        <v>92.474065043403641</v>
-      </c>
-      <c r="G26" s="40">
-        <f t="shared" ref="G26:G38" si="2">F26/1000</f>
-        <v>9.2474065043403636E-2</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="21"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="19">
-        <f>29+5+5</f>
-        <v>39</v>
-      </c>
-      <c r="D27" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E27" s="21">
-        <f t="shared" ref="E27:E36" si="3">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F27" s="40">
-        <f t="shared" ref="F27:F38" si="4">PRODUCT(C27:E27)</f>
-        <v>150.27035569553092</v>
-      </c>
-      <c r="G27" s="40">
-        <f t="shared" si="2"/>
-        <v>0.15027035569553093</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="21"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="19">
-        <f>58+5+6</f>
-        <v>69</v>
-      </c>
-      <c r="D28" s="20">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F28" s="40">
-        <f t="shared" si="4"/>
-        <v>157.85611884362262</v>
-      </c>
-      <c r="G28" s="40">
-        <f t="shared" si="2"/>
-        <v>0.15785611884362263</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="21"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="61">
-        <f>SUM(F26:F36)</f>
-        <v>551.40551096662023</v>
-      </c>
-      <c r="O28" s="61" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="19">
-        <v>30</v>
-      </c>
-      <c r="D29" s="20">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E29" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F29" s="40">
-        <f t="shared" si="4"/>
-        <v>68.633095149401143</v>
-      </c>
-      <c r="G29" s="40">
-        <f t="shared" si="2"/>
-        <v>6.8633095149401149E-2</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="21"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="19">
-        <v>15</v>
-      </c>
-      <c r="D30" s="20">
-        <f>7.083/3.281</f>
-        <v>2.1587930508991162</v>
-      </c>
-      <c r="E30" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F30" s="40">
-        <f t="shared" si="4"/>
-        <v>12.7928477090318</v>
-      </c>
-      <c r="G30" s="40">
-        <f t="shared" si="2"/>
-        <v>1.27928477090318E-2</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="19">
-        <v>15</v>
-      </c>
-      <c r="D31" s="20">
-        <f>6.5/3.281</f>
-        <v>1.9811033221578787</v>
-      </c>
-      <c r="E31" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F31" s="40">
-        <f t="shared" si="4"/>
-        <v>11.739871538713354</v>
-      </c>
-      <c r="G31" s="40">
-        <f t="shared" si="2"/>
-        <v>1.1739871538713354E-2</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="21"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="19">
-        <v>15</v>
-      </c>
-      <c r="D32" s="20">
-        <f>6.33/3.281</f>
-        <v>1.929289850655288</v>
-      </c>
-      <c r="E32" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F32" s="40">
-        <f t="shared" si="4"/>
-        <v>11.432828744623929</v>
-      </c>
-      <c r="G32" s="40">
-        <f t="shared" si="2"/>
-        <v>1.1432828744623929E-2</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="21"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="19">
-        <v>15</v>
-      </c>
-      <c r="D33" s="20">
-        <f>6.917/3.281</f>
-        <v>2.1081987199024685</v>
-      </c>
-      <c r="E33" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F33" s="40">
-        <f t="shared" si="4"/>
-        <v>12.493029451273888</v>
-      </c>
-      <c r="G33" s="40">
-        <f t="shared" si="2"/>
-        <v>1.2493029451273887E-2</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="21"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="19">
-        <v>15</v>
-      </c>
-      <c r="D34" s="20">
-        <f>6.083/3.281</f>
-        <v>1.8540079244132885</v>
-      </c>
-      <c r="E34" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F34" s="40">
-        <f t="shared" si="4"/>
-        <v>10.98671362615282</v>
-      </c>
-      <c r="G34" s="40">
-        <f t="shared" si="2"/>
-        <v>1.0986713626152821E-2</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="21"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="19">
-        <v>15</v>
-      </c>
-      <c r="D35" s="20">
-        <f>6.083/3.281</f>
-        <v>1.8540079244132885</v>
-      </c>
-      <c r="E35" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F35" s="40">
-        <f t="shared" si="4"/>
-        <v>10.98671362615282</v>
-      </c>
-      <c r="G35" s="40">
-        <f t="shared" si="2"/>
-        <v>1.0986713626152821E-2</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="21"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="19">
-        <v>15</v>
-      </c>
-      <c r="D36" s="20">
-        <f>6.5/3.281</f>
-        <v>1.9811033221578787</v>
-      </c>
-      <c r="E36" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F36" s="40">
-        <f t="shared" si="4"/>
-        <v>11.739871538713354</v>
-      </c>
-      <c r="G36" s="40">
-        <f t="shared" si="2"/>
-        <v>1.1739871538713354E-2</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="21"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="38" t="str">
-        <f>B19</f>
-        <v>-beam</v>
-      </c>
-      <c r="C37" s="19">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="D37" s="20">
-        <f>D10</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E37" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F37" s="40">
-        <f t="shared" si="4"/>
-        <v>86.69443597819091</v>
-      </c>
-      <c r="G37" s="40">
-        <f t="shared" si="2"/>
-        <v>8.6694435978190904E-2</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="21"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="61" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O37" s="61">
-        <f>F39+F40</f>
-        <v>99.566031133236237</v>
-      </c>
-      <c r="P37" s="61">
-        <f>F48+F49</f>
-        <v>10.145185185185184</v>
-      </c>
-      <c r="Q37" s="62" t="e">
-        <f>SUM(N37:P37)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="19">
-        <f>3*4</f>
-        <v>12</v>
-      </c>
-      <c r="D38" s="20">
-        <f>E10</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E38" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F38" s="40">
-        <f t="shared" si="4"/>
-        <v>61.76978563446103</v>
-      </c>
-      <c r="G38" s="40">
-        <f t="shared" si="2"/>
-        <v>6.1769785634461033E-2</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="21"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="61" t="e">
-        <f>SUM(F37+F38+F41+F42+#REF!+F47)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="19">
-        <f>60*2</f>
-        <v>120</v>
-      </c>
-      <c r="D39" s="20">
-        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
-        <v>1.1053794574824747</v>
-      </c>
-      <c r="E39" s="21">
-        <f t="shared" ref="E39:E49" si="5">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F39" s="40">
-        <f>PRODUCT(C39:E39)</f>
-        <v>52.403174280650653</v>
-      </c>
-      <c r="G39" s="40">
-        <f>F39/1000</f>
-        <v>5.2403174280650652E-2</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="21"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="19">
-        <f>36*3</f>
-        <v>108</v>
-      </c>
-      <c r="D40" s="20">
-        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
-        <v>1.1053794574824747</v>
-      </c>
-      <c r="E40" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F40" s="40">
-        <f>PRODUCT(C40:E40)</f>
-        <v>47.162856852585584</v>
-      </c>
-      <c r="G40" s="40">
-        <f>F40/1000</f>
-        <v>4.7162856852585582E-2</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="21"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="19">
-        <v>6</v>
-      </c>
-      <c r="D41" s="20">
-        <f>7.75/3.281</f>
-        <v>2.3620847302651629</v>
-      </c>
-      <c r="E41" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F41" s="40">
-        <f t="shared" ref="F41:F47" si="6">PRODUCT(C41:E41)</f>
-        <v>12.597785228080866</v>
-      </c>
-      <c r="G41" s="40">
-        <f t="shared" ref="G41:G49" si="7">F41/1000</f>
-        <v>1.2597785228080867E-2</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="21"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="19">
-        <v>1</v>
-      </c>
-      <c r="D42" s="20">
-        <f>8.667/3.281</f>
-        <v>2.6415726912526667</v>
-      </c>
-      <c r="E42" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F42" s="40">
-        <f t="shared" si="6"/>
-        <v>2.3480646144468147</v>
-      </c>
-      <c r="G42" s="40">
-        <f t="shared" si="7"/>
-        <v>2.3480646144468146E-3</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="21"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="19">
-        <v>1</v>
-      </c>
-      <c r="D43" s="20">
-        <f>D38</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E43" s="21">
-        <f t="shared" ref="E43:E47" si="8">12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F43" s="40">
-        <f t="shared" si="6"/>
-        <v>5.1474821362050855</v>
-      </c>
-      <c r="G43" s="40">
-        <f t="shared" si="7"/>
-        <v>5.1474821362050855E-3</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="21"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="19">
-        <v>1</v>
-      </c>
-      <c r="D44" s="20">
-        <f>7.667/3.281</f>
-        <v>2.3367875647668392</v>
-      </c>
-      <c r="E44" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F44" s="40">
-        <f t="shared" si="6"/>
-        <v>2.0771445020149679</v>
-      </c>
-      <c r="G44" s="40">
-        <f t="shared" si="7"/>
-        <v>2.0771445020149677E-3</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="21"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="19">
-        <v>2</v>
-      </c>
-      <c r="D45" s="20">
-        <f>9/3.281</f>
-        <v>2.7430661383724475</v>
-      </c>
-      <c r="E45" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F45" s="40">
-        <f t="shared" si="6"/>
-        <v>4.8765620237732401</v>
-      </c>
-      <c r="G45" s="40">
-        <f t="shared" si="7"/>
-        <v>4.8765620237732404E-3</v>
-      </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="21"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="19">
-        <v>2</v>
-      </c>
-      <c r="D46" s="20">
-        <f>9/3.281</f>
-        <v>2.7430661383724475</v>
-      </c>
-      <c r="E46" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F46" s="40">
-        <f t="shared" si="6"/>
-        <v>4.8765620237732401</v>
-      </c>
-      <c r="G46" s="40">
-        <f t="shared" si="7"/>
-        <v>4.8765620237732404E-3</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="21"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="19">
-        <f>6*8</f>
-        <v>48</v>
-      </c>
-      <c r="D47" s="20">
-        <f>12/3.281</f>
-        <v>3.6574215178299299</v>
-      </c>
-      <c r="E47" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F47" s="40">
-        <f t="shared" si="6"/>
-        <v>156.04998476074368</v>
-      </c>
-      <c r="G47" s="40">
-        <f t="shared" si="7"/>
-        <v>0.15604998476074369</v>
-      </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="21"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="19">
-        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
-        <v>12</v>
-      </c>
-      <c r="D48" s="20">
-        <f>(0.23*4+0.075*2)</f>
-        <v>1.07</v>
-      </c>
-      <c r="E48" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F48" s="40">
-        <f>PRODUCT(C48:E48)</f>
-        <v>5.0725925925925921</v>
-      </c>
-      <c r="G48" s="40">
-        <f t="shared" si="7"/>
-        <v>5.0725925925925921E-3</v>
-      </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="21"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="19">
-        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
-        <v>12</v>
-      </c>
-      <c r="D49" s="20">
-        <f>(0.23*4+0.075*2)</f>
-        <v>1.07</v>
-      </c>
-      <c r="E49" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F49" s="40">
-        <f>PRODUCT(C49:E49)</f>
-        <v>5.0725925925925921</v>
-      </c>
-      <c r="G49" s="40">
-        <f t="shared" si="7"/>
-        <v>5.0725925925925921E-3</v>
-      </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="21"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="23">
-        <f>SUM(G26:G49)</f>
-        <v>0.99755453418673168</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I50" s="23">
-        <v>131940</v>
-      </c>
-      <c r="J50" s="42">
-        <f>G50*I50</f>
-        <v>131617.34524059738</v>
-      </c>
-      <c r="K50" s="21"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="42">
-        <f>0.13*G50*106200</f>
-        <v>13772.237898982017</v>
-      </c>
-      <c r="K51" s="21"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="21"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18">
-        <v>4</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="19">
-        <v>1</v>
-      </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="33">
-        <f t="shared" ref="G53" si="9">PRODUCT(C53:F53)</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" s="23">
-        <v>500</v>
-      </c>
-      <c r="J53" s="33">
-        <f>G53*I53</f>
-        <v>500</v>
-      </c>
-      <c r="K53" s="21"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="21"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42">
-        <f>SUM(J9:J53)</f>
-        <v>352237.30428883055</v>
-      </c>
-      <c r="K55" s="37"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="54"/>
-    </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="70">
-        <f>J55</f>
-        <v>352237.30428883055</v>
-      </c>
-      <c r="D57" s="70"/>
-      <c r="E57" s="40">
-        <v>100</v>
-      </c>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="52"/>
-    </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="73">
-        <v>300000</v>
-      </c>
-      <c r="D58" s="73"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="46"/>
-    </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="73">
-        <f>C58-C61-C62</f>
-        <v>285000</v>
-      </c>
-      <c r="D59" s="73"/>
-      <c r="E59" s="40">
-        <f>C59/C57*100</f>
-        <v>80.91136189433908</v>
-      </c>
-      <c r="F59" s="46"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="46"/>
-    </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="70">
-        <f>C57-C59</f>
-        <v>67237.30428883055</v>
-      </c>
-      <c r="D60" s="70"/>
-      <c r="E60" s="40">
-        <f>100-E59</f>
-        <v>19.08863810566092</v>
-      </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="46"/>
-    </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="70">
-        <f>C58*0.03</f>
-        <v>9000</v>
-      </c>
-      <c r="D61" s="70"/>
-      <c r="E61" s="40">
-        <v>3</v>
-      </c>
-      <c r="F61" s="46"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-    </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="70">
-        <f>C58*0.02</f>
-        <v>6000</v>
-      </c>
-      <c r="D62" s="70"/>
-      <c r="E62" s="40">
-        <v>2</v>
-      </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="46"/>
-    </row>
-    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-    </row>
-    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
+++ b/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
@@ -306,9 +306,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -506,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -655,16 +656,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -681,6 +672,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,20 +726,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1363,113 +1370,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
     </row>
     <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
     </row>
     <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2554,11 +2561,11 @@
       <c r="B47" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="64">
+      <c r="C47" s="70">
         <f>J45</f>
         <v>345993.93824887183</v>
       </c>
-      <c r="D47" s="64"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="40">
         <v>100</v>
       </c>
@@ -2574,10 +2581,10 @@
       <c r="B48" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="67">
+      <c r="C48" s="73">
         <v>300000</v>
       </c>
-      <c r="D48" s="67"/>
+      <c r="D48" s="73"/>
       <c r="E48" s="40"/>
       <c r="F48" s="46"/>
       <c r="G48" s="45"/>
@@ -2591,11 +2598,11 @@
       <c r="B49" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="67">
+      <c r="C49" s="73">
         <f>C48-C51-C52</f>
         <v>285000</v>
       </c>
-      <c r="D49" s="67"/>
+      <c r="D49" s="73"/>
       <c r="E49" s="40">
         <f>C49/C47*100</f>
         <v>82.371385302999386</v>
@@ -2612,11 +2619,11 @@
       <c r="B50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="64">
+      <c r="C50" s="70">
         <f>C47-C49</f>
         <v>60993.938248871826</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="40">
         <f>100-E49</f>
         <v>17.628614697000614</v>
@@ -2633,11 +2640,11 @@
       <c r="B51" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="64">
+      <c r="C51" s="70">
         <f>C48*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D51" s="64"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="40">
         <v>3</v>
       </c>
@@ -2653,11 +2660,11 @@
       <c r="B52" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="64">
+      <c r="C52" s="70">
         <f>C48*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D52" s="64"/>
+      <c r="D52" s="70"/>
       <c r="E52" s="40">
         <v>2</v>
       </c>
@@ -2739,13 +2746,6 @@
     <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A7:F7"/>
@@ -2754,6 +2754,13 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -2770,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2790,113 +2797,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
     </row>
     <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -3993,7 +4000,7 @@
       <c r="D43" s="20"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="23">
+      <c r="G43" s="89">
         <f>SUM(G26:G42)</f>
         <v>0.98799692415365681</v>
       </c>
@@ -4138,11 +4145,11 @@
       <c r="B50" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="64">
+      <c r="C50" s="70">
         <f>J48</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="40">
         <v>100</v>
       </c>
@@ -4158,10 +4165,10 @@
       <c r="B51" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="67">
+      <c r="C51" s="73">
         <v>300000</v>
       </c>
-      <c r="D51" s="67"/>
+      <c r="D51" s="73"/>
       <c r="E51" s="40"/>
       <c r="F51" s="46"/>
       <c r="G51" s="45"/>
@@ -4175,11 +4182,11 @@
       <c r="B52" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="67">
+      <c r="C52" s="73">
         <f>C51-C54-C55</f>
         <v>285000</v>
       </c>
-      <c r="D52" s="67"/>
+      <c r="D52" s="73"/>
       <c r="E52" s="40">
         <f>C52/C50*100</f>
         <v>82.792054089654883</v>
@@ -4196,11 +4203,11 @@
       <c r="B53" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="64">
+      <c r="C53" s="70">
         <f>C50-C52</f>
         <v>59235.93318674725</v>
       </c>
-      <c r="D53" s="64"/>
+      <c r="D53" s="70"/>
       <c r="E53" s="40">
         <f>100-E52</f>
         <v>17.207945910345117</v>
@@ -4217,11 +4224,11 @@
       <c r="B54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="64">
+      <c r="C54" s="70">
         <f>C51*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D54" s="64"/>
+      <c r="D54" s="70"/>
       <c r="E54" s="40">
         <v>3</v>
       </c>
@@ -4237,11 +4244,11 @@
       <c r="B55" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="64">
+      <c r="C55" s="70">
         <f>C51*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D55" s="64"/>
+      <c r="D55" s="70"/>
       <c r="E55" s="40">
         <v>2</v>
       </c>
@@ -4323,6 +4330,13 @@
     <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A7:F7"/>
@@ -4331,6 +4345,2308 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Milan Phuyal&amp;RApproved By:
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="74">
+        <f>F24</f>
+        <v>344235.93318674725</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="74">
+        <f>I24</f>
+        <v>351068.54966387467</v>
+      </c>
+      <c r="K6" s="75"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="I7" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="str">
+        <f>'kalimasta mandir final (2)'!A6:F6</f>
+        <v>Project:- कालीमस्ट मन्दिर निर्माण</v>
+      </c>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="I8" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="84" t="str">
+        <f>'kalimasta mandir final (2)'!A7:F7</f>
+        <v>Location:- Shankharapur Municipality 9</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="I9" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="79"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <f>'kalimasta mandir final (2)'!A9</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="60" t="str">
+        <f>'kalimasta mandir final (2)'!B9</f>
+        <v>d]lzgsf] k|of]u u/L ;'k/ :6«Sr/df l;d]G6 s+lqm6 ug]{ sfd -!M!=%M#_</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>'kalimasta mandir final (2)'!H14</f>
+        <v>m3</v>
+      </c>
+      <c r="D13" s="12">
+        <f>'kalimasta mandir final (2)'!G14</f>
+        <v>8.7663771674602433</v>
+      </c>
+      <c r="E13" s="12">
+        <f>'kalimasta mandir final (2)'!I14</f>
+        <v>13568.9</v>
+      </c>
+      <c r="F13" s="12">
+        <f>D13*E13</f>
+        <v>118950.0951475513</v>
+      </c>
+      <c r="G13" s="12">
+        <f>valuated!G14</f>
+        <v>9.0527487390804282</v>
+      </c>
+      <c r="H13" s="12">
+        <f>valuated!I14</f>
+        <v>13568.9</v>
+      </c>
+      <c r="I13" s="12">
+        <f>G13*H13</f>
+        <v>122835.84236570842</v>
+      </c>
+      <c r="J13" s="28">
+        <f>I13-F13</f>
+        <v>3885.7472181571211</v>
+      </c>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="32" t="str">
+        <f>'kalimasta mandir final (2)'!B15</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
+        <f>'kalimasta mandir final (2)'!J15</f>
+        <v>10854.054824382232</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
+        <f>valuated!J15</f>
+        <v>11208.624640297478</v>
+      </c>
+      <c r="J14" s="28">
+        <f>I14-F14</f>
+        <v>354.56981591524527</v>
+      </c>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <f>'kalimasta mandir final (2)'!A17</f>
+        <v>2</v>
+      </c>
+      <c r="B16" s="60" t="str">
+        <f>'kalimasta mandir final (2)'!B17</f>
+        <v>kmnfd]sf] kfOk / KnfOaf]8{af6 kmdf{ agfpg] sfd</v>
+      </c>
+      <c r="C16" s="12" t="str">
+        <f>'kalimasta mandir final (2)'!H22</f>
+        <v>m3</v>
+      </c>
+      <c r="D16" s="12">
+        <f>'kalimasta mandir final (2)'!G22</f>
+        <v>71.633159369550881</v>
+      </c>
+      <c r="E16" s="12">
+        <f>'kalimasta mandir final (2)'!I22</f>
+        <v>915.42</v>
+      </c>
+      <c r="F16" s="12">
+        <f>D16*E16</f>
+        <v>65574.426750074272</v>
+      </c>
+      <c r="G16" s="12">
+        <f>valuated!G22</f>
+        <v>74.058725054368495</v>
+      </c>
+      <c r="H16" s="12">
+        <f>valuated!I22</f>
+        <v>915.42</v>
+      </c>
+      <c r="I16" s="12">
+        <f>G16*H16</f>
+        <v>67794.838089270008</v>
+      </c>
+      <c r="J16" s="28">
+        <f>I16-F16</f>
+        <v>2220.4113391957362</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="32" t="str">
+        <f>'kalimasta mandir final (2)'!B23</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
+        <f>'kalimasta mandir final (2)'!J23</f>
+        <v>4360.7567570405945</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <f>valuated!J23</f>
+        <v>4508.4160539752247</v>
+      </c>
+      <c r="J17" s="28">
+        <f>I17-F17</f>
+        <v>147.65929693463022</v>
+      </c>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <f>'kalimasta mandir final (2)'!A25</f>
+        <v>3</v>
+      </c>
+      <c r="B19" s="60" t="str">
+        <f>'kalimasta mandir final (2)'!B25</f>
+        <v>cf/=;L=;L= nflu kmnfd] 808L sf6\g], df]8\g] #) dL6/ ;Dd</v>
+      </c>
+      <c r="C19" s="12" t="str">
+        <f>'kalimasta mandir final (2)'!H43</f>
+        <v>MT</v>
+      </c>
+      <c r="D19" s="12">
+        <f>'kalimasta mandir final (2)'!G43</f>
+        <v>0.98799692415365681</v>
+      </c>
+      <c r="E19" s="12">
+        <f>'kalimasta mandir final (2)'!I43</f>
+        <v>131940</v>
+      </c>
+      <c r="F19" s="12">
+        <f>D19*E19</f>
+        <v>130356.31417283347</v>
+      </c>
+      <c r="G19" s="12">
+        <f>valuated!G50</f>
+        <v>0.9895354144513302</v>
+      </c>
+      <c r="H19" s="12">
+        <f>valuated!I50</f>
+        <v>131940</v>
+      </c>
+      <c r="I19" s="12">
+        <f>G19*H19</f>
+        <v>130559.30258270851</v>
+      </c>
+      <c r="J19" s="28">
+        <f>I19-F19</f>
+        <v>202.98840987503354</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="32" t="str">
+        <f>'kalimasta mandir final (2)'!B44</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12">
+        <f>'kalimasta mandir final (2)'!J44</f>
+        <v>13640.285534865385</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12">
+        <f>valuated!J51</f>
+        <v>13661.525931915065</v>
+      </c>
+      <c r="J20" s="28">
+        <f>I20-F20</f>
+        <v>21.240397049679814</v>
+      </c>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
+        <f>'kalimasta mandir final (2)'!A46</f>
+        <v>4</v>
+      </c>
+      <c r="B22" s="31" t="str">
+        <f>'kalimasta mandir final (2)'!B46</f>
+        <v>Information board (सुचना पाटि)</v>
+      </c>
+      <c r="C22" s="12" t="str">
+        <f>'kalimasta mandir final (2)'!H46</f>
+        <v>no.</v>
+      </c>
+      <c r="D22" s="12">
+        <f>'kalimasta mandir final (2)'!G46</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="12">
+        <f>'kalimasta mandir final (2)'!I46</f>
+        <v>500</v>
+      </c>
+      <c r="F22" s="12">
+        <f>D22*E22</f>
+        <v>500</v>
+      </c>
+      <c r="G22" s="12">
+        <f>valuated!G53</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <f>valuated!I53</f>
+        <v>500</v>
+      </c>
+      <c r="I22" s="12">
+        <f>G22*H22</f>
+        <v>500</v>
+      </c>
+      <c r="J22" s="28">
+        <f>I22-F22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
+        <f>SUM(F13:F22)</f>
+        <v>344235.93318674725</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
+        <f>SUM(I13:I22)</f>
+        <v>351068.54966387467</v>
+      </c>
+      <c r="J24" s="13">
+        <f>I24-F24</f>
+        <v>6832.6164771274198</v>
+      </c>
+      <c r="K24" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="21"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E10" s="21">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="40">
+        <f>PRODUCT(C10:F10)</f>
+        <v>7.0599419728506199</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G11" s="40">
+        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
+        <v>1.0318805242304177</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="19">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20">
+        <f>18.75/3.281</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="0"/>
+        <v>0.90692624199939043</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="21"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23">
+        <f>SUM(G10:G13)</f>
+        <v>9.0527487390804282</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="23">
+        <v>13568.9</v>
+      </c>
+      <c r="J14" s="42">
+        <f>G14*I14</f>
+        <v>122835.84236570842</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="42">
+        <f>0.13*G14*9524.2</f>
+        <v>11208.624640297478</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>2</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="38" t="str">
+        <f>B10</f>
+        <v>-slab</v>
+      </c>
+      <c r="C18" s="19">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E18" s="21">
+        <f>E10</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="40">
+        <f>PRODUCT(C18:F18)</f>
+        <v>56.479535782804959</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="38" t="str">
+        <f>B11</f>
+        <v>-beam</v>
+      </c>
+      <c r="C19" s="19">
+        <f>C11</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="20">
+        <f>D11</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21">
+        <f>F11*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G19" s="40">
+        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
+        <v>8.9728741237427609</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="19">
+        <f>C12</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="20">
+        <f>D12</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <f>F12*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G20" s="40">
+        <f t="shared" si="1"/>
+        <v>7.8863151478207856</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="38" t="str">
+        <f>B13</f>
+        <v>-column</v>
+      </c>
+      <c r="C21" s="19">
+        <f>C13</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="20">
+        <f>D13*4</f>
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21">
+        <f>F13</f>
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="40">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23">
+        <f>SUM(G18:G21)</f>
+        <v>74.058725054368495</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="23">
+        <v>915.42</v>
+      </c>
+      <c r="J22" s="42">
+        <f>G22*I22</f>
+        <v>67794.838089270008</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="42">
+        <f>0.13*G22*46827.87/100</f>
+        <v>4508.4160539752247</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>3</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="19">
+        <f>5+5+7+7</f>
+        <v>24</v>
+      </c>
+      <c r="D26" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E26" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F26" s="40">
+        <f>PRODUCT(C26:E26)</f>
+        <v>92.474065043403641</v>
+      </c>
+      <c r="G26" s="88">
+        <f t="shared" ref="G26:G36" si="2">F26/1000</f>
+        <v>9.2474065043403636E-2</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="19">
+        <f>29+5+5</f>
+        <v>39</v>
+      </c>
+      <c r="D27" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" ref="E27:E36" si="3">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" ref="F27:F36" si="4">PRODUCT(C27:E27)</f>
+        <v>150.27035569553092</v>
+      </c>
+      <c r="G27" s="88">
+        <f t="shared" si="2"/>
+        <v>0.15027035569553093</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="19">
+        <f>58+5+6</f>
+        <v>69</v>
+      </c>
+      <c r="D28" s="20">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F28" s="40">
+        <f t="shared" si="4"/>
+        <v>157.85611884362262</v>
+      </c>
+      <c r="G28" s="88">
+        <f t="shared" si="2"/>
+        <v>0.15785611884362263</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="61">
+        <f>SUM(F26:F36)</f>
+        <v>551.40551096662023</v>
+      </c>
+      <c r="O28" s="61" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="19">
+        <v>30</v>
+      </c>
+      <c r="D29" s="20">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F29" s="40">
+        <f t="shared" si="4"/>
+        <v>68.633095149401143</v>
+      </c>
+      <c r="G29" s="88">
+        <f t="shared" si="2"/>
+        <v>6.8633095149401149E-2</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="19">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20">
+        <f>7.083/3.281</f>
+        <v>2.1587930508991162</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F30" s="40">
+        <f t="shared" si="4"/>
+        <v>12.7928477090318</v>
+      </c>
+      <c r="G30" s="88">
+        <f t="shared" si="2"/>
+        <v>1.27928477090318E-2</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="19">
+        <v>15</v>
+      </c>
+      <c r="D31" s="20">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="4"/>
+        <v>11.739871538713354</v>
+      </c>
+      <c r="G31" s="88">
+        <f t="shared" si="2"/>
+        <v>1.1739871538713354E-2</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="19">
+        <v>15</v>
+      </c>
+      <c r="D32" s="20">
+        <f>6.33/3.281</f>
+        <v>1.929289850655288</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="4"/>
+        <v>11.432828744623929</v>
+      </c>
+      <c r="G32" s="88">
+        <f t="shared" si="2"/>
+        <v>1.1432828744623929E-2</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="19">
+        <v>15</v>
+      </c>
+      <c r="D33" s="20">
+        <f>6.917/3.281</f>
+        <v>2.1081987199024685</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" si="4"/>
+        <v>12.493029451273888</v>
+      </c>
+      <c r="G33" s="88">
+        <f t="shared" si="2"/>
+        <v>1.2493029451273887E-2</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="19">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" si="4"/>
+        <v>10.98671362615282</v>
+      </c>
+      <c r="G34" s="88">
+        <f t="shared" si="2"/>
+        <v>1.0986713626152821E-2</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="19">
+        <v>15</v>
+      </c>
+      <c r="D35" s="20">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" si="4"/>
+        <v>10.98671362615282</v>
+      </c>
+      <c r="G35" s="88">
+        <f t="shared" si="2"/>
+        <v>1.0986713626152821E-2</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="19">
+        <v>15</v>
+      </c>
+      <c r="D36" s="20">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="4"/>
+        <v>11.739871538713354</v>
+      </c>
+      <c r="G36" s="88">
+        <f t="shared" si="2"/>
+        <v>1.1739871538713354E-2</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="38" t="str">
+        <f>B19</f>
+        <v>-beam</v>
+      </c>
+      <c r="C37" s="19">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D37" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E37" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" ref="F37:F38" si="5">PRODUCT(C37:E37)</f>
+        <v>86.69443597819091</v>
+      </c>
+      <c r="G37" s="88">
+        <f t="shared" ref="G37:G38" si="6">F37/1000</f>
+        <v>8.6694435978190904E-2</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="21"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="61" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O37" s="61">
+        <f>F39+F40</f>
+        <v>99.566031133236237</v>
+      </c>
+      <c r="P37" s="61">
+        <f>F48+F49</f>
+        <v>8.6281481481481475</v>
+      </c>
+      <c r="Q37" s="62" t="e">
+        <f>SUM(N37:P37)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="19">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D38" s="20">
+        <f>E10</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E38" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" si="5"/>
+        <v>61.76978563446103</v>
+      </c>
+      <c r="G38" s="88">
+        <f t="shared" si="6"/>
+        <v>6.1769785634461033E-2</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="21"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="61" t="e">
+        <f>SUM(F37+F38+F41+F42+#REF!+F47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="19">
+        <f>60*2</f>
+        <v>120</v>
+      </c>
+      <c r="D39" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" ref="E39:E49" si="7">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F39" s="40">
+        <f>PRODUCT(C39:E39)</f>
+        <v>52.403174280650653</v>
+      </c>
+      <c r="G39" s="88">
+        <f>F39/1000</f>
+        <v>5.2403174280650652E-2</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="19">
+        <f>36*3</f>
+        <v>108</v>
+      </c>
+      <c r="D40" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" si="7"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F40" s="40">
+        <f>PRODUCT(C40:E40)</f>
+        <v>47.162856852585584</v>
+      </c>
+      <c r="G40" s="88">
+        <f>F40/1000</f>
+        <v>4.7162856852585582E-2</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="21"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="19">
+        <v>6</v>
+      </c>
+      <c r="D41" s="20">
+        <f>7.75/3.281</f>
+        <v>2.3620847302651629</v>
+      </c>
+      <c r="E41" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F41" s="40">
+        <f t="shared" ref="F41:F47" si="8">PRODUCT(C41:E41)</f>
+        <v>12.597785228080866</v>
+      </c>
+      <c r="G41" s="88">
+        <f t="shared" ref="G41:G49" si="9">F41/1000</f>
+        <v>1.2597785228080867E-2</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="21"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20">
+        <f>8.667/3.281</f>
+        <v>2.6415726912526667</v>
+      </c>
+      <c r="E42" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F42" s="40">
+        <f t="shared" si="8"/>
+        <v>2.3480646144468147</v>
+      </c>
+      <c r="G42" s="88">
+        <f t="shared" si="9"/>
+        <v>2.3480646144468146E-3</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="21"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="20">
+        <f>D38</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E43" s="21">
+        <f t="shared" ref="E43:E46" si="10">12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F43" s="40">
+        <f t="shared" ref="F43:F46" si="11">PRODUCT(C43:E43)</f>
+        <v>5.1474821362050855</v>
+      </c>
+      <c r="G43" s="88">
+        <f t="shared" ref="G43:G46" si="12">F43/1000</f>
+        <v>5.1474821362050855E-3</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="21"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20">
+        <f>7.667/3.281</f>
+        <v>2.3367875647668392</v>
+      </c>
+      <c r="E44" s="21">
+        <f t="shared" si="10"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F44" s="40">
+        <f t="shared" si="11"/>
+        <v>2.0771445020149679</v>
+      </c>
+      <c r="G44" s="88">
+        <f t="shared" si="12"/>
+        <v>2.0771445020149677E-3</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="21"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="19">
+        <v>2</v>
+      </c>
+      <c r="D45" s="20">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E45" s="21">
+        <f t="shared" si="10"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F45" s="40">
+        <f t="shared" si="11"/>
+        <v>4.8765620237732401</v>
+      </c>
+      <c r="G45" s="88">
+        <f t="shared" si="12"/>
+        <v>4.8765620237732404E-3</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="21"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="19">
+        <v>2</v>
+      </c>
+      <c r="D46" s="20">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E46" s="21">
+        <f t="shared" si="10"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F46" s="40">
+        <f t="shared" si="11"/>
+        <v>4.8765620237732401</v>
+      </c>
+      <c r="G46" s="88">
+        <f t="shared" si="12"/>
+        <v>4.8765620237732404E-3</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="21"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="19">
+        <f>6*8</f>
+        <v>48</v>
+      </c>
+      <c r="D47" s="20">
+        <f>11.5/3.281</f>
+        <v>3.5050289545870159</v>
+      </c>
+      <c r="E47" s="21">
+        <f t="shared" ref="E47" si="13">12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F47" s="40">
+        <f t="shared" si="8"/>
+        <v>149.54790206237934</v>
+      </c>
+      <c r="G47" s="88">
+        <f t="shared" si="9"/>
+        <v>0.14954790206237933</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="21"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D48" s="20">
+        <f>(0.23*4+0.075*2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="E48" s="21">
+        <f t="shared" si="7"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F48" s="40">
+        <f>PRODUCT(C48:E48)</f>
+        <v>5.0725925925925921</v>
+      </c>
+      <c r="G48" s="88">
+        <f t="shared" si="9"/>
+        <v>5.0725925925925921E-3</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="21"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D49" s="20">
+        <f>(0.15*4+0.075*2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E49" s="21">
+        <f t="shared" si="7"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F49" s="40">
+        <f>PRODUCT(C49:E49)</f>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="G49" s="88">
+        <f t="shared" si="9"/>
+        <v>3.5555555555555553E-3</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="21"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="89">
+        <f>SUM(G26:G49)</f>
+        <v>0.9895354144513302</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="23">
+        <v>131940</v>
+      </c>
+      <c r="J50" s="42">
+        <f>G50*I50</f>
+        <v>130559.30258270851</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="42">
+        <f>0.13*G50*106200</f>
+        <v>13661.525931915065</v>
+      </c>
+      <c r="K51" s="21"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="21"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
+        <v>4</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="19">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="33">
+        <f t="shared" ref="G53" si="14">PRODUCT(C53:F53)</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="23">
+        <v>500</v>
+      </c>
+      <c r="J53" s="33">
+        <f>G53*I53</f>
+        <v>500</v>
+      </c>
+      <c r="K53" s="21"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="21"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="41"/>
+      <c r="B55" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="44"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42">
+        <f>SUM(J9:J53)</f>
+        <v>351068.54966387467</v>
+      </c>
+      <c r="K55" s="37"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="55"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="54"/>
+    </row>
+    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="47"/>
+      <c r="B57" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="70">
+        <f>J55</f>
+        <v>351068.54966387467</v>
+      </c>
+      <c r="D57" s="70"/>
+      <c r="E57" s="40">
+        <v>100</v>
+      </c>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="52"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="53"/>
+      <c r="B58" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="73">
+        <v>300000</v>
+      </c>
+      <c r="D58" s="73"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="46"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="53"/>
+      <c r="B59" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="73">
+        <f>C58-C61-C62</f>
+        <v>285000</v>
+      </c>
+      <c r="D59" s="73"/>
+      <c r="E59" s="40">
+        <f>C59/C57*100</f>
+        <v>81.180726747773051</v>
+      </c>
+      <c r="F59" s="46"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="46"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="53"/>
+      <c r="B60" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="70">
+        <f>C57-C59</f>
+        <v>66068.54966387467</v>
+      </c>
+      <c r="D60" s="70"/>
+      <c r="E60" s="40">
+        <f>100-E59</f>
+        <v>18.819273252226949</v>
+      </c>
+      <c r="F60" s="46"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="46"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="53"/>
+      <c r="B61" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="70">
+        <f>C58*0.03</f>
+        <v>9000</v>
+      </c>
+      <c r="D61" s="70"/>
+      <c r="E61" s="40">
+        <v>3</v>
+      </c>
+      <c r="F61" s="46"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="46"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="53"/>
+      <c r="B62" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="70">
+        <f>C58*0.02</f>
+        <v>6000</v>
+      </c>
+      <c r="D62" s="70"/>
+      <c r="E62" s="40">
+        <v>2</v>
+      </c>
+      <c r="F62" s="46"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="46"/>
+    </row>
+    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+    </row>
+    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -4350,590 +6666,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="83">
-        <f>F24</f>
-        <v>344235.93318674725</v>
-      </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="83">
-        <f>I24</f>
-        <v>352016.20220883057</v>
-      </c>
-      <c r="K6" s="84"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="I7" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="str">
-        <f>'kalimasta mandir final (2)'!A6:F6</f>
-        <v>Project:- कालीमस्ट मन्दिर निर्माण</v>
-      </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="I8" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="str">
-        <f>'kalimasta mandir final (2)'!A7:F7</f>
-        <v>Location:- Shankharapur Municipality 9</v>
-      </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="I9" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <f>'kalimasta mandir final (2)'!A9</f>
-        <v>1</v>
-      </c>
-      <c r="B13" s="60" t="str">
-        <f>'kalimasta mandir final (2)'!B9</f>
-        <v>d]lzgsf] k|of]u u/L ;'k/ :6«Sr/df l;d]G6 s+lqm6 ug]{ sfd -!M!=%M#_</v>
-      </c>
-      <c r="C13" s="12" t="str">
-        <f>'kalimasta mandir final (2)'!H14</f>
-        <v>m3</v>
-      </c>
-      <c r="D13" s="12">
-        <f>'kalimasta mandir final (2)'!G14</f>
-        <v>8.7663771674602433</v>
-      </c>
-      <c r="E13" s="12">
-        <f>'kalimasta mandir final (2)'!I14</f>
-        <v>13568.9</v>
-      </c>
-      <c r="F13" s="12">
-        <f>D13*E13</f>
-        <v>118950.0951475513</v>
-      </c>
-      <c r="G13" s="12">
-        <f>valuated!G14</f>
-        <v>9.0527487390804282</v>
-      </c>
-      <c r="H13" s="12">
-        <f>valuated!I14</f>
-        <v>13568.9</v>
-      </c>
-      <c r="I13" s="12">
-        <f>G13*H13</f>
-        <v>122835.84236570842</v>
-      </c>
-      <c r="J13" s="28">
-        <f>I13-F13</f>
-        <v>3885.7472181571211</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="32" t="str">
-        <f>'kalimasta mandir final (2)'!B15</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <f>'kalimasta mandir final (2)'!J15</f>
-        <v>10854.054824382232</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12">
-        <f>valuated!J15</f>
-        <v>11208.624640297478</v>
-      </c>
-      <c r="J14" s="28">
-        <f>I14-F14</f>
-        <v>354.56981591524527</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <f>'kalimasta mandir final (2)'!A17</f>
-        <v>2</v>
-      </c>
-      <c r="B16" s="60" t="str">
-        <f>'kalimasta mandir final (2)'!B17</f>
-        <v>kmnfd]sf] kfOk / KnfOaf]8{af6 kmdf{ agfpg] sfd</v>
-      </c>
-      <c r="C16" s="12" t="str">
-        <f>'kalimasta mandir final (2)'!H22</f>
-        <v>m3</v>
-      </c>
-      <c r="D16" s="12">
-        <f>'kalimasta mandir final (2)'!G22</f>
-        <v>71.633159369550881</v>
-      </c>
-      <c r="E16" s="12">
-        <f>'kalimasta mandir final (2)'!I22</f>
-        <v>915.42</v>
-      </c>
-      <c r="F16" s="12">
-        <f>D16*E16</f>
-        <v>65574.426750074272</v>
-      </c>
-      <c r="G16" s="12">
-        <f>valuated!G22</f>
-        <v>74.058725054368495</v>
-      </c>
-      <c r="H16" s="12">
-        <f>valuated!I22</f>
-        <v>915.42</v>
-      </c>
-      <c r="I16" s="12">
-        <f>G16*H16</f>
-        <v>67794.838089270008</v>
-      </c>
-      <c r="J16" s="28">
-        <f>I16-F16</f>
-        <v>2220.4113391957362</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="32" t="str">
-        <f>'kalimasta mandir final (2)'!B23</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12">
-        <f>'kalimasta mandir final (2)'!J23</f>
-        <v>4360.7567570405945</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12">
-        <f>valuated!J23</f>
-        <v>4508.4160539752247</v>
-      </c>
-      <c r="J17" s="28">
-        <f>I17-F17</f>
-        <v>147.65929693463022</v>
-      </c>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <f>'kalimasta mandir final (2)'!A25</f>
-        <v>3</v>
-      </c>
-      <c r="B19" s="60" t="str">
-        <f>'kalimasta mandir final (2)'!B25</f>
-        <v>cf/=;L=;L= nflu kmnfd] 808L sf6\g], df]8\g] #) dL6/ ;Dd</v>
-      </c>
-      <c r="C19" s="12" t="str">
-        <f>'kalimasta mandir final (2)'!H43</f>
-        <v>MT</v>
-      </c>
-      <c r="D19" s="12">
-        <f>'kalimasta mandir final (2)'!G43</f>
-        <v>0.98799692415365681</v>
-      </c>
-      <c r="E19" s="12">
-        <f>'kalimasta mandir final (2)'!I43</f>
-        <v>131940</v>
-      </c>
-      <c r="F19" s="12">
-        <f>D19*E19</f>
-        <v>130356.31417283347</v>
-      </c>
-      <c r="G19" s="12">
-        <f>valuated!G50</f>
-        <v>0.99603749714969458</v>
-      </c>
-      <c r="H19" s="12">
-        <f>valuated!I50</f>
-        <v>131940</v>
-      </c>
-      <c r="I19" s="12">
-        <f>G19*H19</f>
-        <v>131417.1873739307</v>
-      </c>
-      <c r="J19" s="28">
-        <f>I19-F19</f>
-        <v>1060.8732010972308</v>
-      </c>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="32" t="str">
-        <f>'kalimasta mandir final (2)'!B44</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12">
-        <f>'kalimasta mandir final (2)'!J44</f>
-        <v>13640.285534865385</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12">
-        <f>valuated!J51</f>
-        <v>13751.293685648683</v>
-      </c>
-      <c r="J20" s="28">
-        <f>I20-F20</f>
-        <v>111.00815078329833</v>
-      </c>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
-        <f>'kalimasta mandir final (2)'!A46</f>
-        <v>4</v>
-      </c>
-      <c r="B22" s="31" t="str">
-        <f>'kalimasta mandir final (2)'!B46</f>
-        <v>Information board (सुचना पाटि)</v>
-      </c>
-      <c r="C22" s="12" t="str">
-        <f>'kalimasta mandir final (2)'!H46</f>
-        <v>no.</v>
-      </c>
-      <c r="D22" s="12">
-        <f>'kalimasta mandir final (2)'!G46</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="12">
-        <f>'kalimasta mandir final (2)'!I46</f>
-        <v>500</v>
-      </c>
-      <c r="F22" s="12">
-        <f>D22*E22</f>
-        <v>500</v>
-      </c>
-      <c r="G22" s="12">
-        <f>valuated!G53</f>
-        <v>1</v>
-      </c>
-      <c r="H22" s="12">
-        <f>valuated!I53</f>
-        <v>500</v>
-      </c>
-      <c r="I22" s="12">
-        <f>G22*H22</f>
-        <v>500</v>
-      </c>
-      <c r="J22" s="28">
-        <f>I22-F22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
-        <f>SUM(F13:F22)</f>
-        <v>344235.93318674725</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7">
-        <f>SUM(I13:I22)</f>
-        <v>352016.20220883057</v>
-      </c>
-      <c r="J24" s="13">
-        <f>I24-F24</f>
-        <v>7780.2690220833174</v>
-      </c>
-      <c r="K24" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;LPrepared By:
-&amp;CChecked By:
-&amp;RApproved By:
-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4946,119 +6684,119 @@
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
     </row>
     <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="A5" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -5267,7 +7005,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="38" t="s">
         <v>37</v>
@@ -5481,7 +7219,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
         <v>37</v>
@@ -5520,11 +7258,11 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>3</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="63" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -5542,12 +7280,8 @@
       <c r="G25" s="23"/>
       <c r="H25" s="22"/>
       <c r="I25" s="23"/>
-      <c r="J25" s="42"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="21"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
@@ -5570,8 +7304,8 @@
         <f>PRODUCT(C26:E26)</f>
         <v>92.474065043403641</v>
       </c>
-      <c r="G26" s="40">
-        <f t="shared" ref="G26:G36" si="2">F26/1000</f>
+      <c r="G26" s="88">
+        <f t="shared" ref="G26:G38" si="2">F26/1000</f>
         <v>9.2474065043403636E-2</v>
       </c>
       <c r="H26" s="22"/>
@@ -5601,10 +7335,10 @@
         <v>0.39506172839506171</v>
       </c>
       <c r="F27" s="40">
-        <f t="shared" ref="F27:F36" si="4">PRODUCT(C27:E27)</f>
+        <f t="shared" ref="F27:F38" si="4">PRODUCT(C27:E27)</f>
         <v>150.27035569553092</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="88">
         <f t="shared" si="2"/>
         <v>0.15027035569553093</v>
       </c>
@@ -5638,7 +7372,7 @@
         <f t="shared" si="4"/>
         <v>157.85611884362262</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="88">
         <f t="shared" si="2"/>
         <v>0.15785611884362263</v>
       </c>
@@ -5677,7 +7411,7 @@
         <f t="shared" si="4"/>
         <v>68.633095149401143</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="88">
         <f t="shared" si="2"/>
         <v>6.8633095149401149E-2</v>
       </c>
@@ -5710,7 +7444,7 @@
         <f t="shared" si="4"/>
         <v>12.7928477090318</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="88">
         <f t="shared" si="2"/>
         <v>1.27928477090318E-2</v>
       </c>
@@ -5741,7 +7475,7 @@
         <f t="shared" si="4"/>
         <v>11.739871538713354</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="88">
         <f t="shared" si="2"/>
         <v>1.1739871538713354E-2</v>
       </c>
@@ -5772,7 +7506,7 @@
         <f t="shared" si="4"/>
         <v>11.432828744623929</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="88">
         <f t="shared" si="2"/>
         <v>1.1432828744623929E-2</v>
       </c>
@@ -5805,7 +7539,7 @@
         <f t="shared" si="4"/>
         <v>12.493029451273888</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="88">
         <f t="shared" si="2"/>
         <v>1.2493029451273887E-2</v>
       </c>
@@ -5836,7 +7570,7 @@
         <f t="shared" si="4"/>
         <v>10.98671362615282</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="88">
         <f t="shared" si="2"/>
         <v>1.0986713626152821E-2</v>
       </c>
@@ -5867,7 +7601,7 @@
         <f t="shared" si="4"/>
         <v>10.98671362615282</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="88">
         <f t="shared" si="2"/>
         <v>1.0986713626152821E-2</v>
       </c>
@@ -5898,7 +7632,7 @@
         <f t="shared" si="4"/>
         <v>11.739871538713354</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="88">
         <f t="shared" si="2"/>
         <v>1.1739871538713354E-2</v>
       </c>
@@ -5930,11 +7664,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F37" s="40">
-        <f t="shared" ref="F37:F38" si="5">PRODUCT(C37:E37)</f>
+        <f t="shared" si="4"/>
         <v>86.69443597819091</v>
       </c>
-      <c r="G37" s="40">
-        <f t="shared" ref="G37:G38" si="6">F37/1000</f>
+      <c r="G37" s="88">
+        <f t="shared" si="2"/>
         <v>8.6694435978190904E-2</v>
       </c>
       <c r="H37" s="22"/>
@@ -5975,11 +7709,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F38" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.76978563446103</v>
       </c>
-      <c r="G38" s="40">
-        <f t="shared" si="6"/>
+      <c r="G38" s="88">
+        <f t="shared" si="2"/>
         <v>6.1769785634461033E-2</v>
       </c>
       <c r="H38" s="22"/>
@@ -6008,14 +7742,14 @@
         <v>1.1053794574824747</v>
       </c>
       <c r="E39" s="21">
-        <f t="shared" ref="E39:E49" si="7">8*8/162</f>
+        <f t="shared" ref="E39:E49" si="5">8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
       <c r="F39" s="40">
         <f>PRODUCT(C39:E39)</f>
         <v>52.403174280650653</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="88">
         <f>F39/1000</f>
         <v>5.2403174280650652E-2</v>
       </c>
@@ -6040,14 +7774,14 @@
         <v>1.1053794574824747</v>
       </c>
       <c r="E40" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F40" s="40">
         <f>PRODUCT(C40:E40)</f>
         <v>47.162856852585584</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="88">
         <f>F40/1000</f>
         <v>4.7162856852585582E-2</v>
       </c>
@@ -6077,11 +7811,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F41" s="40">
-        <f t="shared" ref="F41:F47" si="8">PRODUCT(C41:E41)</f>
+        <f t="shared" ref="F41:F47" si="6">PRODUCT(C41:E41)</f>
         <v>12.597785228080866</v>
       </c>
-      <c r="G41" s="40">
-        <f t="shared" ref="G41:G49" si="9">F41/1000</f>
+      <c r="G41" s="88">
+        <f t="shared" ref="G41:G49" si="7">F41/1000</f>
         <v>1.2597785228080867E-2</v>
       </c>
       <c r="H41" s="22"/>
@@ -6108,11 +7842,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.3480646144468147</v>
       </c>
-      <c r="G42" s="40">
-        <f t="shared" si="9"/>
+      <c r="G42" s="88">
+        <f t="shared" si="7"/>
         <v>2.3480646144468146E-3</v>
       </c>
       <c r="H42" s="22"/>
@@ -6135,15 +7869,15 @@
         <v>5.790917403230722</v>
       </c>
       <c r="E43" s="21">
-        <f t="shared" ref="E43:E46" si="10">12*12/162</f>
+        <f t="shared" ref="E43:E47" si="8">12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="F43" s="40">
-        <f t="shared" ref="F43:F46" si="11">PRODUCT(C43:E43)</f>
+        <f t="shared" si="6"/>
         <v>5.1474821362050855</v>
       </c>
-      <c r="G43" s="40">
-        <f t="shared" ref="G43:G46" si="12">F43/1000</f>
+      <c r="G43" s="88">
+        <f t="shared" si="7"/>
         <v>5.1474821362050855E-3</v>
       </c>
       <c r="H43" s="22"/>
@@ -6166,15 +7900,15 @@
         <v>2.3367875647668392</v>
       </c>
       <c r="E44" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="F44" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>2.0771445020149679</v>
       </c>
-      <c r="G44" s="40">
-        <f t="shared" si="12"/>
+      <c r="G44" s="88">
+        <f t="shared" si="7"/>
         <v>2.0771445020149677E-3</v>
       </c>
       <c r="H44" s="22"/>
@@ -6197,15 +7931,15 @@
         <v>2.7430661383724475</v>
       </c>
       <c r="E45" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="F45" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>4.8765620237732401</v>
       </c>
-      <c r="G45" s="40">
-        <f t="shared" si="12"/>
+      <c r="G45" s="88">
+        <f t="shared" si="7"/>
         <v>4.8765620237732404E-3</v>
       </c>
       <c r="H45" s="22"/>
@@ -6228,15 +7962,15 @@
         <v>2.7430661383724475</v>
       </c>
       <c r="E46" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="F46" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>4.8765620237732401</v>
       </c>
-      <c r="G46" s="40">
-        <f t="shared" si="12"/>
+      <c r="G46" s="88">
+        <f t="shared" si="7"/>
         <v>4.8765620237732404E-3</v>
       </c>
       <c r="H46" s="22"/>
@@ -6258,20 +7992,20 @@
         <v>48</v>
       </c>
       <c r="D47" s="20">
-        <f>12/3.281</f>
-        <v>3.6574215178299299</v>
+        <f>11.5/3.281</f>
+        <v>3.5050289545870159</v>
       </c>
       <c r="E47" s="21">
-        <f t="shared" ref="E47" si="13">12*12/162</f>
+        <f t="shared" si="8"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="F47" s="40">
-        <f t="shared" si="8"/>
-        <v>156.04998476074368</v>
-      </c>
-      <c r="G47" s="40">
-        <f t="shared" si="9"/>
-        <v>0.15604998476074369</v>
+        <f t="shared" si="6"/>
+        <v>149.54790206237934</v>
+      </c>
+      <c r="G47" s="88">
+        <f t="shared" si="7"/>
+        <v>0.14954790206237933</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
@@ -6296,15 +8030,15 @@
         <v>1.07</v>
       </c>
       <c r="E48" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F48" s="40">
         <f>PRODUCT(C48:E48)</f>
         <v>5.0725925925925921</v>
       </c>
-      <c r="G48" s="40">
-        <f t="shared" si="9"/>
+      <c r="G48" s="88">
+        <f t="shared" si="7"/>
         <v>5.0725925925925921E-3</v>
       </c>
       <c r="H48" s="22"/>
@@ -6328,15 +8062,15 @@
         <v>0.75</v>
       </c>
       <c r="E49" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F49" s="40">
         <f>PRODUCT(C49:E49)</f>
         <v>3.5555555555555554</v>
       </c>
-      <c r="G49" s="40">
-        <f t="shared" si="9"/>
+      <c r="G49" s="88">
+        <f t="shared" si="7"/>
         <v>3.5555555555555553E-3</v>
       </c>
       <c r="H49" s="22"/>
@@ -6357,9 +8091,9 @@
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
-      <c r="G50" s="23">
+      <c r="G50" s="89">
         <f>SUM(G26:G49)</f>
-        <v>0.99603749714969458</v>
+        <v>0.9895354144513302</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>58</v>
@@ -6369,7 +8103,7 @@
       </c>
       <c r="J50" s="42">
         <f>G50*I50</f>
-        <v>131417.1873739307</v>
+        <v>130559.30258270851</v>
       </c>
       <c r="K50" s="21"/>
       <c r="M50" s="1"/>
@@ -6377,7 +8111,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="38" t="s">
         <v>37</v>
@@ -6391,7 +8125,7 @@
       <c r="I51" s="23"/>
       <c r="J51" s="42">
         <f>0.13*G50*106200</f>
-        <v>13751.293685648683</v>
+        <v>13661.525931915065</v>
       </c>
       <c r="K51" s="21"/>
       <c r="M51" s="1"/>
@@ -6430,7 +8164,7 @@
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
       <c r="G53" s="33">
-        <f t="shared" ref="G53" si="14">PRODUCT(C53:F53)</f>
+        <f t="shared" ref="G53" si="9">PRODUCT(C53:F53)</f>
         <v>1</v>
       </c>
       <c r="H53" s="22" t="s">
@@ -6480,7 +8214,7 @@
       <c r="I55" s="42"/>
       <c r="J55" s="42">
         <f>SUM(J9:J53)</f>
-        <v>352016.20220883057</v>
+        <v>351068.54966387467</v>
       </c>
       <c r="K55" s="37"/>
     </row>
@@ -6497,16 +8231,16 @@
       <c r="J56" s="57"/>
       <c r="K56" s="54"/>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47"/>
       <c r="B57" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="64">
+      <c r="C57" s="70">
         <f>J55</f>
-        <v>352016.20220883057</v>
-      </c>
-      <c r="D57" s="64"/>
+        <v>351068.54966387467</v>
+      </c>
+      <c r="D57" s="70"/>
       <c r="E57" s="40">
         <v>100</v>
       </c>
@@ -6517,15 +8251,15 @@
       <c r="J57" s="51"/>
       <c r="K57" s="52"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="53"/>
       <c r="B58" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="67">
+      <c r="C58" s="73">
         <v>300000</v>
       </c>
-      <c r="D58" s="67"/>
+      <c r="D58" s="73"/>
       <c r="E58" s="40"/>
       <c r="F58" s="46"/>
       <c r="G58" s="45"/>
@@ -6534,19 +8268,19 @@
       <c r="J58" s="45"/>
       <c r="K58" s="46"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="53"/>
       <c r="B59" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="67">
+      <c r="C59" s="73">
         <f>C58-C61-C62</f>
         <v>285000</v>
       </c>
-      <c r="D59" s="67"/>
+      <c r="D59" s="73"/>
       <c r="E59" s="40">
         <f>C59/C57*100</f>
-        <v>80.962182482420573</v>
+        <v>81.180726747773051</v>
       </c>
       <c r="F59" s="46"/>
       <c r="G59" s="45"/>
@@ -6555,19 +8289,19 @@
       <c r="J59" s="45"/>
       <c r="K59" s="46"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="53"/>
       <c r="B60" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="64">
+      <c r="C60" s="70">
         <f>C57-C59</f>
-        <v>67016.202208830568</v>
-      </c>
-      <c r="D60" s="64"/>
+        <v>66068.54966387467</v>
+      </c>
+      <c r="D60" s="70"/>
       <c r="E60" s="40">
         <f>100-E59</f>
-        <v>19.037817517579427</v>
+        <v>18.819273252226949</v>
       </c>
       <c r="F60" s="46"/>
       <c r="G60" s="45"/>
@@ -6576,16 +8310,16 @@
       <c r="J60" s="45"/>
       <c r="K60" s="46"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="53"/>
       <c r="B61" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="64">
+      <c r="C61" s="70">
         <f>C58*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D61" s="64"/>
+      <c r="D61" s="70"/>
       <c r="E61" s="40">
         <v>3</v>
       </c>
@@ -6596,16 +8330,16 @@
       <c r="J61" s="45"/>
       <c r="K61" s="46"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="53"/>
       <c r="B62" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="64">
+      <c r="C62" s="70">
         <f>C58*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D62" s="64"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="40">
         <v>2</v>
       </c>
@@ -6657,1731 +8391,4 @@
 Er. Prakash Singh Saud</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="21"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="19">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E10" s="21">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.125</v>
-      </c>
-      <c r="G10" s="40">
-        <f>PRODUCT(C10:F10)</f>
-        <v>7.0599419728506199</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="19">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="G11" s="40">
-        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
-        <v>1.0318805242304177</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="19">
-        <v>3</v>
-      </c>
-      <c r="D12" s="20">
-        <f>18.75/3.281</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="G12" s="40">
-        <f t="shared" si="0"/>
-        <v>0.90692624199939043</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="40">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23">
-        <f>SUM(G10:G13)</f>
-        <v>9.0527487390804282</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="23">
-        <v>13568.9</v>
-      </c>
-      <c r="J14" s="42">
-        <f>G14*I14</f>
-        <v>122835.84236570842</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="42">
-        <f>0.13*G14*9524.2</f>
-        <v>11208.624640297478</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="21"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <v>2</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="21"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="38" t="str">
-        <f>B10</f>
-        <v>-slab</v>
-      </c>
-      <c r="C18" s="19">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <f>D10</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E18" s="21">
-        <f>E10</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="40">
-        <f>PRODUCT(C18:F18)</f>
-        <v>56.479535782804959</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="38" t="str">
-        <f>B11</f>
-        <v>-beam</v>
-      </c>
-      <c r="C19" s="19">
-        <f>C11</f>
-        <v>2</v>
-      </c>
-      <c r="D19" s="20">
-        <f>D11</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21">
-        <f>F11*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G19" s="40">
-        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
-        <v>8.9728741237427609</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="19">
-        <f>C12</f>
-        <v>3</v>
-      </c>
-      <c r="D20" s="20">
-        <f>D12</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <f>F12*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G20" s="40">
-        <f t="shared" si="1"/>
-        <v>7.8863151478207856</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="38" t="str">
-        <f>B13</f>
-        <v>-column</v>
-      </c>
-      <c r="C21" s="19">
-        <f>C13</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="20">
-        <f>D13*4</f>
-        <v>1.2</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21">
-        <f>F13</f>
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="40">
-        <f t="shared" si="1"/>
-        <v>0.72</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="21"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="23">
-        <f>SUM(G18:G21)</f>
-        <v>74.058725054368495</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="23">
-        <v>915.42</v>
-      </c>
-      <c r="J22" s="42">
-        <f>G22*I22</f>
-        <v>67794.838089270008</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="42">
-        <f>0.13*G22*46827.87/100</f>
-        <v>4508.4160539752247</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>3</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="19">
-        <f>5+5+7+7</f>
-        <v>24</v>
-      </c>
-      <c r="D26" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E26" s="21">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F26" s="40">
-        <f>PRODUCT(C26:E26)</f>
-        <v>92.474065043403641</v>
-      </c>
-      <c r="G26" s="40">
-        <f t="shared" ref="G26:G38" si="2">F26/1000</f>
-        <v>9.2474065043403636E-2</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="21"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="19">
-        <f>29+5+5</f>
-        <v>39</v>
-      </c>
-      <c r="D27" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E27" s="21">
-        <f t="shared" ref="E27:E36" si="3">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F27" s="40">
-        <f t="shared" ref="F27:F38" si="4">PRODUCT(C27:E27)</f>
-        <v>150.27035569553092</v>
-      </c>
-      <c r="G27" s="40">
-        <f t="shared" si="2"/>
-        <v>0.15027035569553093</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="21"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="19">
-        <f>58+5+6</f>
-        <v>69</v>
-      </c>
-      <c r="D28" s="20">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F28" s="40">
-        <f t="shared" si="4"/>
-        <v>157.85611884362262</v>
-      </c>
-      <c r="G28" s="40">
-        <f t="shared" si="2"/>
-        <v>0.15785611884362263</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="21"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="61">
-        <f>SUM(F26:F36)</f>
-        <v>551.40551096662023</v>
-      </c>
-      <c r="O28" s="61" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="19">
-        <v>30</v>
-      </c>
-      <c r="D29" s="20">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E29" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F29" s="40">
-        <f t="shared" si="4"/>
-        <v>68.633095149401143</v>
-      </c>
-      <c r="G29" s="40">
-        <f t="shared" si="2"/>
-        <v>6.8633095149401149E-2</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="21"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="19">
-        <v>15</v>
-      </c>
-      <c r="D30" s="20">
-        <f>7.083/3.281</f>
-        <v>2.1587930508991162</v>
-      </c>
-      <c r="E30" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F30" s="40">
-        <f t="shared" si="4"/>
-        <v>12.7928477090318</v>
-      </c>
-      <c r="G30" s="40">
-        <f t="shared" si="2"/>
-        <v>1.27928477090318E-2</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="19">
-        <v>15</v>
-      </c>
-      <c r="D31" s="20">
-        <f>6.5/3.281</f>
-        <v>1.9811033221578787</v>
-      </c>
-      <c r="E31" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F31" s="40">
-        <f t="shared" si="4"/>
-        <v>11.739871538713354</v>
-      </c>
-      <c r="G31" s="40">
-        <f t="shared" si="2"/>
-        <v>1.1739871538713354E-2</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="21"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="19">
-        <v>15</v>
-      </c>
-      <c r="D32" s="20">
-        <f>6.33/3.281</f>
-        <v>1.929289850655288</v>
-      </c>
-      <c r="E32" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F32" s="40">
-        <f t="shared" si="4"/>
-        <v>11.432828744623929</v>
-      </c>
-      <c r="G32" s="40">
-        <f t="shared" si="2"/>
-        <v>1.1432828744623929E-2</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="21"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="19">
-        <v>15</v>
-      </c>
-      <c r="D33" s="20">
-        <f>6.917/3.281</f>
-        <v>2.1081987199024685</v>
-      </c>
-      <c r="E33" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F33" s="40">
-        <f t="shared" si="4"/>
-        <v>12.493029451273888</v>
-      </c>
-      <c r="G33" s="40">
-        <f t="shared" si="2"/>
-        <v>1.2493029451273887E-2</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="21"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="19">
-        <v>15</v>
-      </c>
-      <c r="D34" s="20">
-        <f>6.083/3.281</f>
-        <v>1.8540079244132885</v>
-      </c>
-      <c r="E34" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F34" s="40">
-        <f t="shared" si="4"/>
-        <v>10.98671362615282</v>
-      </c>
-      <c r="G34" s="40">
-        <f t="shared" si="2"/>
-        <v>1.0986713626152821E-2</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="21"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="19">
-        <v>15</v>
-      </c>
-      <c r="D35" s="20">
-        <f>6.083/3.281</f>
-        <v>1.8540079244132885</v>
-      </c>
-      <c r="E35" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F35" s="40">
-        <f t="shared" si="4"/>
-        <v>10.98671362615282</v>
-      </c>
-      <c r="G35" s="40">
-        <f t="shared" si="2"/>
-        <v>1.0986713626152821E-2</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="21"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="19">
-        <v>15</v>
-      </c>
-      <c r="D36" s="20">
-        <f>6.5/3.281</f>
-        <v>1.9811033221578787</v>
-      </c>
-      <c r="E36" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F36" s="40">
-        <f t="shared" si="4"/>
-        <v>11.739871538713354</v>
-      </c>
-      <c r="G36" s="40">
-        <f t="shared" si="2"/>
-        <v>1.1739871538713354E-2</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="21"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="38" t="str">
-        <f>B19</f>
-        <v>-beam</v>
-      </c>
-      <c r="C37" s="19">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="D37" s="20">
-        <f>D10</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E37" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F37" s="40">
-        <f t="shared" si="4"/>
-        <v>86.69443597819091</v>
-      </c>
-      <c r="G37" s="40">
-        <f t="shared" si="2"/>
-        <v>8.6694435978190904E-2</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="21"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="61" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O37" s="61">
-        <f>F39+F40</f>
-        <v>99.566031133236237</v>
-      </c>
-      <c r="P37" s="61">
-        <f>F48+F49</f>
-        <v>8.6281481481481475</v>
-      </c>
-      <c r="Q37" s="62" t="e">
-        <f>SUM(N37:P37)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="19">
-        <f>3*4</f>
-        <v>12</v>
-      </c>
-      <c r="D38" s="20">
-        <f>E10</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E38" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F38" s="40">
-        <f t="shared" si="4"/>
-        <v>61.76978563446103</v>
-      </c>
-      <c r="G38" s="40">
-        <f t="shared" si="2"/>
-        <v>6.1769785634461033E-2</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="21"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="61" t="e">
-        <f>SUM(F37+F38+F41+F42+#REF!+F47)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="19">
-        <f>60*2</f>
-        <v>120</v>
-      </c>
-      <c r="D39" s="20">
-        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
-        <v>1.1053794574824747</v>
-      </c>
-      <c r="E39" s="21">
-        <f t="shared" ref="E39:E49" si="5">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F39" s="40">
-        <f>PRODUCT(C39:E39)</f>
-        <v>52.403174280650653</v>
-      </c>
-      <c r="G39" s="40">
-        <f>F39/1000</f>
-        <v>5.2403174280650652E-2</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="21"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="19">
-        <f>36*3</f>
-        <v>108</v>
-      </c>
-      <c r="D40" s="20">
-        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
-        <v>1.1053794574824747</v>
-      </c>
-      <c r="E40" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F40" s="40">
-        <f>PRODUCT(C40:E40)</f>
-        <v>47.162856852585584</v>
-      </c>
-      <c r="G40" s="40">
-        <f>F40/1000</f>
-        <v>4.7162856852585582E-2</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="21"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="19">
-        <v>6</v>
-      </c>
-      <c r="D41" s="20">
-        <f>7.75/3.281</f>
-        <v>2.3620847302651629</v>
-      </c>
-      <c r="E41" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F41" s="40">
-        <f t="shared" ref="F41:F47" si="6">PRODUCT(C41:E41)</f>
-        <v>12.597785228080866</v>
-      </c>
-      <c r="G41" s="40">
-        <f t="shared" ref="G41:G49" si="7">F41/1000</f>
-        <v>1.2597785228080867E-2</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="21"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="19">
-        <v>1</v>
-      </c>
-      <c r="D42" s="20">
-        <f>8.667/3.281</f>
-        <v>2.6415726912526667</v>
-      </c>
-      <c r="E42" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F42" s="40">
-        <f t="shared" si="6"/>
-        <v>2.3480646144468147</v>
-      </c>
-      <c r="G42" s="40">
-        <f t="shared" si="7"/>
-        <v>2.3480646144468146E-3</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="21"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="19">
-        <v>1</v>
-      </c>
-      <c r="D43" s="20">
-        <f>D38</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E43" s="21">
-        <f t="shared" ref="E43:E47" si="8">12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F43" s="40">
-        <f t="shared" si="6"/>
-        <v>5.1474821362050855</v>
-      </c>
-      <c r="G43" s="40">
-        <f t="shared" si="7"/>
-        <v>5.1474821362050855E-3</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="21"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="19">
-        <v>1</v>
-      </c>
-      <c r="D44" s="20">
-        <f>7.667/3.281</f>
-        <v>2.3367875647668392</v>
-      </c>
-      <c r="E44" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F44" s="40">
-        <f t="shared" si="6"/>
-        <v>2.0771445020149679</v>
-      </c>
-      <c r="G44" s="40">
-        <f t="shared" si="7"/>
-        <v>2.0771445020149677E-3</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="21"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="19">
-        <v>2</v>
-      </c>
-      <c r="D45" s="20">
-        <f>9/3.281</f>
-        <v>2.7430661383724475</v>
-      </c>
-      <c r="E45" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F45" s="40">
-        <f t="shared" si="6"/>
-        <v>4.8765620237732401</v>
-      </c>
-      <c r="G45" s="40">
-        <f t="shared" si="7"/>
-        <v>4.8765620237732404E-3</v>
-      </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="21"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="19">
-        <v>2</v>
-      </c>
-      <c r="D46" s="20">
-        <f>9/3.281</f>
-        <v>2.7430661383724475</v>
-      </c>
-      <c r="E46" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F46" s="40">
-        <f t="shared" si="6"/>
-        <v>4.8765620237732401</v>
-      </c>
-      <c r="G46" s="40">
-        <f t="shared" si="7"/>
-        <v>4.8765620237732404E-3</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="21"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="19">
-        <f>6*8</f>
-        <v>48</v>
-      </c>
-      <c r="D47" s="20">
-        <f>12/3.281</f>
-        <v>3.6574215178299299</v>
-      </c>
-      <c r="E47" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F47" s="40">
-        <f t="shared" si="6"/>
-        <v>156.04998476074368</v>
-      </c>
-      <c r="G47" s="40">
-        <f t="shared" si="7"/>
-        <v>0.15604998476074369</v>
-      </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="21"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="19">
-        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
-        <v>12</v>
-      </c>
-      <c r="D48" s="20">
-        <f>(0.23*4+0.075*2)</f>
-        <v>1.07</v>
-      </c>
-      <c r="E48" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F48" s="40">
-        <f>PRODUCT(C48:E48)</f>
-        <v>5.0725925925925921</v>
-      </c>
-      <c r="G48" s="40">
-        <f t="shared" si="7"/>
-        <v>5.0725925925925921E-3</v>
-      </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="21"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="19">
-        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
-        <v>12</v>
-      </c>
-      <c r="D49" s="20">
-        <f>(0.15*4+0.075*2)</f>
-        <v>0.75</v>
-      </c>
-      <c r="E49" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F49" s="40">
-        <f>PRODUCT(C49:E49)</f>
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="G49" s="40">
-        <f t="shared" si="7"/>
-        <v>3.5555555555555553E-3</v>
-      </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="21"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="23">
-        <f>SUM(G26:G49)</f>
-        <v>0.99603749714969458</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I50" s="23">
-        <v>131940</v>
-      </c>
-      <c r="J50" s="42">
-        <f>G50*I50</f>
-        <v>131417.1873739307</v>
-      </c>
-      <c r="K50" s="21"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="42">
-        <f>0.13*G50*106200</f>
-        <v>13751.293685648683</v>
-      </c>
-      <c r="K51" s="21"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="21"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18">
-        <v>4</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="19">
-        <v>1</v>
-      </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="33">
-        <f t="shared" ref="G53" si="9">PRODUCT(C53:F53)</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" s="23">
-        <v>500</v>
-      </c>
-      <c r="J53" s="33">
-        <f>G53*I53</f>
-        <v>500</v>
-      </c>
-      <c r="K53" s="21"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="21"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42">
-        <f>SUM(J9:J53)</f>
-        <v>352016.20220883057</v>
-      </c>
-      <c r="K55" s="37"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="54"/>
-    </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
-      <c r="B57" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="64">
-        <f>J55</f>
-        <v>352016.20220883057</v>
-      </c>
-      <c r="D57" s="64"/>
-      <c r="E57" s="40">
-        <v>100</v>
-      </c>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="52"/>
-    </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="67">
-        <v>300000</v>
-      </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="46"/>
-    </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="67">
-        <f>C58-C61-C62</f>
-        <v>285000</v>
-      </c>
-      <c r="D59" s="67"/>
-      <c r="E59" s="40">
-        <f>C59/C57*100</f>
-        <v>80.962182482420573</v>
-      </c>
-      <c r="F59" s="46"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="46"/>
-    </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
-      <c r="B60" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="64">
-        <f>C57-C59</f>
-        <v>67016.202208830568</v>
-      </c>
-      <c r="D60" s="64"/>
-      <c r="E60" s="40">
-        <f>100-E59</f>
-        <v>19.037817517579427</v>
-      </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="46"/>
-    </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="53"/>
-      <c r="B61" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="64">
-        <f>C58*0.03</f>
-        <v>9000</v>
-      </c>
-      <c r="D61" s="64"/>
-      <c r="E61" s="40">
-        <v>3</v>
-      </c>
-      <c r="F61" s="46"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-    </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="53"/>
-      <c r="B62" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="64">
-        <f>C58*0.02</f>
-        <v>6000</v>
-      </c>
-      <c r="D62" s="64"/>
-      <c r="E62" s="40">
-        <v>2</v>
-      </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="46"/>
-    </row>
-    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-    </row>
-    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
+++ b/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="kalimasta mandir final" sheetId="17" state="hidden" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="93">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -300,6 +300,57 @@
   </si>
   <si>
     <t>Date:2081/07/04</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>Amount without VAT</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Total amount with VAT</t>
+  </si>
+  <si>
+    <t>Aggregate 20mm</t>
+  </si>
+  <si>
+    <t>Aggregate 10mm</t>
+  </si>
+  <si>
+    <t>coarse sand</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>petrol</t>
+  </si>
+  <si>
+    <t>15mm plyboard</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>pipe tekka</t>
+  </si>
+  <si>
+    <t>nails</t>
+  </si>
+  <si>
+    <t>TMT rod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire </t>
   </si>
 </sst>
 </file>
@@ -507,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -656,6 +707,15 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -725,12 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1370,113 +1424,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2561,11 +2615,11 @@
       <c r="B47" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="73">
         <f>J45</f>
         <v>345993.93824887183</v>
       </c>
-      <c r="D47" s="70"/>
+      <c r="D47" s="73"/>
       <c r="E47" s="40">
         <v>100</v>
       </c>
@@ -2581,10 +2635,10 @@
       <c r="B48" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="76">
         <v>300000</v>
       </c>
-      <c r="D48" s="73"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="40"/>
       <c r="F48" s="46"/>
       <c r="G48" s="45"/>
@@ -2598,11 +2652,11 @@
       <c r="B49" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="76">
         <f>C48-C51-C52</f>
         <v>285000</v>
       </c>
-      <c r="D49" s="73"/>
+      <c r="D49" s="76"/>
       <c r="E49" s="40">
         <f>C49/C47*100</f>
         <v>82.371385302999386</v>
@@ -2619,11 +2673,11 @@
       <c r="B50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="70">
+      <c r="C50" s="73">
         <f>C47-C49</f>
         <v>60993.938248871826</v>
       </c>
-      <c r="D50" s="70"/>
+      <c r="D50" s="73"/>
       <c r="E50" s="40">
         <f>100-E49</f>
         <v>17.628614697000614</v>
@@ -2640,11 +2694,11 @@
       <c r="B51" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="70">
+      <c r="C51" s="73">
         <f>C48*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D51" s="70"/>
+      <c r="D51" s="73"/>
       <c r="E51" s="40">
         <v>3</v>
       </c>
@@ -2660,11 +2714,11 @@
       <c r="B52" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="70">
+      <c r="C52" s="73">
         <f>C48*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D52" s="70"/>
+      <c r="D52" s="73"/>
       <c r="E52" s="40">
         <v>2</v>
       </c>
@@ -2777,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2797,113 +2851,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -3311,7 +3365,7 @@
         <v>71.633159369550881</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I22" s="23">
         <v>915.42</v>
@@ -4000,7 +4054,7 @@
       <c r="D43" s="20"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="89">
+      <c r="G43" s="65">
         <f>SUM(G26:G42)</f>
         <v>0.98799692415365681</v>
       </c>
@@ -4145,11 +4199,11 @@
       <c r="B50" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="70">
+      <c r="C50" s="73">
         <f>J48</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="D50" s="70"/>
+      <c r="D50" s="73"/>
       <c r="E50" s="40">
         <v>100</v>
       </c>
@@ -4165,10 +4219,10 @@
       <c r="B51" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="76">
         <v>300000</v>
       </c>
-      <c r="D51" s="73"/>
+      <c r="D51" s="76"/>
       <c r="E51" s="40"/>
       <c r="F51" s="46"/>
       <c r="G51" s="45"/>
@@ -4182,11 +4236,11 @@
       <c r="B52" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="73">
+      <c r="C52" s="76">
         <f>C51-C54-C55</f>
         <v>285000</v>
       </c>
-      <c r="D52" s="73"/>
+      <c r="D52" s="76"/>
       <c r="E52" s="40">
         <f>C52/C50*100</f>
         <v>82.792054089654883</v>
@@ -4203,11 +4257,11 @@
       <c r="B53" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="70">
+      <c r="C53" s="73">
         <f>C50-C52</f>
         <v>59235.93318674725</v>
       </c>
-      <c r="D53" s="70"/>
+      <c r="D53" s="73"/>
       <c r="E53" s="40">
         <f>100-E52</f>
         <v>17.207945910345117</v>
@@ -4224,11 +4278,11 @@
       <c r="B54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="70">
+      <c r="C54" s="73">
         <f>C51*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D54" s="70"/>
+      <c r="D54" s="73"/>
       <c r="E54" s="40">
         <v>3</v>
       </c>
@@ -4244,11 +4298,11 @@
       <c r="B55" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="70">
+      <c r="C55" s="73">
         <f>C51*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D55" s="70"/>
+      <c r="D55" s="73"/>
       <c r="E55" s="40">
         <v>2</v>
       </c>
@@ -4381,90 +4435,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="74">
+      <c r="C6" s="77">
         <f>F24</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -4472,11 +4526,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="74">
+      <c r="J6" s="77">
         <f>I24</f>
         <v>351068.54966387467</v>
       </c>
-      <c r="K6" s="75"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -4485,77 +4539,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="I7" s="82" t="s">
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="I7" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="str">
+      <c r="A8" s="67" t="str">
         <f>'kalimasta mandir final (2)'!A6:F6</f>
         <v>Project:- कालीमस्ट मन्दिर निर्माण</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="I8" s="83" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="I8" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="84" t="str">
+      <c r="A9" s="87" t="str">
         <f>'kalimasta mandir final (2)'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="I9" s="83" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="I9" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87" t="s">
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="79" t="s">
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="80" t="s">
+      <c r="K11" s="83" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="79"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -4574,8 +4628,8 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
@@ -4669,7 +4723,7 @@
       </c>
       <c r="C16" s="12" t="str">
         <f>'kalimasta mandir final (2)'!H22</f>
-        <v>m3</v>
+        <v>m2</v>
       </c>
       <c r="D16" s="12">
         <f>'kalimasta mandir final (2)'!G22</f>
@@ -4939,8 +4993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4956,118 +5010,121 @@
     <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -5102,7 +5159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -5119,11 +5176,18 @@
       <c r="J9" s="42"/>
       <c r="K9" s="21"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="66"/>
+      <c r="O9" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="38" t="s">
         <v>49</v>
@@ -5151,11 +5215,23 @@
       <c r="J10" s="42"/>
       <c r="K10" s="21"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="61">
+        <f>4852.4*G14</f>
+        <v>43927.55798151387</v>
+      </c>
+      <c r="P10" s="61">
+        <f>13%*O10</f>
+        <v>5710.5825375968034</v>
+      </c>
+      <c r="Q10" s="62">
+        <f>O10+P10</f>
+        <v>49638.140519110675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="38" t="s">
         <v>50</v>
@@ -5182,11 +5258,23 @@
       <c r="J11" s="42"/>
       <c r="K11" s="21"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="61">
+        <f>1912.03*G14</f>
+        <v>17309.12717158395</v>
+      </c>
+      <c r="P11" s="61">
+        <f t="shared" ref="P11:P22" si="1">13%*O11</f>
+        <v>2250.1865323059137</v>
+      </c>
+      <c r="Q11" s="62">
+        <f t="shared" ref="Q11:Q16" si="2">O11+P11</f>
+        <v>19559.313703889864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="38"/>
       <c r="C12" s="19">
@@ -5211,11 +5299,23 @@
       <c r="J12" s="42"/>
       <c r="K12" s="21"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="61">
+        <f>921.59*G14</f>
+        <v>8342.9227104491329</v>
+      </c>
+      <c r="P12" s="61">
+        <f t="shared" si="1"/>
+        <v>1084.5799523583873</v>
+      </c>
+      <c r="Q12" s="62">
+        <f t="shared" si="2"/>
+        <v>9427.5026628075211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="38" t="s">
         <v>59</v>
@@ -5241,11 +5341,23 @@
       <c r="J13" s="42"/>
       <c r="K13" s="21"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="61">
+        <f>1350.6*G14</f>
+        <v>12226.642447002025</v>
+      </c>
+      <c r="P13" s="61">
+        <f t="shared" si="1"/>
+        <v>1589.4635181102633</v>
+      </c>
+      <c r="Q13" s="62">
+        <f t="shared" si="2"/>
+        <v>13816.105965112289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="38" t="s">
         <v>39</v>
@@ -5270,11 +5382,23 @@
       </c>
       <c r="K14" s="21"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="61">
+        <f>56*G14</f>
+        <v>506.95392938850398</v>
+      </c>
+      <c r="P14" s="61">
+        <f t="shared" si="1"/>
+        <v>65.904010820505519</v>
+      </c>
+      <c r="Q14" s="62">
+        <f t="shared" si="2"/>
+        <v>572.85794020900948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="38" t="s">
         <v>37</v>
@@ -5292,11 +5416,23 @@
       </c>
       <c r="K15" s="21"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="61">
+        <f>(416.81*G14)</f>
+        <v>3773.2762019361135</v>
+      </c>
+      <c r="P15" s="61">
+        <f t="shared" si="1"/>
+        <v>490.52590625169478</v>
+      </c>
+      <c r="Q15" s="62">
+        <f t="shared" si="2"/>
+        <v>4263.8021081878087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="38"/>
       <c r="C16" s="19"/>
@@ -5309,11 +5445,23 @@
       <c r="J16" s="42"/>
       <c r="K16" s="21"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="N16" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="O16" s="61">
+        <f>(14.77*G14)</f>
+        <v>133.70909887621792</v>
+      </c>
+      <c r="P16" s="61">
+        <f t="shared" si="1"/>
+        <v>17.382182853908329</v>
+      </c>
+      <c r="Q16" s="62">
+        <f t="shared" si="2"/>
+        <v>151.09128173012624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -5330,11 +5478,23 @@
       <c r="J17" s="42"/>
       <c r="K17" s="21"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="61">
+        <f>(20062.02/100)*G22</f>
+        <v>14857.676232152418</v>
+      </c>
+      <c r="P17" s="61">
+        <f t="shared" si="1"/>
+        <v>1931.4979101798144</v>
+      </c>
+      <c r="Q17" s="62">
+        <f t="shared" ref="Q17:Q20" si="3">O17+P17</f>
+        <v>16789.174142332231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="38" t="str">
         <f>B10</f>
@@ -5362,11 +5522,23 @@
       <c r="J18" s="42"/>
       <c r="K18" s="21"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="61">
+        <f>13328.25/100*G22</f>
+        <v>9870.7320220588681</v>
+      </c>
+      <c r="P18" s="61">
+        <f t="shared" si="1"/>
+        <v>1283.1951628676529</v>
+      </c>
+      <c r="Q18" s="62">
+        <f t="shared" si="3"/>
+        <v>11153.927184926521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="38" t="str">
         <f>B11</f>
@@ -5386,7 +5558,7 @@
         <v>0.46</v>
       </c>
       <c r="G19" s="40">
-        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
+        <f t="shared" ref="G19:G21" si="4">PRODUCT(C19:F19)</f>
         <v>8.9728741237427609</v>
       </c>
       <c r="H19" s="22"/>
@@ -5394,11 +5566,23 @@
       <c r="J19" s="42"/>
       <c r="K19" s="21"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="61">
+        <f>10137.6/100*G22</f>
+        <v>7507.7773111116612</v>
+      </c>
+      <c r="P19" s="61">
+        <f t="shared" si="1"/>
+        <v>976.01105044451594</v>
+      </c>
+      <c r="Q19" s="62">
+        <f t="shared" si="3"/>
+        <v>8483.7883615561768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="38"/>
       <c r="C20" s="19">
@@ -5415,7 +5599,7 @@
         <v>0.46</v>
       </c>
       <c r="G20" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.8863151478207856</v>
       </c>
       <c r="H20" s="22"/>
@@ -5423,11 +5607,23 @@
       <c r="J20" s="42"/>
       <c r="K20" s="21"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="61">
+        <f>3300/100*G22</f>
+        <v>2443.9379267941604</v>
+      </c>
+      <c r="P20" s="61">
+        <f t="shared" si="1"/>
+        <v>317.71193048324085</v>
+      </c>
+      <c r="Q20" s="62">
+        <f t="shared" si="3"/>
+        <v>2761.6498572774012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="38" t="str">
         <f>B13</f>
@@ -5447,7 +5643,7 @@
         <v>0.3</v>
       </c>
       <c r="G21" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.72</v>
       </c>
       <c r="H21" s="22"/>
@@ -5455,11 +5651,23 @@
       <c r="J21" s="42"/>
       <c r="K21" s="21"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" s="61">
+        <f>105000*G50</f>
+        <v>103901.21851738967</v>
+      </c>
+      <c r="P21" s="61">
+        <f t="shared" si="1"/>
+        <v>13507.158407260658</v>
+      </c>
+      <c r="Q21" s="62">
+        <f t="shared" ref="Q21" si="5">O21+P21</f>
+        <v>117408.37692465034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -5473,7 +5681,7 @@
         <v>74.058725054368495</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I22" s="23">
         <v>915.42</v>
@@ -5484,11 +5692,23 @@
       </c>
       <c r="K22" s="21"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" s="61">
+        <f>1200*G50</f>
+        <v>1187.4424973415962</v>
+      </c>
+      <c r="P22" s="61">
+        <f t="shared" si="1"/>
+        <v>154.3675246544075</v>
+      </c>
+      <c r="Q22" s="62">
+        <f t="shared" ref="Q22" si="6">O22+P22</f>
+        <v>1341.8100219960038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
         <v>37</v>
@@ -5506,11 +5726,12 @@
       </c>
       <c r="K23" s="21"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="66"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="62"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="38"/>
       <c r="C24" s="19"/>
@@ -5523,11 +5744,12 @@
       <c r="J24" s="42"/>
       <c r="K24" s="21"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="N24" s="66"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="62"/>
+    </row>
+    <row r="25" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>3</v>
       </c>
@@ -5556,7 +5778,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="38" t="s">
         <v>64</v>
@@ -5577,8 +5799,8 @@
         <f>PRODUCT(C26:E26)</f>
         <v>92.474065043403641</v>
       </c>
-      <c r="G26" s="88">
-        <f t="shared" ref="G26:G36" si="2">F26/1000</f>
+      <c r="G26" s="64">
+        <f t="shared" ref="G26:G36" si="7">F26/1000</f>
         <v>9.2474065043403636E-2</v>
       </c>
       <c r="H26" s="22"/>
@@ -5590,7 +5812,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="38" t="s">
         <v>63</v>
@@ -5604,15 +5826,15 @@
         <v>9.7531240475464784</v>
       </c>
       <c r="E27" s="21">
-        <f t="shared" ref="E27:E36" si="3">8*8/162</f>
+        <f t="shared" ref="E27:E36" si="8">8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
       <c r="F27" s="40">
-        <f t="shared" ref="F27:F36" si="4">PRODUCT(C27:E27)</f>
+        <f t="shared" ref="F27:F36" si="9">PRODUCT(C27:E27)</f>
         <v>150.27035569553092</v>
       </c>
-      <c r="G27" s="88">
-        <f t="shared" si="2"/>
+      <c r="G27" s="64">
+        <f t="shared" si="7"/>
         <v>0.15027035569553093</v>
       </c>
       <c r="H27" s="22"/>
@@ -5624,7 +5846,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="38" t="s">
         <v>62</v>
@@ -5638,15 +5860,15 @@
         <v>5.790917403230722</v>
       </c>
       <c r="E28" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>157.85611884362262</v>
       </c>
-      <c r="G28" s="88">
-        <f t="shared" si="2"/>
+      <c r="G28" s="64">
+        <f t="shared" si="7"/>
         <v>0.15785611884362263</v>
       </c>
       <c r="H28" s="22"/>
@@ -5664,7 +5886,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="38" t="s">
         <v>65</v>
@@ -5677,15 +5899,15 @@
         <v>5.790917403230722</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>68.633095149401143</v>
       </c>
-      <c r="G29" s="88">
-        <f t="shared" si="2"/>
+      <c r="G29" s="64">
+        <f t="shared" si="7"/>
         <v>6.8633095149401149E-2</v>
       </c>
       <c r="H29" s="22"/>
@@ -5697,7 +5919,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="38" t="s">
         <v>66</v>
@@ -5710,15 +5932,15 @@
         <v>2.1587930508991162</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F30" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.7928477090318</v>
       </c>
-      <c r="G30" s="88">
-        <f t="shared" si="2"/>
+      <c r="G30" s="64">
+        <f t="shared" si="7"/>
         <v>1.27928477090318E-2</v>
       </c>
       <c r="H30" s="22"/>
@@ -5730,7 +5952,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="38"/>
       <c r="C31" s="19">
@@ -5741,15 +5963,15 @@
         <v>1.9811033221578787</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F31" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.739871538713354</v>
       </c>
-      <c r="G31" s="88">
-        <f t="shared" si="2"/>
+      <c r="G31" s="64">
+        <f t="shared" si="7"/>
         <v>1.1739871538713354E-2</v>
       </c>
       <c r="H31" s="22"/>
@@ -5761,7 +5983,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="38"/>
       <c r="C32" s="19">
@@ -5772,15 +5994,15 @@
         <v>1.929289850655288</v>
       </c>
       <c r="E32" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F32" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.432828744623929</v>
       </c>
-      <c r="G32" s="88">
-        <f t="shared" si="2"/>
+      <c r="G32" s="64">
+        <f t="shared" si="7"/>
         <v>1.1432828744623929E-2</v>
       </c>
       <c r="H32" s="22"/>
@@ -5805,15 +6027,15 @@
         <v>2.1081987199024685</v>
       </c>
       <c r="E33" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F33" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.493029451273888</v>
       </c>
-      <c r="G33" s="88">
-        <f t="shared" si="2"/>
+      <c r="G33" s="64">
+        <f t="shared" si="7"/>
         <v>1.2493029451273887E-2</v>
       </c>
       <c r="H33" s="22"/>
@@ -5836,15 +6058,15 @@
         <v>1.8540079244132885</v>
       </c>
       <c r="E34" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F34" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.98671362615282</v>
       </c>
-      <c r="G34" s="88">
-        <f t="shared" si="2"/>
+      <c r="G34" s="64">
+        <f t="shared" si="7"/>
         <v>1.0986713626152821E-2</v>
       </c>
       <c r="H34" s="22"/>
@@ -5867,15 +6089,15 @@
         <v>1.8540079244132885</v>
       </c>
       <c r="E35" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F35" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.98671362615282</v>
       </c>
-      <c r="G35" s="88">
-        <f t="shared" si="2"/>
+      <c r="G35" s="64">
+        <f t="shared" si="7"/>
         <v>1.0986713626152821E-2</v>
       </c>
       <c r="H35" s="22"/>
@@ -5898,15 +6120,15 @@
         <v>1.9811033221578787</v>
       </c>
       <c r="E36" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F36" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.739871538713354</v>
       </c>
-      <c r="G36" s="88">
-        <f t="shared" si="2"/>
+      <c r="G36" s="64">
+        <f t="shared" si="7"/>
         <v>1.1739871538713354E-2</v>
       </c>
       <c r="H36" s="22"/>
@@ -5937,11 +6159,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F37" s="40">
-        <f t="shared" ref="F37:F38" si="5">PRODUCT(C37:E37)</f>
+        <f t="shared" ref="F37:F38" si="10">PRODUCT(C37:E37)</f>
         <v>86.69443597819091</v>
       </c>
-      <c r="G37" s="88">
-        <f t="shared" ref="G37:G38" si="6">F37/1000</f>
+      <c r="G37" s="64">
+        <f t="shared" ref="G37:G38" si="11">F37/1000</f>
         <v>8.6694435978190904E-2</v>
       </c>
       <c r="H37" s="22"/>
@@ -5982,11 +6204,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F38" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>61.76978563446103</v>
       </c>
-      <c r="G38" s="88">
-        <f t="shared" si="6"/>
+      <c r="G38" s="64">
+        <f t="shared" si="11"/>
         <v>6.1769785634461033E-2</v>
       </c>
       <c r="H38" s="22"/>
@@ -6015,14 +6237,14 @@
         <v>1.1053794574824747</v>
       </c>
       <c r="E39" s="21">
-        <f t="shared" ref="E39:E49" si="7">8*8/162</f>
+        <f t="shared" ref="E39:E49" si="12">8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
       <c r="F39" s="40">
         <f>PRODUCT(C39:E39)</f>
         <v>52.403174280650653</v>
       </c>
-      <c r="G39" s="88">
+      <c r="G39" s="64">
         <f>F39/1000</f>
         <v>5.2403174280650652E-2</v>
       </c>
@@ -6047,14 +6269,14 @@
         <v>1.1053794574824747</v>
       </c>
       <c r="E40" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F40" s="40">
         <f>PRODUCT(C40:E40)</f>
         <v>47.162856852585584</v>
       </c>
-      <c r="G40" s="88">
+      <c r="G40" s="64">
         <f>F40/1000</f>
         <v>4.7162856852585582E-2</v>
       </c>
@@ -6084,11 +6306,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F41" s="40">
-        <f t="shared" ref="F41:F47" si="8">PRODUCT(C41:E41)</f>
+        <f t="shared" ref="F41:F47" si="13">PRODUCT(C41:E41)</f>
         <v>12.597785228080866</v>
       </c>
-      <c r="G41" s="88">
-        <f t="shared" ref="G41:G49" si="9">F41/1000</f>
+      <c r="G41" s="64">
+        <f t="shared" ref="G41:G49" si="14">F41/1000</f>
         <v>1.2597785228080867E-2</v>
       </c>
       <c r="H41" s="22"/>
@@ -6115,11 +6337,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.3480646144468147</v>
       </c>
-      <c r="G42" s="88">
-        <f t="shared" si="9"/>
+      <c r="G42" s="64">
+        <f t="shared" si="14"/>
         <v>2.3480646144468146E-3</v>
       </c>
       <c r="H42" s="22"/>
@@ -6142,15 +6364,15 @@
         <v>5.790917403230722</v>
       </c>
       <c r="E43" s="21">
-        <f t="shared" ref="E43:E46" si="10">12*12/162</f>
+        <f t="shared" ref="E43:E46" si="15">12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="F43" s="40">
-        <f t="shared" ref="F43:F46" si="11">PRODUCT(C43:E43)</f>
+        <f t="shared" ref="F43:F46" si="16">PRODUCT(C43:E43)</f>
         <v>5.1474821362050855</v>
       </c>
-      <c r="G43" s="88">
-        <f t="shared" ref="G43:G46" si="12">F43/1000</f>
+      <c r="G43" s="64">
+        <f t="shared" ref="G43:G46" si="17">F43/1000</f>
         <v>5.1474821362050855E-3</v>
       </c>
       <c r="H43" s="22"/>
@@ -6173,15 +6395,15 @@
         <v>2.3367875647668392</v>
       </c>
       <c r="E44" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="F44" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.0771445020149679</v>
       </c>
-      <c r="G44" s="88">
-        <f t="shared" si="12"/>
+      <c r="G44" s="64">
+        <f t="shared" si="17"/>
         <v>2.0771445020149677E-3</v>
       </c>
       <c r="H44" s="22"/>
@@ -6204,15 +6426,15 @@
         <v>2.7430661383724475</v>
       </c>
       <c r="E45" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="F45" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.8765620237732401</v>
       </c>
-      <c r="G45" s="88">
-        <f t="shared" si="12"/>
+      <c r="G45" s="64">
+        <f t="shared" si="17"/>
         <v>4.8765620237732404E-3</v>
       </c>
       <c r="H45" s="22"/>
@@ -6235,15 +6457,15 @@
         <v>2.7430661383724475</v>
       </c>
       <c r="E46" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="F46" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.8765620237732401</v>
       </c>
-      <c r="G46" s="88">
-        <f t="shared" si="12"/>
+      <c r="G46" s="64">
+        <f t="shared" si="17"/>
         <v>4.8765620237732404E-3</v>
       </c>
       <c r="H46" s="22"/>
@@ -6269,15 +6491,15 @@
         <v>3.5050289545870159</v>
       </c>
       <c r="E47" s="21">
-        <f t="shared" ref="E47" si="13">12*12/162</f>
+        <f t="shared" ref="E47" si="18">12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="F47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>149.54790206237934</v>
       </c>
-      <c r="G47" s="88">
-        <f t="shared" si="9"/>
+      <c r="G47" s="64">
+        <f t="shared" si="14"/>
         <v>0.14954790206237933</v>
       </c>
       <c r="H47" s="22"/>
@@ -6303,15 +6525,15 @@
         <v>1.07</v>
       </c>
       <c r="E48" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F48" s="40">
         <f>PRODUCT(C48:E48)</f>
         <v>5.0725925925925921</v>
       </c>
-      <c r="G48" s="88">
-        <f t="shared" si="9"/>
+      <c r="G48" s="64">
+        <f t="shared" si="14"/>
         <v>5.0725925925925921E-3</v>
       </c>
       <c r="H48" s="22"/>
@@ -6335,15 +6557,15 @@
         <v>0.75</v>
       </c>
       <c r="E49" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F49" s="40">
         <f>PRODUCT(C49:E49)</f>
         <v>3.5555555555555554</v>
       </c>
-      <c r="G49" s="88">
-        <f t="shared" si="9"/>
+      <c r="G49" s="64">
+        <f t="shared" si="14"/>
         <v>3.5555555555555553E-3</v>
       </c>
       <c r="H49" s="22"/>
@@ -6364,7 +6586,7 @@
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
-      <c r="G50" s="89">
+      <c r="G50" s="65">
         <f>SUM(G26:G49)</f>
         <v>0.9895354144513302</v>
       </c>
@@ -6437,7 +6659,7 @@
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
       <c r="G53" s="33">
-        <f t="shared" ref="G53" si="14">PRODUCT(C53:F53)</f>
+        <f t="shared" ref="G53" si="19">PRODUCT(C53:F53)</f>
         <v>1</v>
       </c>
       <c r="H53" s="22" t="s">
@@ -6509,11 +6731,11 @@
       <c r="B57" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="70">
+      <c r="C57" s="73">
         <f>J55</f>
         <v>351068.54966387467</v>
       </c>
-      <c r="D57" s="70"/>
+      <c r="D57" s="73"/>
       <c r="E57" s="40">
         <v>100</v>
       </c>
@@ -6529,10 +6751,10 @@
       <c r="B58" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="73">
+      <c r="C58" s="76">
         <v>300000</v>
       </c>
-      <c r="D58" s="73"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="40"/>
       <c r="F58" s="46"/>
       <c r="G58" s="45"/>
@@ -6546,11 +6768,11 @@
       <c r="B59" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="73">
+      <c r="C59" s="76">
         <f>C58-C61-C62</f>
         <v>285000</v>
       </c>
-      <c r="D59" s="73"/>
+      <c r="D59" s="76"/>
       <c r="E59" s="40">
         <f>C59/C57*100</f>
         <v>81.180726747773051</v>
@@ -6567,11 +6789,11 @@
       <c r="B60" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="70">
+      <c r="C60" s="73">
         <f>C57-C59</f>
         <v>66068.54966387467</v>
       </c>
-      <c r="D60" s="70"/>
+      <c r="D60" s="73"/>
       <c r="E60" s="40">
         <f>100-E59</f>
         <v>18.819273252226949</v>
@@ -6588,11 +6810,11 @@
       <c r="B61" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="70">
+      <c r="C61" s="73">
         <f>C58*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D61" s="70"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="40">
         <v>3</v>
       </c>
@@ -6608,11 +6830,11 @@
       <c r="B62" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="70">
+      <c r="C62" s="73">
         <f>C58*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D62" s="70"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="40">
         <v>2</v>
       </c>
@@ -6670,8 +6892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6690,113 +6912,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -7204,7 +7426,7 @@
         <v>74.058725054368495</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I22" s="23">
         <v>915.42</v>
@@ -7304,7 +7526,7 @@
         <f>PRODUCT(C26:E26)</f>
         <v>92.474065043403641</v>
       </c>
-      <c r="G26" s="88">
+      <c r="G26" s="64">
         <f t="shared" ref="G26:G38" si="2">F26/1000</f>
         <v>9.2474065043403636E-2</v>
       </c>
@@ -7338,7 +7560,7 @@
         <f t="shared" ref="F27:F38" si="4">PRODUCT(C27:E27)</f>
         <v>150.27035569553092</v>
       </c>
-      <c r="G27" s="88">
+      <c r="G27" s="64">
         <f t="shared" si="2"/>
         <v>0.15027035569553093</v>
       </c>
@@ -7372,7 +7594,7 @@
         <f t="shared" si="4"/>
         <v>157.85611884362262</v>
       </c>
-      <c r="G28" s="88">
+      <c r="G28" s="64">
         <f t="shared" si="2"/>
         <v>0.15785611884362263</v>
       </c>
@@ -7411,7 +7633,7 @@
         <f t="shared" si="4"/>
         <v>68.633095149401143</v>
       </c>
-      <c r="G29" s="88">
+      <c r="G29" s="64">
         <f t="shared" si="2"/>
         <v>6.8633095149401149E-2</v>
       </c>
@@ -7444,7 +7666,7 @@
         <f t="shared" si="4"/>
         <v>12.7928477090318</v>
       </c>
-      <c r="G30" s="88">
+      <c r="G30" s="64">
         <f t="shared" si="2"/>
         <v>1.27928477090318E-2</v>
       </c>
@@ -7475,7 +7697,7 @@
         <f t="shared" si="4"/>
         <v>11.739871538713354</v>
       </c>
-      <c r="G31" s="88">
+      <c r="G31" s="64">
         <f t="shared" si="2"/>
         <v>1.1739871538713354E-2</v>
       </c>
@@ -7506,7 +7728,7 @@
         <f t="shared" si="4"/>
         <v>11.432828744623929</v>
       </c>
-      <c r="G32" s="88">
+      <c r="G32" s="64">
         <f t="shared" si="2"/>
         <v>1.1432828744623929E-2</v>
       </c>
@@ -7539,7 +7761,7 @@
         <f t="shared" si="4"/>
         <v>12.493029451273888</v>
       </c>
-      <c r="G33" s="88">
+      <c r="G33" s="64">
         <f t="shared" si="2"/>
         <v>1.2493029451273887E-2</v>
       </c>
@@ -7570,7 +7792,7 @@
         <f t="shared" si="4"/>
         <v>10.98671362615282</v>
       </c>
-      <c r="G34" s="88">
+      <c r="G34" s="64">
         <f t="shared" si="2"/>
         <v>1.0986713626152821E-2</v>
       </c>
@@ -7601,7 +7823,7 @@
         <f t="shared" si="4"/>
         <v>10.98671362615282</v>
       </c>
-      <c r="G35" s="88">
+      <c r="G35" s="64">
         <f t="shared" si="2"/>
         <v>1.0986713626152821E-2</v>
       </c>
@@ -7632,7 +7854,7 @@
         <f t="shared" si="4"/>
         <v>11.739871538713354</v>
       </c>
-      <c r="G36" s="88">
+      <c r="G36" s="64">
         <f t="shared" si="2"/>
         <v>1.1739871538713354E-2</v>
       </c>
@@ -7667,7 +7889,7 @@
         <f t="shared" si="4"/>
         <v>86.69443597819091</v>
       </c>
-      <c r="G37" s="88">
+      <c r="G37" s="64">
         <f t="shared" si="2"/>
         <v>8.6694435978190904E-2</v>
       </c>
@@ -7712,7 +7934,7 @@
         <f t="shared" si="4"/>
         <v>61.76978563446103</v>
       </c>
-      <c r="G38" s="88">
+      <c r="G38" s="64">
         <f t="shared" si="2"/>
         <v>6.1769785634461033E-2</v>
       </c>
@@ -7749,7 +7971,7 @@
         <f>PRODUCT(C39:E39)</f>
         <v>52.403174280650653</v>
       </c>
-      <c r="G39" s="88">
+      <c r="G39" s="64">
         <f>F39/1000</f>
         <v>5.2403174280650652E-2</v>
       </c>
@@ -7781,7 +8003,7 @@
         <f>PRODUCT(C40:E40)</f>
         <v>47.162856852585584</v>
       </c>
-      <c r="G40" s="88">
+      <c r="G40" s="64">
         <f>F40/1000</f>
         <v>4.7162856852585582E-2</v>
       </c>
@@ -7814,7 +8036,7 @@
         <f t="shared" ref="F41:F47" si="6">PRODUCT(C41:E41)</f>
         <v>12.597785228080866</v>
       </c>
-      <c r="G41" s="88">
+      <c r="G41" s="64">
         <f t="shared" ref="G41:G49" si="7">F41/1000</f>
         <v>1.2597785228080867E-2</v>
       </c>
@@ -7845,7 +8067,7 @@
         <f t="shared" si="6"/>
         <v>2.3480646144468147</v>
       </c>
-      <c r="G42" s="88">
+      <c r="G42" s="64">
         <f t="shared" si="7"/>
         <v>2.3480646144468146E-3</v>
       </c>
@@ -7876,7 +8098,7 @@
         <f t="shared" si="6"/>
         <v>5.1474821362050855</v>
       </c>
-      <c r="G43" s="88">
+      <c r="G43" s="64">
         <f t="shared" si="7"/>
         <v>5.1474821362050855E-3</v>
       </c>
@@ -7907,7 +8129,7 @@
         <f t="shared" si="6"/>
         <v>2.0771445020149679</v>
       </c>
-      <c r="G44" s="88">
+      <c r="G44" s="64">
         <f t="shared" si="7"/>
         <v>2.0771445020149677E-3</v>
       </c>
@@ -7938,7 +8160,7 @@
         <f t="shared" si="6"/>
         <v>4.8765620237732401</v>
       </c>
-      <c r="G45" s="88">
+      <c r="G45" s="64">
         <f t="shared" si="7"/>
         <v>4.8765620237732404E-3</v>
       </c>
@@ -7969,7 +8191,7 @@
         <f t="shared" si="6"/>
         <v>4.8765620237732401</v>
       </c>
-      <c r="G46" s="88">
+      <c r="G46" s="64">
         <f t="shared" si="7"/>
         <v>4.8765620237732404E-3</v>
       </c>
@@ -8003,7 +8225,7 @@
         <f t="shared" si="6"/>
         <v>149.54790206237934</v>
       </c>
-      <c r="G47" s="88">
+      <c r="G47" s="64">
         <f t="shared" si="7"/>
         <v>0.14954790206237933</v>
       </c>
@@ -8037,7 +8259,7 @@
         <f>PRODUCT(C48:E48)</f>
         <v>5.0725925925925921</v>
       </c>
-      <c r="G48" s="88">
+      <c r="G48" s="64">
         <f t="shared" si="7"/>
         <v>5.0725925925925921E-3</v>
       </c>
@@ -8069,7 +8291,7 @@
         <f>PRODUCT(C49:E49)</f>
         <v>3.5555555555555554</v>
       </c>
-      <c r="G49" s="88">
+      <c r="G49" s="64">
         <f t="shared" si="7"/>
         <v>3.5555555555555553E-3</v>
       </c>
@@ -8091,7 +8313,7 @@
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
-      <c r="G50" s="89">
+      <c r="G50" s="65">
         <f>SUM(G26:G49)</f>
         <v>0.9895354144513302</v>
       </c>
@@ -8236,11 +8458,11 @@
       <c r="B57" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="70">
+      <c r="C57" s="73">
         <f>J55</f>
         <v>351068.54966387467</v>
       </c>
-      <c r="D57" s="70"/>
+      <c r="D57" s="73"/>
       <c r="E57" s="40">
         <v>100</v>
       </c>
@@ -8256,10 +8478,10 @@
       <c r="B58" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="73">
+      <c r="C58" s="76">
         <v>300000</v>
       </c>
-      <c r="D58" s="73"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="40"/>
       <c r="F58" s="46"/>
       <c r="G58" s="45"/>
@@ -8273,11 +8495,11 @@
       <c r="B59" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="73">
+      <c r="C59" s="76">
         <f>C58-C61-C62</f>
         <v>285000</v>
       </c>
-      <c r="D59" s="73"/>
+      <c r="D59" s="76"/>
       <c r="E59" s="40">
         <f>C59/C57*100</f>
         <v>81.180726747773051</v>
@@ -8294,11 +8516,11 @@
       <c r="B60" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="70">
+      <c r="C60" s="73">
         <f>C57-C59</f>
         <v>66068.54966387467</v>
       </c>
-      <c r="D60" s="70"/>
+      <c r="D60" s="73"/>
       <c r="E60" s="40">
         <f>100-E59</f>
         <v>18.819273252226949</v>
@@ -8315,11 +8537,11 @@
       <c r="B61" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="70">
+      <c r="C61" s="73">
         <f>C58*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D61" s="70"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="40">
         <v>3</v>
       </c>
@@ -8335,11 +8557,11 @@
       <c r="B62" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="70">
+      <c r="C62" s="73">
         <f>C58*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D62" s="70"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="40">
         <v>2</v>
       </c>

--- a/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
+++ b/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kalimasta mandir final" sheetId="17" state="hidden" r:id="rId1"/>
@@ -716,6 +716,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -732,31 +742,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,6 +769,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1424,113 +1424,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2615,11 +2615,11 @@
       <c r="B47" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="67">
         <f>J45</f>
         <v>345993.93824887183</v>
       </c>
-      <c r="D47" s="73"/>
+      <c r="D47" s="67"/>
       <c r="E47" s="40">
         <v>100</v>
       </c>
@@ -2635,10 +2635,10 @@
       <c r="B48" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="70">
         <v>300000</v>
       </c>
-      <c r="D48" s="76"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="40"/>
       <c r="F48" s="46"/>
       <c r="G48" s="45"/>
@@ -2652,11 +2652,11 @@
       <c r="B49" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="70">
         <f>C48-C51-C52</f>
         <v>285000</v>
       </c>
-      <c r="D49" s="76"/>
+      <c r="D49" s="70"/>
       <c r="E49" s="40">
         <f>C49/C47*100</f>
         <v>82.371385302999386</v>
@@ -2673,11 +2673,11 @@
       <c r="B50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="67">
         <f>C47-C49</f>
         <v>60993.938248871826</v>
       </c>
-      <c r="D50" s="73"/>
+      <c r="D50" s="67"/>
       <c r="E50" s="40">
         <f>100-E49</f>
         <v>17.628614697000614</v>
@@ -2694,11 +2694,11 @@
       <c r="B51" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="67">
         <f>C48*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D51" s="73"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="40">
         <v>3</v>
       </c>
@@ -2714,11 +2714,11 @@
       <c r="B52" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="73">
+      <c r="C52" s="67">
         <f>C48*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D52" s="73"/>
+      <c r="D52" s="67"/>
       <c r="E52" s="40">
         <v>2</v>
       </c>
@@ -2800,6 +2800,13 @@
     <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A7:F7"/>
@@ -2808,13 +2815,6 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -2831,7 +2831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -2851,113 +2851,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -4199,11 +4199,11 @@
       <c r="B50" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="67">
         <f>J48</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="D50" s="73"/>
+      <c r="D50" s="67"/>
       <c r="E50" s="40">
         <v>100</v>
       </c>
@@ -4219,10 +4219,10 @@
       <c r="B51" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="76">
+      <c r="C51" s="70">
         <v>300000</v>
       </c>
-      <c r="D51" s="76"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="40"/>
       <c r="F51" s="46"/>
       <c r="G51" s="45"/>
@@ -4236,11 +4236,11 @@
       <c r="B52" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="76">
+      <c r="C52" s="70">
         <f>C51-C54-C55</f>
         <v>285000</v>
       </c>
-      <c r="D52" s="76"/>
+      <c r="D52" s="70"/>
       <c r="E52" s="40">
         <f>C52/C50*100</f>
         <v>82.792054089654883</v>
@@ -4257,11 +4257,11 @@
       <c r="B53" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="73">
+      <c r="C53" s="67">
         <f>C50-C52</f>
         <v>59235.93318674725</v>
       </c>
-      <c r="D53" s="73"/>
+      <c r="D53" s="67"/>
       <c r="E53" s="40">
         <f>100-E52</f>
         <v>17.207945910345117</v>
@@ -4278,11 +4278,11 @@
       <c r="B54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="73">
+      <c r="C54" s="67">
         <f>C51*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D54" s="73"/>
+      <c r="D54" s="67"/>
       <c r="E54" s="40">
         <v>3</v>
       </c>
@@ -4298,11 +4298,11 @@
       <c r="B55" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="73">
+      <c r="C55" s="67">
         <f>C51*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D55" s="73"/>
+      <c r="D55" s="67"/>
       <c r="E55" s="40">
         <v>2</v>
       </c>
@@ -4384,13 +4384,6 @@
     <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A7:F7"/>
@@ -4399,6 +4392,13 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -4415,7 +4415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -4435,90 +4435,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="77">
+      <c r="C6" s="86">
         <f>F24</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="D6" s="78"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -4526,11 +4526,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="77">
+      <c r="J6" s="86">
         <f>I24</f>
         <v>351068.54966387467</v>
       </c>
-      <c r="K6" s="78"/>
+      <c r="K6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -4539,77 +4539,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="I7" s="85" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="I7" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="str">
+      <c r="A8" s="71" t="str">
         <f>'kalimasta mandir final (2)'!A6:F6</f>
         <v>Project:- कालीमस्ट मन्दिर निर्माण</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="I8" s="86" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="I8" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="87" t="str">
+      <c r="A9" s="82" t="str">
         <f>'kalimasta mandir final (2)'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="I9" s="86" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="I9" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90" t="s">
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="82" t="s">
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="83" t="s">
+      <c r="K11" s="78" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -4628,8 +4628,8 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
@@ -4956,6 +4956,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -4969,16 +4976,9 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;LPrepared By:
@@ -4993,7 +4993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -5016,113 +5016,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -6731,11 +6731,11 @@
       <c r="B57" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="73">
+      <c r="C57" s="67">
         <f>J55</f>
         <v>351068.54966387467</v>
       </c>
-      <c r="D57" s="73"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="40">
         <v>100</v>
       </c>
@@ -6751,10 +6751,10 @@
       <c r="B58" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="70">
         <v>300000</v>
       </c>
-      <c r="D58" s="76"/>
+      <c r="D58" s="70"/>
       <c r="E58" s="40"/>
       <c r="F58" s="46"/>
       <c r="G58" s="45"/>
@@ -6768,11 +6768,11 @@
       <c r="B59" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="76">
+      <c r="C59" s="70">
         <f>C58-C61-C62</f>
         <v>285000</v>
       </c>
-      <c r="D59" s="76"/>
+      <c r="D59" s="70"/>
       <c r="E59" s="40">
         <f>C59/C57*100</f>
         <v>81.180726747773051</v>
@@ -6789,11 +6789,11 @@
       <c r="B60" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="73">
+      <c r="C60" s="67">
         <f>C57-C59</f>
         <v>66068.54966387467</v>
       </c>
-      <c r="D60" s="73"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="40">
         <f>100-E59</f>
         <v>18.819273252226949</v>
@@ -6810,11 +6810,11 @@
       <c r="B61" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="73">
+      <c r="C61" s="67">
         <f>C58*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D61" s="73"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="40">
         <v>3</v>
       </c>
@@ -6830,11 +6830,1738 @@
       <c r="B62" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="73">
+      <c r="C62" s="67">
         <f>C58*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D62" s="73"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="40">
+        <v>2</v>
+      </c>
+      <c r="F62" s="46"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="46"/>
+    </row>
+    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+    </row>
+    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q64"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="21"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E10" s="21">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="40">
+        <f>PRODUCT(C10:F10)</f>
+        <v>7.0599419728506199</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G11" s="40">
+        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
+        <v>1.0318805242304177</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="19">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20">
+        <f>18.75/3.281</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="0"/>
+        <v>0.90692624199939043</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="21"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23">
+        <f>SUM(G10:G13)</f>
+        <v>9.0527487390804282</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="23">
+        <v>13568.9</v>
+      </c>
+      <c r="J14" s="42">
+        <f>G14*I14</f>
+        <v>122835.84236570842</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="42">
+        <f>0.13*G14*9524.2</f>
+        <v>11208.624640297478</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>2</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="38" t="str">
+        <f>B10</f>
+        <v>-slab</v>
+      </c>
+      <c r="C18" s="19">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E18" s="21">
+        <f>E10</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="40">
+        <f>PRODUCT(C18:F18)</f>
+        <v>56.479535782804959</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="38" t="str">
+        <f>B11</f>
+        <v>-beam</v>
+      </c>
+      <c r="C19" s="19">
+        <f>C11</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="20">
+        <f>D11</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21">
+        <f>F11*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G19" s="40">
+        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
+        <v>8.9728741237427609</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="19">
+        <f>C12</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="20">
+        <f>D12</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <f>F12*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G20" s="40">
+        <f t="shared" si="1"/>
+        <v>7.8863151478207856</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="38" t="str">
+        <f>B13</f>
+        <v>-column</v>
+      </c>
+      <c r="C21" s="19">
+        <f>C13</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="20">
+        <f>D13*4</f>
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21">
+        <f>F13</f>
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="40">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23">
+        <f>SUM(G18:G21)</f>
+        <v>74.058725054368495</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="23">
+        <v>915.42</v>
+      </c>
+      <c r="J22" s="42">
+        <f>G22*I22</f>
+        <v>67794.838089270008</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="42">
+        <f>0.13*G22*46827.87/100</f>
+        <v>4508.4160539752247</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>3</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="19">
+        <f>5+5+7+7</f>
+        <v>24</v>
+      </c>
+      <c r="D26" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E26" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F26" s="40">
+        <f>PRODUCT(C26:E26)</f>
+        <v>92.474065043403641</v>
+      </c>
+      <c r="G26" s="64">
+        <f t="shared" ref="G26:G38" si="2">F26/1000</f>
+        <v>9.2474065043403636E-2</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="19">
+        <f>29+5+5</f>
+        <v>39</v>
+      </c>
+      <c r="D27" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" ref="E27:E36" si="3">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" ref="F27:F38" si="4">PRODUCT(C27:E27)</f>
+        <v>150.27035569553092</v>
+      </c>
+      <c r="G27" s="64">
+        <f t="shared" si="2"/>
+        <v>0.15027035569553093</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="19">
+        <f>58+5+6</f>
+        <v>69</v>
+      </c>
+      <c r="D28" s="20">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F28" s="40">
+        <f t="shared" si="4"/>
+        <v>157.85611884362262</v>
+      </c>
+      <c r="G28" s="64">
+        <f t="shared" si="2"/>
+        <v>0.15785611884362263</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="61">
+        <f>SUM(F26:F36)</f>
+        <v>551.40551096662023</v>
+      </c>
+      <c r="O28" s="61" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="19">
+        <v>30</v>
+      </c>
+      <c r="D29" s="20">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F29" s="40">
+        <f t="shared" si="4"/>
+        <v>68.633095149401143</v>
+      </c>
+      <c r="G29" s="64">
+        <f t="shared" si="2"/>
+        <v>6.8633095149401149E-2</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="19">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20">
+        <f>7.083/3.281</f>
+        <v>2.1587930508991162</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F30" s="40">
+        <f t="shared" si="4"/>
+        <v>12.7928477090318</v>
+      </c>
+      <c r="G30" s="64">
+        <f t="shared" si="2"/>
+        <v>1.27928477090318E-2</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="19">
+        <v>15</v>
+      </c>
+      <c r="D31" s="20">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="4"/>
+        <v>11.739871538713354</v>
+      </c>
+      <c r="G31" s="64">
+        <f t="shared" si="2"/>
+        <v>1.1739871538713354E-2</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="19">
+        <v>15</v>
+      </c>
+      <c r="D32" s="20">
+        <f>6.33/3.281</f>
+        <v>1.929289850655288</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="4"/>
+        <v>11.432828744623929</v>
+      </c>
+      <c r="G32" s="64">
+        <f t="shared" si="2"/>
+        <v>1.1432828744623929E-2</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="19">
+        <v>15</v>
+      </c>
+      <c r="D33" s="20">
+        <f>6.917/3.281</f>
+        <v>2.1081987199024685</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" si="4"/>
+        <v>12.493029451273888</v>
+      </c>
+      <c r="G33" s="64">
+        <f t="shared" si="2"/>
+        <v>1.2493029451273887E-2</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="19">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" si="4"/>
+        <v>10.98671362615282</v>
+      </c>
+      <c r="G34" s="64">
+        <f t="shared" si="2"/>
+        <v>1.0986713626152821E-2</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="19">
+        <v>15</v>
+      </c>
+      <c r="D35" s="20">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" si="4"/>
+        <v>10.98671362615282</v>
+      </c>
+      <c r="G35" s="64">
+        <f t="shared" si="2"/>
+        <v>1.0986713626152821E-2</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="19">
+        <v>15</v>
+      </c>
+      <c r="D36" s="20">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="4"/>
+        <v>11.739871538713354</v>
+      </c>
+      <c r="G36" s="64">
+        <f t="shared" si="2"/>
+        <v>1.1739871538713354E-2</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="38" t="str">
+        <f>B19</f>
+        <v>-beam</v>
+      </c>
+      <c r="C37" s="19">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D37" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E37" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" si="4"/>
+        <v>86.69443597819091</v>
+      </c>
+      <c r="G37" s="64">
+        <f t="shared" si="2"/>
+        <v>8.6694435978190904E-2</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="21"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="61" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O37" s="61">
+        <f>F39+F40</f>
+        <v>99.566031133236237</v>
+      </c>
+      <c r="P37" s="61">
+        <f>F48+F49</f>
+        <v>8.6281481481481475</v>
+      </c>
+      <c r="Q37" s="62" t="e">
+        <f>SUM(N37:P37)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="19">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D38" s="20">
+        <f>E10</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E38" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" si="4"/>
+        <v>61.76978563446103</v>
+      </c>
+      <c r="G38" s="64">
+        <f t="shared" si="2"/>
+        <v>6.1769785634461033E-2</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="21"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="61" t="e">
+        <f>SUM(F37+F38+F41+F42+#REF!+F47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="19">
+        <f>60*2</f>
+        <v>120</v>
+      </c>
+      <c r="D39" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" ref="E39:E49" si="5">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F39" s="40">
+        <f>PRODUCT(C39:E39)</f>
+        <v>52.403174280650653</v>
+      </c>
+      <c r="G39" s="64">
+        <f>F39/1000</f>
+        <v>5.2403174280650652E-2</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="19">
+        <f>36*3</f>
+        <v>108</v>
+      </c>
+      <c r="D40" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F40" s="40">
+        <f>PRODUCT(C40:E40)</f>
+        <v>47.162856852585584</v>
+      </c>
+      <c r="G40" s="64">
+        <f>F40/1000</f>
+        <v>4.7162856852585582E-2</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="21"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="19">
+        <v>6</v>
+      </c>
+      <c r="D41" s="20">
+        <f>7.75/3.281</f>
+        <v>2.3620847302651629</v>
+      </c>
+      <c r="E41" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F41" s="40">
+        <f t="shared" ref="F41:F47" si="6">PRODUCT(C41:E41)</f>
+        <v>12.597785228080866</v>
+      </c>
+      <c r="G41" s="64">
+        <f t="shared" ref="G41:G49" si="7">F41/1000</f>
+        <v>1.2597785228080867E-2</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="21"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20">
+        <f>8.667/3.281</f>
+        <v>2.6415726912526667</v>
+      </c>
+      <c r="E42" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F42" s="40">
+        <f t="shared" si="6"/>
+        <v>2.3480646144468147</v>
+      </c>
+      <c r="G42" s="64">
+        <f t="shared" si="7"/>
+        <v>2.3480646144468146E-3</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="21"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="20">
+        <f>D38</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E43" s="21">
+        <f t="shared" ref="E43:E47" si="8">12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F43" s="40">
+        <f t="shared" si="6"/>
+        <v>5.1474821362050855</v>
+      </c>
+      <c r="G43" s="64">
+        <f t="shared" si="7"/>
+        <v>5.1474821362050855E-3</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="21"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20">
+        <f>7.667/3.281</f>
+        <v>2.3367875647668392</v>
+      </c>
+      <c r="E44" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F44" s="40">
+        <f t="shared" si="6"/>
+        <v>2.0771445020149679</v>
+      </c>
+      <c r="G44" s="64">
+        <f t="shared" si="7"/>
+        <v>2.0771445020149677E-3</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="21"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="19">
+        <v>2</v>
+      </c>
+      <c r="D45" s="20">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E45" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F45" s="40">
+        <f t="shared" si="6"/>
+        <v>4.8765620237732401</v>
+      </c>
+      <c r="G45" s="64">
+        <f t="shared" si="7"/>
+        <v>4.8765620237732404E-3</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="21"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="19">
+        <v>2</v>
+      </c>
+      <c r="D46" s="20">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E46" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F46" s="40">
+        <f t="shared" si="6"/>
+        <v>4.8765620237732401</v>
+      </c>
+      <c r="G46" s="64">
+        <f t="shared" si="7"/>
+        <v>4.8765620237732404E-3</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="21"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="19">
+        <f>6*8</f>
+        <v>48</v>
+      </c>
+      <c r="D47" s="20">
+        <f>11.5/3.281</f>
+        <v>3.5050289545870159</v>
+      </c>
+      <c r="E47" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F47" s="40">
+        <f t="shared" si="6"/>
+        <v>149.54790206237934</v>
+      </c>
+      <c r="G47" s="64">
+        <f t="shared" si="7"/>
+        <v>0.14954790206237933</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="21"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D48" s="20">
+        <f>(0.23*4+0.075*2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="E48" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F48" s="40">
+        <f>PRODUCT(C48:E48)</f>
+        <v>5.0725925925925921</v>
+      </c>
+      <c r="G48" s="64">
+        <f t="shared" si="7"/>
+        <v>5.0725925925925921E-3</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="21"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D49" s="20">
+        <f>(0.15*4+0.075*2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E49" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F49" s="40">
+        <f>PRODUCT(C49:E49)</f>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="G49" s="64">
+        <f t="shared" si="7"/>
+        <v>3.5555555555555553E-3</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="21"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="65">
+        <f>SUM(G26:G49)</f>
+        <v>0.9895354144513302</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="23">
+        <v>131940</v>
+      </c>
+      <c r="J50" s="42">
+        <f>G50*I50</f>
+        <v>130559.30258270851</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="42">
+        <f>0.13*G50*106200</f>
+        <v>13661.525931915065</v>
+      </c>
+      <c r="K51" s="21"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="21"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
+        <v>4</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="19">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="33">
+        <f t="shared" ref="G53" si="9">PRODUCT(C53:F53)</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="23">
+        <v>500</v>
+      </c>
+      <c r="J53" s="33">
+        <f>G53*I53</f>
+        <v>500</v>
+      </c>
+      <c r="K53" s="21"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="21"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="41"/>
+      <c r="B55" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="44"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42">
+        <f>SUM(J9:J53)</f>
+        <v>351068.54966387467</v>
+      </c>
+      <c r="K55" s="37"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="55"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="54"/>
+    </row>
+    <row r="57" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="47"/>
+      <c r="B57" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="67">
+        <f>J55</f>
+        <v>351068.54966387467</v>
+      </c>
+      <c r="D57" s="67"/>
+      <c r="E57" s="40">
+        <v>100</v>
+      </c>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="52"/>
+    </row>
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="53"/>
+      <c r="B58" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="70">
+        <v>300000</v>
+      </c>
+      <c r="D58" s="70"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="46"/>
+    </row>
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="53"/>
+      <c r="B59" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="70">
+        <f>C58-C61-C62</f>
+        <v>285000</v>
+      </c>
+      <c r="D59" s="70"/>
+      <c r="E59" s="40">
+        <f>C59/C57*100</f>
+        <v>81.180726747773051</v>
+      </c>
+      <c r="F59" s="46"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="46"/>
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="53"/>
+      <c r="B60" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="67">
+        <f>C57-C59</f>
+        <v>66068.54966387467</v>
+      </c>
+      <c r="D60" s="67"/>
+      <c r="E60" s="40">
+        <f>100-E59</f>
+        <v>18.819273252226949</v>
+      </c>
+      <c r="F60" s="46"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="46"/>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="53"/>
+      <c r="B61" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="67">
+        <f>C58*0.03</f>
+        <v>9000</v>
+      </c>
+      <c r="D61" s="67"/>
+      <c r="E61" s="40">
+        <v>3</v>
+      </c>
+      <c r="F61" s="46"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="46"/>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="53"/>
+      <c r="B62" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="67">
+        <f>C58*0.02</f>
+        <v>6000</v>
+      </c>
+      <c r="D62" s="67"/>
       <c r="E62" s="40">
         <v>2</v>
       </c>
@@ -6877,1740 +8604,13 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="21"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="19">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E10" s="21">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.125</v>
-      </c>
-      <c r="G10" s="40">
-        <f>PRODUCT(C10:F10)</f>
-        <v>7.0599419728506199</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="19">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="G11" s="40">
-        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
-        <v>1.0318805242304177</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="19">
-        <v>3</v>
-      </c>
-      <c r="D12" s="20">
-        <f>18.75/3.281</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="G12" s="40">
-        <f t="shared" si="0"/>
-        <v>0.90692624199939043</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="40">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23">
-        <f>SUM(G10:G13)</f>
-        <v>9.0527487390804282</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="23">
-        <v>13568.9</v>
-      </c>
-      <c r="J14" s="42">
-        <f>G14*I14</f>
-        <v>122835.84236570842</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="42">
-        <f>0.13*G14*9524.2</f>
-        <v>11208.624640297478</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="21"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <v>2</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="21"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="38" t="str">
-        <f>B10</f>
-        <v>-slab</v>
-      </c>
-      <c r="C18" s="19">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <f>D10</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E18" s="21">
-        <f>E10</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="40">
-        <f>PRODUCT(C18:F18)</f>
-        <v>56.479535782804959</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="38" t="str">
-        <f>B11</f>
-        <v>-beam</v>
-      </c>
-      <c r="C19" s="19">
-        <f>C11</f>
-        <v>2</v>
-      </c>
-      <c r="D19" s="20">
-        <f>D11</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21">
-        <f>F11*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G19" s="40">
-        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
-        <v>8.9728741237427609</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="19">
-        <f>C12</f>
-        <v>3</v>
-      </c>
-      <c r="D20" s="20">
-        <f>D12</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <f>F12*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G20" s="40">
-        <f t="shared" si="1"/>
-        <v>7.8863151478207856</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="38" t="str">
-        <f>B13</f>
-        <v>-column</v>
-      </c>
-      <c r="C21" s="19">
-        <f>C13</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="20">
-        <f>D13*4</f>
-        <v>1.2</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21">
-        <f>F13</f>
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="40">
-        <f t="shared" si="1"/>
-        <v>0.72</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="21"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="23">
-        <f>SUM(G18:G21)</f>
-        <v>74.058725054368495</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="23">
-        <v>915.42</v>
-      </c>
-      <c r="J22" s="42">
-        <f>G22*I22</f>
-        <v>67794.838089270008</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="42">
-        <f>0.13*G22*46827.87/100</f>
-        <v>4508.4160539752247</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>3</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="19">
-        <f>5+5+7+7</f>
-        <v>24</v>
-      </c>
-      <c r="D26" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E26" s="21">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F26" s="40">
-        <f>PRODUCT(C26:E26)</f>
-        <v>92.474065043403641</v>
-      </c>
-      <c r="G26" s="64">
-        <f t="shared" ref="G26:G38" si="2">F26/1000</f>
-        <v>9.2474065043403636E-2</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="21"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="19">
-        <f>29+5+5</f>
-        <v>39</v>
-      </c>
-      <c r="D27" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E27" s="21">
-        <f t="shared" ref="E27:E36" si="3">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F27" s="40">
-        <f t="shared" ref="F27:F38" si="4">PRODUCT(C27:E27)</f>
-        <v>150.27035569553092</v>
-      </c>
-      <c r="G27" s="64">
-        <f t="shared" si="2"/>
-        <v>0.15027035569553093</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="21"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="19">
-        <f>58+5+6</f>
-        <v>69</v>
-      </c>
-      <c r="D28" s="20">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F28" s="40">
-        <f t="shared" si="4"/>
-        <v>157.85611884362262</v>
-      </c>
-      <c r="G28" s="64">
-        <f t="shared" si="2"/>
-        <v>0.15785611884362263</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="21"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="61">
-        <f>SUM(F26:F36)</f>
-        <v>551.40551096662023</v>
-      </c>
-      <c r="O28" s="61" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="19">
-        <v>30</v>
-      </c>
-      <c r="D29" s="20">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E29" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F29" s="40">
-        <f t="shared" si="4"/>
-        <v>68.633095149401143</v>
-      </c>
-      <c r="G29" s="64">
-        <f t="shared" si="2"/>
-        <v>6.8633095149401149E-2</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="21"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="19">
-        <v>15</v>
-      </c>
-      <c r="D30" s="20">
-        <f>7.083/3.281</f>
-        <v>2.1587930508991162</v>
-      </c>
-      <c r="E30" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F30" s="40">
-        <f t="shared" si="4"/>
-        <v>12.7928477090318</v>
-      </c>
-      <c r="G30" s="64">
-        <f t="shared" si="2"/>
-        <v>1.27928477090318E-2</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="19">
-        <v>15</v>
-      </c>
-      <c r="D31" s="20">
-        <f>6.5/3.281</f>
-        <v>1.9811033221578787</v>
-      </c>
-      <c r="E31" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F31" s="40">
-        <f t="shared" si="4"/>
-        <v>11.739871538713354</v>
-      </c>
-      <c r="G31" s="64">
-        <f t="shared" si="2"/>
-        <v>1.1739871538713354E-2</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="21"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="19">
-        <v>15</v>
-      </c>
-      <c r="D32" s="20">
-        <f>6.33/3.281</f>
-        <v>1.929289850655288</v>
-      </c>
-      <c r="E32" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F32" s="40">
-        <f t="shared" si="4"/>
-        <v>11.432828744623929</v>
-      </c>
-      <c r="G32" s="64">
-        <f t="shared" si="2"/>
-        <v>1.1432828744623929E-2</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="21"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="19">
-        <v>15</v>
-      </c>
-      <c r="D33" s="20">
-        <f>6.917/3.281</f>
-        <v>2.1081987199024685</v>
-      </c>
-      <c r="E33" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F33" s="40">
-        <f t="shared" si="4"/>
-        <v>12.493029451273888</v>
-      </c>
-      <c r="G33" s="64">
-        <f t="shared" si="2"/>
-        <v>1.2493029451273887E-2</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="21"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="19">
-        <v>15</v>
-      </c>
-      <c r="D34" s="20">
-        <f>6.083/3.281</f>
-        <v>1.8540079244132885</v>
-      </c>
-      <c r="E34" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F34" s="40">
-        <f t="shared" si="4"/>
-        <v>10.98671362615282</v>
-      </c>
-      <c r="G34" s="64">
-        <f t="shared" si="2"/>
-        <v>1.0986713626152821E-2</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="21"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="19">
-        <v>15</v>
-      </c>
-      <c r="D35" s="20">
-        <f>6.083/3.281</f>
-        <v>1.8540079244132885</v>
-      </c>
-      <c r="E35" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F35" s="40">
-        <f t="shared" si="4"/>
-        <v>10.98671362615282</v>
-      </c>
-      <c r="G35" s="64">
-        <f t="shared" si="2"/>
-        <v>1.0986713626152821E-2</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="21"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="19">
-        <v>15</v>
-      </c>
-      <c r="D36" s="20">
-        <f>6.5/3.281</f>
-        <v>1.9811033221578787</v>
-      </c>
-      <c r="E36" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F36" s="40">
-        <f t="shared" si="4"/>
-        <v>11.739871538713354</v>
-      </c>
-      <c r="G36" s="64">
-        <f t="shared" si="2"/>
-        <v>1.1739871538713354E-2</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="21"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="38" t="str">
-        <f>B19</f>
-        <v>-beam</v>
-      </c>
-      <c r="C37" s="19">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="D37" s="20">
-        <f>D10</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E37" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F37" s="40">
-        <f t="shared" si="4"/>
-        <v>86.69443597819091</v>
-      </c>
-      <c r="G37" s="64">
-        <f t="shared" si="2"/>
-        <v>8.6694435978190904E-2</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="21"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="61" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O37" s="61">
-        <f>F39+F40</f>
-        <v>99.566031133236237</v>
-      </c>
-      <c r="P37" s="61">
-        <f>F48+F49</f>
-        <v>8.6281481481481475</v>
-      </c>
-      <c r="Q37" s="62" t="e">
-        <f>SUM(N37:P37)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="19">
-        <f>3*4</f>
-        <v>12</v>
-      </c>
-      <c r="D38" s="20">
-        <f>E10</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E38" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F38" s="40">
-        <f t="shared" si="4"/>
-        <v>61.76978563446103</v>
-      </c>
-      <c r="G38" s="64">
-        <f t="shared" si="2"/>
-        <v>6.1769785634461033E-2</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="21"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="61" t="e">
-        <f>SUM(F37+F38+F41+F42+#REF!+F47)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="19">
-        <f>60*2</f>
-        <v>120</v>
-      </c>
-      <c r="D39" s="20">
-        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
-        <v>1.1053794574824747</v>
-      </c>
-      <c r="E39" s="21">
-        <f t="shared" ref="E39:E49" si="5">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F39" s="40">
-        <f>PRODUCT(C39:E39)</f>
-        <v>52.403174280650653</v>
-      </c>
-      <c r="G39" s="64">
-        <f>F39/1000</f>
-        <v>5.2403174280650652E-2</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="21"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="19">
-        <f>36*3</f>
-        <v>108</v>
-      </c>
-      <c r="D40" s="20">
-        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
-        <v>1.1053794574824747</v>
-      </c>
-      <c r="E40" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F40" s="40">
-        <f>PRODUCT(C40:E40)</f>
-        <v>47.162856852585584</v>
-      </c>
-      <c r="G40" s="64">
-        <f>F40/1000</f>
-        <v>4.7162856852585582E-2</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="21"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="19">
-        <v>6</v>
-      </c>
-      <c r="D41" s="20">
-        <f>7.75/3.281</f>
-        <v>2.3620847302651629</v>
-      </c>
-      <c r="E41" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F41" s="40">
-        <f t="shared" ref="F41:F47" si="6">PRODUCT(C41:E41)</f>
-        <v>12.597785228080866</v>
-      </c>
-      <c r="G41" s="64">
-        <f t="shared" ref="G41:G49" si="7">F41/1000</f>
-        <v>1.2597785228080867E-2</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="21"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="19">
-        <v>1</v>
-      </c>
-      <c r="D42" s="20">
-        <f>8.667/3.281</f>
-        <v>2.6415726912526667</v>
-      </c>
-      <c r="E42" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F42" s="40">
-        <f t="shared" si="6"/>
-        <v>2.3480646144468147</v>
-      </c>
-      <c r="G42" s="64">
-        <f t="shared" si="7"/>
-        <v>2.3480646144468146E-3</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="21"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="19">
-        <v>1</v>
-      </c>
-      <c r="D43" s="20">
-        <f>D38</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E43" s="21">
-        <f t="shared" ref="E43:E47" si="8">12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F43" s="40">
-        <f t="shared" si="6"/>
-        <v>5.1474821362050855</v>
-      </c>
-      <c r="G43" s="64">
-        <f t="shared" si="7"/>
-        <v>5.1474821362050855E-3</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="21"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="19">
-        <v>1</v>
-      </c>
-      <c r="D44" s="20">
-        <f>7.667/3.281</f>
-        <v>2.3367875647668392</v>
-      </c>
-      <c r="E44" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F44" s="40">
-        <f t="shared" si="6"/>
-        <v>2.0771445020149679</v>
-      </c>
-      <c r="G44" s="64">
-        <f t="shared" si="7"/>
-        <v>2.0771445020149677E-3</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="21"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="19">
-        <v>2</v>
-      </c>
-      <c r="D45" s="20">
-        <f>9/3.281</f>
-        <v>2.7430661383724475</v>
-      </c>
-      <c r="E45" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F45" s="40">
-        <f t="shared" si="6"/>
-        <v>4.8765620237732401</v>
-      </c>
-      <c r="G45" s="64">
-        <f t="shared" si="7"/>
-        <v>4.8765620237732404E-3</v>
-      </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="21"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="19">
-        <v>2</v>
-      </c>
-      <c r="D46" s="20">
-        <f>9/3.281</f>
-        <v>2.7430661383724475</v>
-      </c>
-      <c r="E46" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F46" s="40">
-        <f t="shared" si="6"/>
-        <v>4.8765620237732401</v>
-      </c>
-      <c r="G46" s="64">
-        <f t="shared" si="7"/>
-        <v>4.8765620237732404E-3</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="21"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="19">
-        <f>6*8</f>
-        <v>48</v>
-      </c>
-      <c r="D47" s="20">
-        <f>11.5/3.281</f>
-        <v>3.5050289545870159</v>
-      </c>
-      <c r="E47" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F47" s="40">
-        <f t="shared" si="6"/>
-        <v>149.54790206237934</v>
-      </c>
-      <c r="G47" s="64">
-        <f t="shared" si="7"/>
-        <v>0.14954790206237933</v>
-      </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="21"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="19">
-        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
-        <v>12</v>
-      </c>
-      <c r="D48" s="20">
-        <f>(0.23*4+0.075*2)</f>
-        <v>1.07</v>
-      </c>
-      <c r="E48" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F48" s="40">
-        <f>PRODUCT(C48:E48)</f>
-        <v>5.0725925925925921</v>
-      </c>
-      <c r="G48" s="64">
-        <f t="shared" si="7"/>
-        <v>5.0725925925925921E-3</v>
-      </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="21"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="19">
-        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
-        <v>12</v>
-      </c>
-      <c r="D49" s="20">
-        <f>(0.15*4+0.075*2)</f>
-        <v>0.75</v>
-      </c>
-      <c r="E49" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F49" s="40">
-        <f>PRODUCT(C49:E49)</f>
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="G49" s="64">
-        <f t="shared" si="7"/>
-        <v>3.5555555555555553E-3</v>
-      </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="21"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="65">
-        <f>SUM(G26:G49)</f>
-        <v>0.9895354144513302</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I50" s="23">
-        <v>131940</v>
-      </c>
-      <c r="J50" s="42">
-        <f>G50*I50</f>
-        <v>130559.30258270851</v>
-      </c>
-      <c r="K50" s="21"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="42">
-        <f>0.13*G50*106200</f>
-        <v>13661.525931915065</v>
-      </c>
-      <c r="K51" s="21"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="21"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18">
-        <v>4</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="19">
-        <v>1</v>
-      </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="33">
-        <f t="shared" ref="G53" si="9">PRODUCT(C53:F53)</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" s="23">
-        <v>500</v>
-      </c>
-      <c r="J53" s="33">
-        <f>G53*I53</f>
-        <v>500</v>
-      </c>
-      <c r="K53" s="21"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="21"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42">
-        <f>SUM(J9:J53)</f>
-        <v>351068.54966387467</v>
-      </c>
-      <c r="K55" s="37"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="54"/>
-    </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
-      <c r="B57" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="73">
-        <f>J55</f>
-        <v>351068.54966387467</v>
-      </c>
-      <c r="D57" s="73"/>
-      <c r="E57" s="40">
-        <v>100</v>
-      </c>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="52"/>
-    </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="76">
-        <v>300000</v>
-      </c>
-      <c r="D58" s="76"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="46"/>
-    </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="76">
-        <f>C58-C61-C62</f>
-        <v>285000</v>
-      </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="40">
-        <f>C59/C57*100</f>
-        <v>81.180726747773051</v>
-      </c>
-      <c r="F59" s="46"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="46"/>
-    </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
-      <c r="B60" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="73">
-        <f>C57-C59</f>
-        <v>66068.54966387467</v>
-      </c>
-      <c r="D60" s="73"/>
-      <c r="E60" s="40">
-        <f>100-E59</f>
-        <v>18.819273252226949</v>
-      </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="46"/>
-    </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="53"/>
-      <c r="B61" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="73">
-        <f>C58*0.03</f>
-        <v>9000</v>
-      </c>
-      <c r="D61" s="73"/>
-      <c r="E61" s="40">
-        <v>3</v>
-      </c>
-      <c r="F61" s="46"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-    </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="53"/>
-      <c r="B62" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="73">
-        <f>C58*0.02</f>
-        <v>6000</v>
-      </c>
-      <c r="D62" s="73"/>
-      <c r="E62" s="40">
-        <v>2</v>
-      </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="46"/>
-    </row>
-    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-    </row>
-    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
+++ b/ofc/estimates/Finalized valuations/kalimasta mandir/valuation kalimasta.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\Finalized valuations\kalimasta mandir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\Finalized valuations\kalimasta mandir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="kalimasta mandir final" sheetId="17" state="hidden" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'kalimasta mandir final'!$A$1:$K$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'kalimasta mandir final (2)'!$A$1:$K$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">M!$A$1:$K$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">M!$A$1:$K$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">valuated!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'kalimasta mandir final'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'kalimasta mandir final (2)'!$1:$8</definedName>
@@ -54,7 +54,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">valuated!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="94">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -293,12 +293,6 @@
     <t>Detail Quantity Measurement Sheet</t>
   </si>
   <si>
-    <t>Date:2081/07/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date:2081/07/25       </t>
-  </si>
-  <si>
     <t>Date:2081/07/04</t>
   </si>
   <si>
@@ -351,16 +345,25 @@
   </si>
   <si>
     <t xml:space="preserve">Wire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:2081/08/10       </t>
+  </si>
+  <si>
+    <t>Date:2081/08/10</t>
+  </si>
+  <si>
+    <t>Remark</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -556,9 +559,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -566,7 +569,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,14 +589,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,7 +605,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,7 +630,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +668,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -680,7 +683,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -696,7 +699,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -707,24 +710,20 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -742,6 +741,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,20 +795,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1408,131 +1420,131 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+    </row>
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1567,7 +1579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>1</v>
       </c>
@@ -1584,7 +1596,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="38" t="s">
         <v>46</v>
@@ -1618,7 +1630,7 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="38" t="s">
         <v>39</v>
@@ -1649,7 +1661,7 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="38" t="s">
         <v>37</v>
@@ -1673,7 +1685,7 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="38"/>
       <c r="C13" s="19"/>
@@ -1692,7 +1704,7 @@
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>2</v>
       </c>
@@ -1709,7 +1721,7 @@
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="38" t="s">
         <v>46</v>
@@ -1743,7 +1755,7 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="38" t="s">
         <v>39</v>
@@ -1774,7 +1786,7 @@
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="38" t="s">
         <v>37</v>
@@ -1798,7 +1810,7 @@
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="38"/>
       <c r="C18" s="19"/>
@@ -1817,7 +1829,7 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
     </row>
-    <row r="19" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>3</v>
       </c>
@@ -1840,7 +1852,7 @@
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="38" t="s">
         <v>49</v>
@@ -1874,7 +1886,7 @@
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="38" t="s">
         <v>50</v>
@@ -1907,7 +1919,7 @@
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
     </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="38"/>
       <c r="C22" s="19">
@@ -1938,7 +1950,7 @@
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
         <v>39</v>
@@ -1969,7 +1981,7 @@
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
     </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -1993,7 +2005,7 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="25"/>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="38"/>
       <c r="C25" s="19"/>
@@ -2012,7 +2024,7 @@
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
     </row>
-    <row r="26" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>4</v>
       </c>
@@ -2035,7 +2047,7 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="38" t="str">
         <f>B20</f>
@@ -2069,7 +2081,7 @@
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="38" t="str">
         <f>B21</f>
@@ -2103,7 +2115,7 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="25"/>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="38"/>
       <c r="C29" s="19">
@@ -2134,7 +2146,7 @@
       <c r="Q29" s="25"/>
       <c r="R29" s="25"/>
     </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="38" t="s">
         <v>39</v>
@@ -2165,7 +2177,7 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
     </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="38" t="s">
         <v>37</v>
@@ -2189,7 +2201,7 @@
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
     </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="38"/>
       <c r="C32" s="19"/>
@@ -2208,7 +2220,7 @@
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
     </row>
-    <row r="33" spans="1:18" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>5</v>
       </c>
@@ -2239,7 +2251,7 @@
       <c r="Q33" s="25"/>
       <c r="R33" s="25"/>
     </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="38" t="str">
         <f>B27</f>
@@ -2276,7 +2288,7 @@
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
     </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="38"/>
       <c r="C35" s="19">
@@ -2310,7 +2322,7 @@
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="38" t="str">
         <f>B28</f>
@@ -2347,7 +2359,7 @@
       <c r="Q36" s="25"/>
       <c r="R36" s="25"/>
     </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="38"/>
       <c r="C37" s="19">
@@ -2381,7 +2393,7 @@
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
     </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="38" t="s">
         <v>54</v>
@@ -2417,7 +2429,7 @@
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
     </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="38"/>
       <c r="C39" s="19">
@@ -2451,7 +2463,7 @@
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
     </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="38" t="s">
         <v>39</v>
@@ -2482,7 +2494,7 @@
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
     </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="38" t="s">
         <v>37</v>
@@ -2506,7 +2518,7 @@
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
     </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="38"/>
       <c r="C42" s="19"/>
@@ -2525,7 +2537,7 @@
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>6</v>
       </c>
@@ -2560,7 +2572,7 @@
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
     </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="24"/>
       <c r="C44" s="19"/>
@@ -2579,7 +2591,7 @@
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="43" t="s">
         <v>17</v>
@@ -2597,7 +2609,7 @@
       </c>
       <c r="K45" s="37"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="55"/>
       <c r="B46" s="58"/>
       <c r="C46" s="59"/>
@@ -2610,16 +2622,16 @@
       <c r="J46" s="57"/>
       <c r="K46" s="54"/>
     </row>
-    <row r="47" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
       <c r="B47" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="67">
+      <c r="C47" s="75">
         <f>J45</f>
         <v>345993.93824887183</v>
       </c>
-      <c r="D47" s="67"/>
+      <c r="D47" s="75"/>
       <c r="E47" s="40">
         <v>100</v>
       </c>
@@ -2630,15 +2642,15 @@
       <c r="J47" s="51"/>
       <c r="K47" s="52"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="70">
+      <c r="C48" s="78">
         <v>300000</v>
       </c>
-      <c r="D48" s="70"/>
+      <c r="D48" s="78"/>
       <c r="E48" s="40"/>
       <c r="F48" s="46"/>
       <c r="G48" s="45"/>
@@ -2647,16 +2659,16 @@
       <c r="J48" s="45"/>
       <c r="K48" s="46"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="70">
+      <c r="C49" s="78">
         <f>C48-C51-C52</f>
         <v>285000</v>
       </c>
-      <c r="D49" s="70"/>
+      <c r="D49" s="78"/>
       <c r="E49" s="40">
         <f>C49/C47*100</f>
         <v>82.371385302999386</v>
@@ -2668,16 +2680,16 @@
       <c r="J49" s="45"/>
       <c r="K49" s="46"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="53"/>
       <c r="B50" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="67">
+      <c r="C50" s="75">
         <f>C47-C49</f>
         <v>60993.938248871826</v>
       </c>
-      <c r="D50" s="67"/>
+      <c r="D50" s="75"/>
       <c r="E50" s="40">
         <f>100-E49</f>
         <v>17.628614697000614</v>
@@ -2689,16 +2701,16 @@
       <c r="J50" s="45"/>
       <c r="K50" s="46"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="53"/>
       <c r="B51" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="67">
+      <c r="C51" s="75">
         <f>C48*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D51" s="67"/>
+      <c r="D51" s="75"/>
       <c r="E51" s="40">
         <v>3</v>
       </c>
@@ -2709,16 +2721,16 @@
       <c r="J51" s="45"/>
       <c r="K51" s="46"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="53"/>
       <c r="B52" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="67">
+      <c r="C52" s="75">
         <f>C48*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D52" s="67"/>
+      <c r="D52" s="75"/>
       <c r="E52" s="40">
         <v>2</v>
       </c>
@@ -2729,7 +2741,7 @@
       <c r="J52" s="45"/>
       <c r="K52" s="46"/>
     </row>
-    <row r="53" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="54"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -2742,71 +2754,64 @@
       <c r="J53" s="54"/>
       <c r="K53" s="54"/>
     </row>
-    <row r="54" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A7:F7"/>
@@ -2815,6 +2820,13 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -2835,131 +2847,131 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2994,7 +3006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -3015,7 +3027,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="38" t="s">
         <v>49</v>
@@ -3047,7 +3059,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="38" t="s">
         <v>50</v>
@@ -3078,7 +3090,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="38"/>
       <c r="C12" s="19">
@@ -3107,7 +3119,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="38" t="s">
         <v>59</v>
@@ -3137,7 +3149,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="38" t="s">
         <v>39</v>
@@ -3166,7 +3178,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="38" t="s">
         <v>37</v>
@@ -3188,7 +3200,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="38"/>
       <c r="C16" s="19"/>
@@ -3205,7 +3217,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -3226,7 +3238,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="38" t="str">
         <f>B10</f>
@@ -3258,7 +3270,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="38" t="str">
         <f>B11</f>
@@ -3290,7 +3302,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="38"/>
       <c r="C20" s="19">
@@ -3319,7 +3331,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="38" t="str">
         <f>B13</f>
@@ -3351,7 +3363,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -3365,7 +3377,7 @@
         <v>71.633159369550881</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I22" s="23">
         <v>915.42</v>
@@ -3380,7 +3392,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
         <v>37</v>
@@ -3402,7 +3414,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="38"/>
       <c r="C24" s="19"/>
@@ -3419,7 +3431,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>3</v>
       </c>
@@ -3448,7 +3460,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="38" t="s">
         <v>55</v>
@@ -3481,7 +3493,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="38"/>
       <c r="C27" s="19">
@@ -3513,7 +3525,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="38" t="s">
         <v>56</v>
@@ -3556,7 +3568,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="38"/>
       <c r="C29" s="19">
@@ -3591,7 +3603,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="38"/>
       <c r="C30" s="19">
@@ -3623,7 +3635,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="38" t="s">
         <v>57</v>
@@ -3666,7 +3678,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="38"/>
       <c r="C32" s="19">
@@ -3698,7 +3710,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="38" t="str">
         <f>B19</f>
@@ -3746,7 +3758,7 @@
         <v>635.91402259925269</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="38"/>
       <c r="C34" s="19">
@@ -3781,7 +3793,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="38" t="s">
         <v>54</v>
@@ -3815,7 +3827,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="38"/>
       <c r="C36" s="19">
@@ -3847,7 +3859,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="38" t="s">
         <v>60</v>
@@ -3880,7 +3892,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="38"/>
       <c r="C38" s="19">
@@ -3911,7 +3923,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="38"/>
       <c r="C39" s="19">
@@ -3945,7 +3957,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="38" t="s">
         <v>59</v>
@@ -3979,7 +3991,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="38" t="s">
         <v>54</v>
@@ -4013,7 +4025,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="38"/>
       <c r="C42" s="19">
@@ -4045,7 +4057,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="38" t="s">
         <v>39</v>
@@ -4074,7 +4086,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="38" t="s">
         <v>37</v>
@@ -4096,7 +4108,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="38"/>
       <c r="C45" s="19"/>
@@ -4113,7 +4125,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>4</v>
       </c>
@@ -4146,7 +4158,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="24"/>
       <c r="C47" s="19"/>
@@ -4163,7 +4175,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="43" t="s">
         <v>17</v>
@@ -4181,7 +4193,7 @@
       </c>
       <c r="K48" s="37"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="55"/>
       <c r="B49" s="58"/>
       <c r="C49" s="59"/>
@@ -4194,16 +4206,16 @@
       <c r="J49" s="57"/>
       <c r="K49" s="54"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
       <c r="B50" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="67">
+      <c r="C50" s="75">
         <f>J48</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="D50" s="67"/>
+      <c r="D50" s="75"/>
       <c r="E50" s="40">
         <v>100</v>
       </c>
@@ -4214,15 +4226,15 @@
       <c r="J50" s="51"/>
       <c r="K50" s="52"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="53"/>
       <c r="B51" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="70">
+      <c r="C51" s="78">
         <v>300000</v>
       </c>
-      <c r="D51" s="70"/>
+      <c r="D51" s="78"/>
       <c r="E51" s="40"/>
       <c r="F51" s="46"/>
       <c r="G51" s="45"/>
@@ -4231,16 +4243,16 @@
       <c r="J51" s="45"/>
       <c r="K51" s="46"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="53"/>
       <c r="B52" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="70">
+      <c r="C52" s="78">
         <f>C51-C54-C55</f>
         <v>285000</v>
       </c>
-      <c r="D52" s="70"/>
+      <c r="D52" s="78"/>
       <c r="E52" s="40">
         <f>C52/C50*100</f>
         <v>82.792054089654883</v>
@@ -4252,16 +4264,16 @@
       <c r="J52" s="45"/>
       <c r="K52" s="46"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="53"/>
       <c r="B53" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="67">
+      <c r="C53" s="75">
         <f>C50-C52</f>
         <v>59235.93318674725</v>
       </c>
-      <c r="D53" s="67"/>
+      <c r="D53" s="75"/>
       <c r="E53" s="40">
         <f>100-E52</f>
         <v>17.207945910345117</v>
@@ -4273,16 +4285,16 @@
       <c r="J53" s="45"/>
       <c r="K53" s="46"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="53"/>
       <c r="B54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="67">
+      <c r="C54" s="75">
         <f>C51*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D54" s="67"/>
+      <c r="D54" s="75"/>
       <c r="E54" s="40">
         <v>3</v>
       </c>
@@ -4293,16 +4305,16 @@
       <c r="J54" s="45"/>
       <c r="K54" s="46"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="53"/>
       <c r="B55" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="67">
+      <c r="C55" s="75">
         <f>C51*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D55" s="67"/>
+      <c r="D55" s="75"/>
       <c r="E55" s="40">
         <v>2</v>
       </c>
@@ -4313,7 +4325,7 @@
       <c r="J55" s="45"/>
       <c r="K55" s="46"/>
     </row>
-    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="54"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -4326,64 +4338,71 @@
       <c r="J56" s="54"/>
       <c r="K56" s="54"/>
     </row>
-    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A7:F7"/>
@@ -4392,13 +4411,6 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -4415,110 +4427,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="89" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="90" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="86">
+      <c r="C6" s="79">
         <f>F24</f>
         <v>344235.93318674725</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -4526,90 +4538,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="86">
+      <c r="J6" s="79">
         <f>I24</f>
         <v>351068.54966387467</v>
       </c>
-      <c r="K6" s="87"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="80"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="I7" s="80" t="s">
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="I7" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="str">
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="str">
         <f>'kalimasta mandir final (2)'!A6:F6</f>
         <v>Project:- कालीमस्ट मन्दिर निर्माण</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="I8" s="81" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="I8" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="82" t="str">
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="str">
         <f>'kalimasta mandir final (2)'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="I9" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="I9" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85" t="s">
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="77" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="78" t="s">
+      <c r="K11" s="85" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="77"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="84"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -4628,10 +4640,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="77"/>
-      <c r="K12" s="78"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <f>'kalimasta mandir final (2)'!A9</f>
         <v>1</v>
@@ -4674,7 +4686,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="32" t="str">
         <f>'kalimasta mandir final (2)'!B15</f>
@@ -4699,7 +4711,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="12"/>
@@ -4712,7 +4724,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <f>'kalimasta mandir final (2)'!A17</f>
         <v>2</v>
@@ -4755,7 +4767,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="32" t="str">
         <f>'kalimasta mandir final (2)'!B23</f>
@@ -4780,7 +4792,7 @@
       </c>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="12"/>
@@ -4793,7 +4805,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <f>'kalimasta mandir final (2)'!A25</f>
         <v>3</v>
@@ -4836,7 +4848,7 @@
       </c>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="32" t="str">
         <f>'kalimasta mandir final (2)'!B44</f>
@@ -4861,7 +4873,7 @@
       </c>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="12"/>
@@ -4874,7 +4886,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <f>'kalimasta mandir final (2)'!A46</f>
         <v>4</v>
@@ -4917,7 +4929,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="12"/>
@@ -4930,7 +4942,7 @@
       <c r="J23" s="28"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
@@ -4956,13 +4968,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -4976,6 +4981,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4993,138 +5005,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -5156,10 +5168,10 @@
         <v>14</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -5178,16 +5190,16 @@
       <c r="M9" s="1"/>
       <c r="N9" s="66"/>
       <c r="O9" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="38" t="s">
         <v>49</v>
@@ -5216,7 +5228,7 @@
       <c r="K10" s="21"/>
       <c r="M10" s="1"/>
       <c r="N10" s="66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O10" s="61">
         <f>4852.4*G14</f>
@@ -5231,7 +5243,7 @@
         <v>49638.140519110675</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="38" t="s">
         <v>50</v>
@@ -5259,7 +5271,7 @@
       <c r="K11" s="21"/>
       <c r="M11" s="1"/>
       <c r="N11" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O11" s="61">
         <f>1912.03*G14</f>
@@ -5274,7 +5286,7 @@
         <v>19559.313703889864</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="38"/>
       <c r="C12" s="19">
@@ -5300,7 +5312,7 @@
       <c r="K12" s="21"/>
       <c r="M12" s="1"/>
       <c r="N12" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O12" s="61">
         <f>921.59*G14</f>
@@ -5315,7 +5327,7 @@
         <v>9427.5026628075211</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="38" t="s">
         <v>59</v>
@@ -5342,7 +5354,7 @@
       <c r="K13" s="21"/>
       <c r="M13" s="1"/>
       <c r="N13" s="66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O13" s="61">
         <f>1350.6*G14</f>
@@ -5357,7 +5369,7 @@
         <v>13816.105965112289</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="38" t="s">
         <v>39</v>
@@ -5383,7 +5395,7 @@
       <c r="K14" s="21"/>
       <c r="M14" s="1"/>
       <c r="N14" s="66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O14" s="61">
         <f>56*G14</f>
@@ -5398,7 +5410,7 @@
         <v>572.85794020900948</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="38" t="s">
         <v>37</v>
@@ -5417,7 +5429,7 @@
       <c r="K15" s="21"/>
       <c r="M15" s="1"/>
       <c r="N15" s="66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O15" s="61">
         <f>(416.81*G14)</f>
@@ -5432,7 +5444,7 @@
         <v>4263.8021081878087</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="38"/>
       <c r="C16" s="19"/>
@@ -5446,7 +5458,7 @@
       <c r="K16" s="21"/>
       <c r="M16" s="1"/>
       <c r="N16" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O16" s="61">
         <f>(14.77*G14)</f>
@@ -5461,7 +5473,7 @@
         <v>151.09128173012624</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -5479,7 +5491,7 @@
       <c r="K17" s="21"/>
       <c r="M17" s="1"/>
       <c r="N17" s="66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O17" s="61">
         <f>(20062.02/100)*G22</f>
@@ -5494,7 +5506,7 @@
         <v>16789.174142332231</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="38" t="str">
         <f>B10</f>
@@ -5523,7 +5535,7 @@
       <c r="K18" s="21"/>
       <c r="M18" s="1"/>
       <c r="N18" s="66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O18" s="61">
         <f>13328.25/100*G22</f>
@@ -5538,7 +5550,7 @@
         <v>11153.927184926521</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="38" t="str">
         <f>B11</f>
@@ -5567,7 +5579,7 @@
       <c r="K19" s="21"/>
       <c r="M19" s="1"/>
       <c r="N19" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O19" s="61">
         <f>10137.6/100*G22</f>
@@ -5582,7 +5594,7 @@
         <v>8483.7883615561768</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="38"/>
       <c r="C20" s="19">
@@ -5608,7 +5620,7 @@
       <c r="K20" s="21"/>
       <c r="M20" s="1"/>
       <c r="N20" s="66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O20" s="61">
         <f>3300/100*G22</f>
@@ -5623,7 +5635,7 @@
         <v>2761.6498572774012</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="38" t="str">
         <f>B13</f>
@@ -5652,7 +5664,7 @@
       <c r="K21" s="21"/>
       <c r="M21" s="1"/>
       <c r="N21" s="66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O21" s="61">
         <f>105000*G50</f>
@@ -5667,7 +5679,7 @@
         <v>117408.37692465034</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -5681,7 +5693,7 @@
         <v>74.058725054368495</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I22" s="23">
         <v>915.42</v>
@@ -5693,7 +5705,7 @@
       <c r="K22" s="21"/>
       <c r="M22" s="1"/>
       <c r="N22" s="66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O22" s="61">
         <f>1200*G50</f>
@@ -5708,7 +5720,7 @@
         <v>1341.8100219960038</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
         <v>37</v>
@@ -5731,7 +5743,7 @@
       <c r="P23" s="61"/>
       <c r="Q23" s="62"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="38"/>
       <c r="C24" s="19"/>
@@ -5749,7 +5761,7 @@
       <c r="P24" s="61"/>
       <c r="Q24" s="62"/>
     </row>
-    <row r="25" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>3</v>
       </c>
@@ -5778,7 +5790,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="38" t="s">
         <v>64</v>
@@ -5812,7 +5824,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="38" t="s">
         <v>63</v>
@@ -5846,7 +5858,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="38" t="s">
         <v>62</v>
@@ -5886,7 +5898,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="38" t="s">
         <v>65</v>
@@ -5919,7 +5931,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="38" t="s">
         <v>66</v>
@@ -5952,7 +5964,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="38"/>
       <c r="C31" s="19">
@@ -5983,7 +5995,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="38"/>
       <c r="C32" s="19">
@@ -6014,7 +6026,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="38" t="s">
         <v>67</v>
@@ -6047,7 +6059,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="38"/>
       <c r="C34" s="19">
@@ -6078,7 +6090,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="38"/>
       <c r="C35" s="19">
@@ -6109,7 +6121,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="38"/>
       <c r="C36" s="19">
@@ -6140,7 +6152,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="38" t="str">
         <f>B19</f>
@@ -6188,7 +6200,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="38"/>
       <c r="C38" s="19">
@@ -6223,12 +6235,12 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="93">
         <f>60*2</f>
         <v>120</v>
       </c>
@@ -6257,10 +6269,10 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="38"/>
-      <c r="C40" s="19">
+      <c r="C40" s="93">
         <f>36*3</f>
         <v>108</v>
       </c>
@@ -6289,7 +6301,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="38" t="s">
         <v>60</v>
@@ -6322,7 +6334,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="38"/>
       <c r="C42" s="19">
@@ -6353,7 +6365,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="38"/>
       <c r="C43" s="19">
@@ -6384,7 +6396,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="38"/>
       <c r="C44" s="19">
@@ -6415,7 +6427,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="38"/>
       <c r="C45" s="19">
@@ -6446,7 +6458,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="38"/>
       <c r="C46" s="19">
@@ -6477,7 +6489,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="38" t="s">
         <v>59</v>
@@ -6511,7 +6523,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="38" t="s">
         <v>54</v>
@@ -6545,7 +6557,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="38"/>
       <c r="C49" s="19">
@@ -6577,7 +6589,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="38" t="s">
         <v>39</v>
@@ -6606,7 +6618,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="38" t="s">
         <v>37</v>
@@ -6628,7 +6640,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="38"/>
       <c r="C52" s="19"/>
@@ -6645,7 +6657,7 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>4</v>
       </c>
@@ -6678,7 +6690,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="24"/>
       <c r="C54" s="19"/>
@@ -6695,7 +6707,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="43" t="s">
         <v>17</v>
@@ -6713,7 +6725,7 @@
       </c>
       <c r="K55" s="37"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="55"/>
       <c r="B56" s="58"/>
       <c r="C56" s="59"/>
@@ -6726,16 +6738,16 @@
       <c r="J56" s="57"/>
       <c r="K56" s="54"/>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
       <c r="B57" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="67">
+      <c r="C57" s="75">
         <f>J55</f>
         <v>351068.54966387467</v>
       </c>
-      <c r="D57" s="67"/>
+      <c r="D57" s="75"/>
       <c r="E57" s="40">
         <v>100</v>
       </c>
@@ -6746,15 +6758,15 @@
       <c r="J57" s="51"/>
       <c r="K57" s="52"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="53"/>
       <c r="B58" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="70">
+      <c r="C58" s="78">
         <v>300000</v>
       </c>
-      <c r="D58" s="70"/>
+      <c r="D58" s="78"/>
       <c r="E58" s="40"/>
       <c r="F58" s="46"/>
       <c r="G58" s="45"/>
@@ -6763,16 +6775,16 @@
       <c r="J58" s="45"/>
       <c r="K58" s="46"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="53"/>
       <c r="B59" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="70">
+      <c r="C59" s="78">
         <f>C58-C61-C62</f>
         <v>285000</v>
       </c>
-      <c r="D59" s="70"/>
+      <c r="D59" s="78"/>
       <c r="E59" s="40">
         <f>C59/C57*100</f>
         <v>81.180726747773051</v>
@@ -6784,16 +6796,16 @@
       <c r="J59" s="45"/>
       <c r="K59" s="46"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="53"/>
       <c r="B60" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="67">
+      <c r="C60" s="75">
         <f>C57-C59</f>
         <v>66068.54966387467</v>
       </c>
-      <c r="D60" s="67"/>
+      <c r="D60" s="75"/>
       <c r="E60" s="40">
         <f>100-E59</f>
         <v>18.819273252226949</v>
@@ -6805,16 +6817,16 @@
       <c r="J60" s="45"/>
       <c r="K60" s="46"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="53"/>
       <c r="B61" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="67">
+      <c r="C61" s="75">
         <f>C58*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D61" s="67"/>
+      <c r="D61" s="75"/>
       <c r="E61" s="40">
         <v>3</v>
       </c>
@@ -6825,16 +6837,16 @@
       <c r="J61" s="45"/>
       <c r="K61" s="46"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
       <c r="B62" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="67">
+      <c r="C62" s="75">
         <f>C58*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D62" s="67"/>
+      <c r="D62" s="75"/>
       <c r="E62" s="40">
         <v>2</v>
       </c>
@@ -6845,7 +6857,7 @@
       <c r="J62" s="45"/>
       <c r="K62" s="46"/>
     </row>
-    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="54"/>
       <c r="B63" s="54"/>
       <c r="C63" s="54"/>
@@ -6858,1734 +6870,7 @@
       <c r="J63" s="54"/>
       <c r="K63" s="54"/>
     </row>
-    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;LPrepared By:
-&amp;CChecked By:
-&amp;RApproved By:
-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="21"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="19">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E10" s="21">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.125</v>
-      </c>
-      <c r="G10" s="40">
-        <f>PRODUCT(C10:F10)</f>
-        <v>7.0599419728506199</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="19">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="G11" s="40">
-        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
-        <v>1.0318805242304177</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="19">
-        <v>3</v>
-      </c>
-      <c r="D12" s="20">
-        <f>18.75/3.281</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="G12" s="40">
-        <f t="shared" si="0"/>
-        <v>0.90692624199939043</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="40">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23">
-        <f>SUM(G10:G13)</f>
-        <v>9.0527487390804282</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="23">
-        <v>13568.9</v>
-      </c>
-      <c r="J14" s="42">
-        <f>G14*I14</f>
-        <v>122835.84236570842</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="42">
-        <f>0.13*G14*9524.2</f>
-        <v>11208.624640297478</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="21"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <v>2</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="21"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="38" t="str">
-        <f>B10</f>
-        <v>-slab</v>
-      </c>
-      <c r="C18" s="19">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <f>D10</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E18" s="21">
-        <f>E10</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="40">
-        <f>PRODUCT(C18:F18)</f>
-        <v>56.479535782804959</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="38" t="str">
-        <f>B11</f>
-        <v>-beam</v>
-      </c>
-      <c r="C19" s="19">
-        <f>C11</f>
-        <v>2</v>
-      </c>
-      <c r="D19" s="20">
-        <f>D11</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21">
-        <f>F11*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G19" s="40">
-        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
-        <v>8.9728741237427609</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="19">
-        <f>C12</f>
-        <v>3</v>
-      </c>
-      <c r="D20" s="20">
-        <f>D12</f>
-        <v>5.7147211216092648</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <f>F12*2</f>
-        <v>0.46</v>
-      </c>
-      <c r="G20" s="40">
-        <f t="shared" si="1"/>
-        <v>7.8863151478207856</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="38" t="str">
-        <f>B13</f>
-        <v>-column</v>
-      </c>
-      <c r="C21" s="19">
-        <f>C13</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="20">
-        <f>D13*4</f>
-        <v>1.2</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21">
-        <f>F13</f>
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="40">
-        <f t="shared" si="1"/>
-        <v>0.72</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="21"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="23">
-        <f>SUM(G18:G21)</f>
-        <v>74.058725054368495</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="23">
-        <v>915.42</v>
-      </c>
-      <c r="J22" s="42">
-        <f>G22*I22</f>
-        <v>67794.838089270008</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="42">
-        <f>0.13*G22*46827.87/100</f>
-        <v>4508.4160539752247</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>3</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="19">
-        <f>5+5+7+7</f>
-        <v>24</v>
-      </c>
-      <c r="D26" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E26" s="21">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F26" s="40">
-        <f>PRODUCT(C26:E26)</f>
-        <v>92.474065043403641</v>
-      </c>
-      <c r="G26" s="64">
-        <f t="shared" ref="G26:G38" si="2">F26/1000</f>
-        <v>9.2474065043403636E-2</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="21"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="19">
-        <f>29+5+5</f>
-        <v>39</v>
-      </c>
-      <c r="D27" s="20">
-        <f>32/3.281</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E27" s="21">
-        <f t="shared" ref="E27:E36" si="3">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F27" s="40">
-        <f t="shared" ref="F27:F38" si="4">PRODUCT(C27:E27)</f>
-        <v>150.27035569553092</v>
-      </c>
-      <c r="G27" s="64">
-        <f t="shared" si="2"/>
-        <v>0.15027035569553093</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="21"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="19">
-        <f>58+5+6</f>
-        <v>69</v>
-      </c>
-      <c r="D28" s="20">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F28" s="40">
-        <f t="shared" si="4"/>
-        <v>157.85611884362262</v>
-      </c>
-      <c r="G28" s="64">
-        <f t="shared" si="2"/>
-        <v>0.15785611884362263</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="21"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="61">
-        <f>SUM(F26:F36)</f>
-        <v>551.40551096662023</v>
-      </c>
-      <c r="O28" s="61" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="19">
-        <v>30</v>
-      </c>
-      <c r="D29" s="20">
-        <f>19/3.281</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E29" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F29" s="40">
-        <f t="shared" si="4"/>
-        <v>68.633095149401143</v>
-      </c>
-      <c r="G29" s="64">
-        <f t="shared" si="2"/>
-        <v>6.8633095149401149E-2</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="21"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="19">
-        <v>15</v>
-      </c>
-      <c r="D30" s="20">
-        <f>7.083/3.281</f>
-        <v>2.1587930508991162</v>
-      </c>
-      <c r="E30" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F30" s="40">
-        <f t="shared" si="4"/>
-        <v>12.7928477090318</v>
-      </c>
-      <c r="G30" s="64">
-        <f t="shared" si="2"/>
-        <v>1.27928477090318E-2</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="19">
-        <v>15</v>
-      </c>
-      <c r="D31" s="20">
-        <f>6.5/3.281</f>
-        <v>1.9811033221578787</v>
-      </c>
-      <c r="E31" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F31" s="40">
-        <f t="shared" si="4"/>
-        <v>11.739871538713354</v>
-      </c>
-      <c r="G31" s="64">
-        <f t="shared" si="2"/>
-        <v>1.1739871538713354E-2</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="21"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="19">
-        <v>15</v>
-      </c>
-      <c r="D32" s="20">
-        <f>6.33/3.281</f>
-        <v>1.929289850655288</v>
-      </c>
-      <c r="E32" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F32" s="40">
-        <f t="shared" si="4"/>
-        <v>11.432828744623929</v>
-      </c>
-      <c r="G32" s="64">
-        <f t="shared" si="2"/>
-        <v>1.1432828744623929E-2</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="21"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="19">
-        <v>15</v>
-      </c>
-      <c r="D33" s="20">
-        <f>6.917/3.281</f>
-        <v>2.1081987199024685</v>
-      </c>
-      <c r="E33" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F33" s="40">
-        <f t="shared" si="4"/>
-        <v>12.493029451273888</v>
-      </c>
-      <c r="G33" s="64">
-        <f t="shared" si="2"/>
-        <v>1.2493029451273887E-2</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="21"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="19">
-        <v>15</v>
-      </c>
-      <c r="D34" s="20">
-        <f>6.083/3.281</f>
-        <v>1.8540079244132885</v>
-      </c>
-      <c r="E34" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F34" s="40">
-        <f t="shared" si="4"/>
-        <v>10.98671362615282</v>
-      </c>
-      <c r="G34" s="64">
-        <f t="shared" si="2"/>
-        <v>1.0986713626152821E-2</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="21"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="19">
-        <v>15</v>
-      </c>
-      <c r="D35" s="20">
-        <f>6.083/3.281</f>
-        <v>1.8540079244132885</v>
-      </c>
-      <c r="E35" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F35" s="40">
-        <f t="shared" si="4"/>
-        <v>10.98671362615282</v>
-      </c>
-      <c r="G35" s="64">
-        <f t="shared" si="2"/>
-        <v>1.0986713626152821E-2</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="21"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="19">
-        <v>15</v>
-      </c>
-      <c r="D36" s="20">
-        <f>6.5/3.281</f>
-        <v>1.9811033221578787</v>
-      </c>
-      <c r="E36" s="21">
-        <f t="shared" si="3"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F36" s="40">
-        <f t="shared" si="4"/>
-        <v>11.739871538713354</v>
-      </c>
-      <c r="G36" s="64">
-        <f t="shared" si="2"/>
-        <v>1.1739871538713354E-2</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="21"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="38" t="str">
-        <f>B19</f>
-        <v>-beam</v>
-      </c>
-      <c r="C37" s="19">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="D37" s="20">
-        <f>D10</f>
-        <v>9.7531240475464784</v>
-      </c>
-      <c r="E37" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F37" s="40">
-        <f t="shared" si="4"/>
-        <v>86.69443597819091</v>
-      </c>
-      <c r="G37" s="64">
-        <f t="shared" si="2"/>
-        <v>8.6694435978190904E-2</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="21"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="61" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O37" s="61">
-        <f>F39+F40</f>
-        <v>99.566031133236237</v>
-      </c>
-      <c r="P37" s="61">
-        <f>F48+F49</f>
-        <v>8.6281481481481475</v>
-      </c>
-      <c r="Q37" s="62" t="e">
-        <f>SUM(N37:P37)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="19">
-        <f>3*4</f>
-        <v>12</v>
-      </c>
-      <c r="D38" s="20">
-        <f>E10</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E38" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F38" s="40">
-        <f t="shared" si="4"/>
-        <v>61.76978563446103</v>
-      </c>
-      <c r="G38" s="64">
-        <f t="shared" si="2"/>
-        <v>6.1769785634461033E-2</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="21"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="61" t="e">
-        <f>SUM(F37+F38+F41+F42+#REF!+F47)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="19">
-        <f>60*2</f>
-        <v>120</v>
-      </c>
-      <c r="D39" s="20">
-        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
-        <v>1.1053794574824747</v>
-      </c>
-      <c r="E39" s="21">
-        <f t="shared" ref="E39:E49" si="5">8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F39" s="40">
-        <f>PRODUCT(C39:E39)</f>
-        <v>52.403174280650653</v>
-      </c>
-      <c r="G39" s="64">
-        <f>F39/1000</f>
-        <v>5.2403174280650652E-2</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="21"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="19">
-        <f>36*3</f>
-        <v>108</v>
-      </c>
-      <c r="D40" s="20">
-        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
-        <v>1.1053794574824747</v>
-      </c>
-      <c r="E40" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F40" s="40">
-        <f>PRODUCT(C40:E40)</f>
-        <v>47.162856852585584</v>
-      </c>
-      <c r="G40" s="64">
-        <f>F40/1000</f>
-        <v>4.7162856852585582E-2</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="21"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="19">
-        <v>6</v>
-      </c>
-      <c r="D41" s="20">
-        <f>7.75/3.281</f>
-        <v>2.3620847302651629</v>
-      </c>
-      <c r="E41" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F41" s="40">
-        <f t="shared" ref="F41:F47" si="6">PRODUCT(C41:E41)</f>
-        <v>12.597785228080866</v>
-      </c>
-      <c r="G41" s="64">
-        <f t="shared" ref="G41:G49" si="7">F41/1000</f>
-        <v>1.2597785228080867E-2</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="21"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="19">
-        <v>1</v>
-      </c>
-      <c r="D42" s="20">
-        <f>8.667/3.281</f>
-        <v>2.6415726912526667</v>
-      </c>
-      <c r="E42" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F42" s="40">
-        <f t="shared" si="6"/>
-        <v>2.3480646144468147</v>
-      </c>
-      <c r="G42" s="64">
-        <f t="shared" si="7"/>
-        <v>2.3480646144468146E-3</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="21"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="19">
-        <v>1</v>
-      </c>
-      <c r="D43" s="20">
-        <f>D38</f>
-        <v>5.790917403230722</v>
-      </c>
-      <c r="E43" s="21">
-        <f t="shared" ref="E43:E47" si="8">12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F43" s="40">
-        <f t="shared" si="6"/>
-        <v>5.1474821362050855</v>
-      </c>
-      <c r="G43" s="64">
-        <f t="shared" si="7"/>
-        <v>5.1474821362050855E-3</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="21"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="19">
-        <v>1</v>
-      </c>
-      <c r="D44" s="20">
-        <f>7.667/3.281</f>
-        <v>2.3367875647668392</v>
-      </c>
-      <c r="E44" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F44" s="40">
-        <f t="shared" si="6"/>
-        <v>2.0771445020149679</v>
-      </c>
-      <c r="G44" s="64">
-        <f t="shared" si="7"/>
-        <v>2.0771445020149677E-3</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="21"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="19">
-        <v>2</v>
-      </c>
-      <c r="D45" s="20">
-        <f>9/3.281</f>
-        <v>2.7430661383724475</v>
-      </c>
-      <c r="E45" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F45" s="40">
-        <f t="shared" si="6"/>
-        <v>4.8765620237732401</v>
-      </c>
-      <c r="G45" s="64">
-        <f t="shared" si="7"/>
-        <v>4.8765620237732404E-3</v>
-      </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="21"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="19">
-        <v>2</v>
-      </c>
-      <c r="D46" s="20">
-        <f>9/3.281</f>
-        <v>2.7430661383724475</v>
-      </c>
-      <c r="E46" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F46" s="40">
-        <f t="shared" si="6"/>
-        <v>4.8765620237732401</v>
-      </c>
-      <c r="G46" s="64">
-        <f t="shared" si="7"/>
-        <v>4.8765620237732404E-3</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="21"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="19">
-        <f>6*8</f>
-        <v>48</v>
-      </c>
-      <c r="D47" s="20">
-        <f>11.5/3.281</f>
-        <v>3.5050289545870159</v>
-      </c>
-      <c r="E47" s="21">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F47" s="40">
-        <f t="shared" si="6"/>
-        <v>149.54790206237934</v>
-      </c>
-      <c r="G47" s="64">
-        <f t="shared" si="7"/>
-        <v>0.14954790206237933</v>
-      </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="21"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="19">
-        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
-        <v>12</v>
-      </c>
-      <c r="D48" s="20">
-        <f>(0.23*4+0.075*2)</f>
-        <v>1.07</v>
-      </c>
-      <c r="E48" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F48" s="40">
-        <f>PRODUCT(C48:E48)</f>
-        <v>5.0725925925925921</v>
-      </c>
-      <c r="G48" s="64">
-        <f t="shared" si="7"/>
-        <v>5.0725925925925921E-3</v>
-      </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="21"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="19">
-        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
-        <v>12</v>
-      </c>
-      <c r="D49" s="20">
-        <f>(0.15*4+0.075*2)</f>
-        <v>0.75</v>
-      </c>
-      <c r="E49" s="21">
-        <f t="shared" si="5"/>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F49" s="40">
-        <f>PRODUCT(C49:E49)</f>
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="G49" s="64">
-        <f t="shared" si="7"/>
-        <v>3.5555555555555553E-3</v>
-      </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="21"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="65">
-        <f>SUM(G26:G49)</f>
-        <v>0.9895354144513302</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I50" s="23">
-        <v>131940</v>
-      </c>
-      <c r="J50" s="42">
-        <f>G50*I50</f>
-        <v>130559.30258270851</v>
-      </c>
-      <c r="K50" s="21"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="42">
-        <f>0.13*G50*106200</f>
-        <v>13661.525931915065</v>
-      </c>
-      <c r="K51" s="21"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="21"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18">
-        <v>4</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="19">
-        <v>1</v>
-      </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="33">
-        <f t="shared" ref="G53" si="9">PRODUCT(C53:F53)</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" s="23">
-        <v>500</v>
-      </c>
-      <c r="J53" s="33">
-        <f>G53*I53</f>
-        <v>500</v>
-      </c>
-      <c r="K53" s="21"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="21"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42">
-        <f>SUM(J9:J53)</f>
-        <v>351068.54966387467</v>
-      </c>
-      <c r="K55" s="37"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="54"/>
-    </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
-      <c r="B57" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="67">
-        <f>J55</f>
-        <v>351068.54966387467</v>
-      </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="40">
-        <v>100</v>
-      </c>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="52"/>
-    </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="70">
-        <v>300000</v>
-      </c>
-      <c r="D58" s="70"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="46"/>
-    </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="70">
-        <f>C58-C61-C62</f>
-        <v>285000</v>
-      </c>
-      <c r="D59" s="70"/>
-      <c r="E59" s="40">
-        <f>C59/C57*100</f>
-        <v>81.180726747773051</v>
-      </c>
-      <c r="F59" s="46"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="46"/>
-    </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
-      <c r="B60" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="67">
-        <f>C57-C59</f>
-        <v>66068.54966387467</v>
-      </c>
-      <c r="D60" s="67"/>
-      <c r="E60" s="40">
-        <f>100-E59</f>
-        <v>18.819273252226949</v>
-      </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="46"/>
-    </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="53"/>
-      <c r="B61" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="67">
-        <f>C58*0.03</f>
-        <v>9000</v>
-      </c>
-      <c r="D61" s="67"/>
-      <c r="E61" s="40">
-        <v>3</v>
-      </c>
-      <c r="F61" s="46"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-    </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="53"/>
-      <c r="B62" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="67">
-        <f>C58*0.02</f>
-        <v>6000</v>
-      </c>
-      <c r="D62" s="67"/>
-      <c r="E62" s="40">
-        <v>2</v>
-      </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="46"/>
-    </row>
-    <row r="63" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-    </row>
-    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="C61:D61"/>
@@ -8612,5 +6897,1701 @@
 &amp;RApproved By:
 </oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="52" max="10" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="21"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E10" s="21">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="40">
+        <f>PRODUCT(C10:F10)</f>
+        <v>7.0599419728506199</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G11" s="40">
+        <f t="shared" ref="G11:G13" si="0">PRODUCT(C11:F11)</f>
+        <v>1.0318805242304177</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="19">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20">
+        <f>18.75/3.281</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="0"/>
+        <v>0.90692624199939043</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="21"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23">
+        <f>SUM(G10:G13)</f>
+        <v>9.0527487390804282</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="23">
+        <v>13568.9</v>
+      </c>
+      <c r="J14" s="42">
+        <f>G14*I14</f>
+        <v>122835.84236570842</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="42">
+        <f>0.13*G14*9524.2</f>
+        <v>11208.624640297478</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>2</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="38" t="str">
+        <f>B10</f>
+        <v>-slab</v>
+      </c>
+      <c r="C18" s="19">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E18" s="21">
+        <f>E10</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="40">
+        <f>PRODUCT(C18:F18)</f>
+        <v>56.479535782804959</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="38" t="str">
+        <f>B11</f>
+        <v>-beam</v>
+      </c>
+      <c r="C19" s="19">
+        <f>C11</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="20">
+        <f>D11</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21">
+        <f>F11*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G19" s="40">
+        <f t="shared" ref="G19:G21" si="1">PRODUCT(C19:F19)</f>
+        <v>8.9728741237427609</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="19">
+        <f>C12</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="20">
+        <f>D12</f>
+        <v>5.7147211216092648</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <f>F12*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G20" s="40">
+        <f t="shared" si="1"/>
+        <v>7.8863151478207856</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="38" t="str">
+        <f>B13</f>
+        <v>-column</v>
+      </c>
+      <c r="C21" s="19">
+        <f>C13</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="20">
+        <f>D13*4</f>
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21">
+        <f>F13</f>
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="40">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23">
+        <f>SUM(G18:G21)</f>
+        <v>74.058725054368495</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="23">
+        <v>915.42</v>
+      </c>
+      <c r="J22" s="42">
+        <f>G22*I22</f>
+        <v>67794.838089270008</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="42">
+        <f>0.13*G22*46827.87/100</f>
+        <v>4508.4160539752247</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>3</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="19">
+        <f>5+5+7+7</f>
+        <v>24</v>
+      </c>
+      <c r="D26" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E26" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F26" s="40">
+        <f>PRODUCT(C26:E26)</f>
+        <v>92.474065043403641</v>
+      </c>
+      <c r="G26" s="64">
+        <f t="shared" ref="G26:G38" si="2">F26/1000</f>
+        <v>9.2474065043403636E-2</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="19">
+        <f>29+5+5</f>
+        <v>39</v>
+      </c>
+      <c r="D27" s="20">
+        <f>32/3.281</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" ref="E27:E36" si="3">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" ref="F27:F38" si="4">PRODUCT(C27:E27)</f>
+        <v>150.27035569553092</v>
+      </c>
+      <c r="G27" s="64">
+        <f t="shared" si="2"/>
+        <v>0.15027035569553093</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="19">
+        <f>58+5+6</f>
+        <v>69</v>
+      </c>
+      <c r="D28" s="20">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F28" s="40">
+        <f t="shared" si="4"/>
+        <v>157.85611884362262</v>
+      </c>
+      <c r="G28" s="64">
+        <f t="shared" si="2"/>
+        <v>0.15785611884362263</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="61">
+        <f>SUM(F26:F36)</f>
+        <v>551.40551096662023</v>
+      </c>
+      <c r="O28" s="61" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="19">
+        <v>30</v>
+      </c>
+      <c r="D29" s="20">
+        <f>19/3.281</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F29" s="40">
+        <f t="shared" si="4"/>
+        <v>68.633095149401143</v>
+      </c>
+      <c r="G29" s="64">
+        <f t="shared" si="2"/>
+        <v>6.8633095149401149E-2</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="19">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20">
+        <f>7.083/3.281</f>
+        <v>2.1587930508991162</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F30" s="40">
+        <f t="shared" si="4"/>
+        <v>12.7928477090318</v>
+      </c>
+      <c r="G30" s="64">
+        <f t="shared" si="2"/>
+        <v>1.27928477090318E-2</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="19">
+        <v>15</v>
+      </c>
+      <c r="D31" s="20">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="4"/>
+        <v>11.739871538713354</v>
+      </c>
+      <c r="G31" s="64">
+        <f t="shared" si="2"/>
+        <v>1.1739871538713354E-2</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="19">
+        <v>15</v>
+      </c>
+      <c r="D32" s="20">
+        <f>6.33/3.281</f>
+        <v>1.929289850655288</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="4"/>
+        <v>11.432828744623929</v>
+      </c>
+      <c r="G32" s="64">
+        <f t="shared" si="2"/>
+        <v>1.1432828744623929E-2</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="19">
+        <v>15</v>
+      </c>
+      <c r="D33" s="20">
+        <f>6.917/3.281</f>
+        <v>2.1081987199024685</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" si="4"/>
+        <v>12.493029451273888</v>
+      </c>
+      <c r="G33" s="64">
+        <f t="shared" si="2"/>
+        <v>1.2493029451273887E-2</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="19">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" si="4"/>
+        <v>10.98671362615282</v>
+      </c>
+      <c r="G34" s="64">
+        <f t="shared" si="2"/>
+        <v>1.0986713626152821E-2</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="19">
+        <v>15</v>
+      </c>
+      <c r="D35" s="20">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" si="4"/>
+        <v>10.98671362615282</v>
+      </c>
+      <c r="G35" s="64">
+        <f t="shared" si="2"/>
+        <v>1.0986713626152821E-2</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="19">
+        <v>15</v>
+      </c>
+      <c r="D36" s="20">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="3"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="4"/>
+        <v>11.739871538713354</v>
+      </c>
+      <c r="G36" s="64">
+        <f t="shared" si="2"/>
+        <v>1.1739871538713354E-2</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="38" t="str">
+        <f>B19</f>
+        <v>-beam</v>
+      </c>
+      <c r="C37" s="19">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D37" s="20">
+        <f>D10</f>
+        <v>9.7531240475464784</v>
+      </c>
+      <c r="E37" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" si="4"/>
+        <v>86.69443597819091</v>
+      </c>
+      <c r="G37" s="64">
+        <f t="shared" si="2"/>
+        <v>8.6694435978190904E-2</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="21"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="61" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O37" s="61">
+        <f>F39+F40</f>
+        <v>99.566031133236237</v>
+      </c>
+      <c r="P37" s="61">
+        <f>F48+F49</f>
+        <v>8.6281481481481475</v>
+      </c>
+      <c r="Q37" s="62" t="e">
+        <f>SUM(N37:P37)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="19">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D38" s="20">
+        <f>E10</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E38" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" si="4"/>
+        <v>61.76978563446103</v>
+      </c>
+      <c r="G38" s="64">
+        <f t="shared" si="2"/>
+        <v>6.1769785634461033E-2</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="21"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="61" t="e">
+        <f>SUM(F37+F38+F41+F42+#REF!+F47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="19">
+        <f>60*2</f>
+        <v>120</v>
+      </c>
+      <c r="D39" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" ref="E39:E49" si="5">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F39" s="40">
+        <f>PRODUCT(C39:E39)</f>
+        <v>52.403174280650653</v>
+      </c>
+      <c r="G39" s="64">
+        <f>F39/1000</f>
+        <v>5.2403174280650652E-2</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="19">
+        <f>36*3</f>
+        <v>108</v>
+      </c>
+      <c r="D40" s="20">
+        <f>(0.3*2+(0.583/3.281)*2+0.075*2)</f>
+        <v>1.1053794574824747</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F40" s="40">
+        <f>PRODUCT(C40:E40)</f>
+        <v>47.162856852585584</v>
+      </c>
+      <c r="G40" s="64">
+        <f>F40/1000</f>
+        <v>4.7162856852585582E-2</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="21"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="19">
+        <v>6</v>
+      </c>
+      <c r="D41" s="20">
+        <f>7.75/3.281</f>
+        <v>2.3620847302651629</v>
+      </c>
+      <c r="E41" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F41" s="40">
+        <f t="shared" ref="F41:F47" si="6">PRODUCT(C41:E41)</f>
+        <v>12.597785228080866</v>
+      </c>
+      <c r="G41" s="64">
+        <f t="shared" ref="G41:G49" si="7">F41/1000</f>
+        <v>1.2597785228080867E-2</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="21"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20">
+        <f>8.667/3.281</f>
+        <v>2.6415726912526667</v>
+      </c>
+      <c r="E42" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F42" s="40">
+        <f t="shared" si="6"/>
+        <v>2.3480646144468147</v>
+      </c>
+      <c r="G42" s="64">
+        <f t="shared" si="7"/>
+        <v>2.3480646144468146E-3</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="21"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="20">
+        <f>D38</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E43" s="21">
+        <f t="shared" ref="E43:E47" si="8">12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F43" s="40">
+        <f t="shared" si="6"/>
+        <v>5.1474821362050855</v>
+      </c>
+      <c r="G43" s="64">
+        <f t="shared" si="7"/>
+        <v>5.1474821362050855E-3</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="21"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20">
+        <f>7.667/3.281</f>
+        <v>2.3367875647668392</v>
+      </c>
+      <c r="E44" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F44" s="40">
+        <f t="shared" si="6"/>
+        <v>2.0771445020149679</v>
+      </c>
+      <c r="G44" s="64">
+        <f t="shared" si="7"/>
+        <v>2.0771445020149677E-3</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="21"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="19">
+        <v>2</v>
+      </c>
+      <c r="D45" s="20">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E45" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F45" s="40">
+        <f t="shared" si="6"/>
+        <v>4.8765620237732401</v>
+      </c>
+      <c r="G45" s="64">
+        <f t="shared" si="7"/>
+        <v>4.8765620237732404E-3</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="21"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="19">
+        <v>2</v>
+      </c>
+      <c r="D46" s="20">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E46" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F46" s="40">
+        <f t="shared" si="6"/>
+        <v>4.8765620237732401</v>
+      </c>
+      <c r="G46" s="64">
+        <f t="shared" si="7"/>
+        <v>4.8765620237732404E-3</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="21"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="19">
+        <f>6*8</f>
+        <v>48</v>
+      </c>
+      <c r="D47" s="20">
+        <f>11.5/3.281</f>
+        <v>3.5050289545870159</v>
+      </c>
+      <c r="E47" s="21">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F47" s="40">
+        <f t="shared" si="6"/>
+        <v>149.54790206237934</v>
+      </c>
+      <c r="G47" s="64">
+        <f t="shared" si="7"/>
+        <v>0.14954790206237933</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="21"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D48" s="20">
+        <f>(0.23*4+0.075*2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="E48" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F48" s="40">
+        <f>PRODUCT(C48:E48)</f>
+        <v>5.0725925925925921</v>
+      </c>
+      <c r="G48" s="64">
+        <f t="shared" si="7"/>
+        <v>5.0725925925925921E-3</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="21"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="19">
+        <f>(TRUNC(((8.917/3.281)/0.125),0)+1)*0+12</f>
+        <v>12</v>
+      </c>
+      <c r="D49" s="20">
+        <f>(0.15*4+0.075*2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E49" s="21">
+        <f t="shared" si="5"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F49" s="40">
+        <f>PRODUCT(C49:E49)</f>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="G49" s="64">
+        <f t="shared" si="7"/>
+        <v>3.5555555555555553E-3</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="21"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="65">
+        <f>SUM(G26:G49)</f>
+        <v>0.9895354144513302</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="23">
+        <v>131940</v>
+      </c>
+      <c r="J50" s="42">
+        <f>G50*I50</f>
+        <v>130559.30258270851</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="42">
+        <f>0.13*G50*106200</f>
+        <v>13661.525931915065</v>
+      </c>
+      <c r="K51" s="21"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="21"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>4</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="19">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="33">
+        <f t="shared" ref="G53" si="9">PRODUCT(C53:F53)</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="23">
+        <v>500</v>
+      </c>
+      <c r="J53" s="33">
+        <f>G53*I53</f>
+        <v>500</v>
+      </c>
+      <c r="K53" s="21"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="B54" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="44"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42">
+        <f>SUM(J9:J53)</f>
+        <v>351068.54966387467</v>
+      </c>
+      <c r="K54" s="37"/>
+    </row>
+    <row r="55" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="47"/>
+      <c r="B55" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="75">
+        <f>J54</f>
+        <v>351068.54966387467</v>
+      </c>
+      <c r="D55" s="75"/>
+      <c r="E55" s="40">
+        <v>100</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="52"/>
+    </row>
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="78">
+        <v>300000</v>
+      </c>
+      <c r="D56" s="78"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="46"/>
+    </row>
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="53"/>
+      <c r="B57" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="78">
+        <f>C56-C59-C60</f>
+        <v>285000</v>
+      </c>
+      <c r="D57" s="78"/>
+      <c r="E57" s="40">
+        <f>C57/C55*100</f>
+        <v>81.180726747773051</v>
+      </c>
+      <c r="F57" s="46"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="46"/>
+    </row>
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="53"/>
+      <c r="B58" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="75">
+        <f>C55-C57</f>
+        <v>66068.54966387467</v>
+      </c>
+      <c r="D58" s="75"/>
+      <c r="E58" s="40">
+        <f>100-E57</f>
+        <v>18.819273252226949</v>
+      </c>
+      <c r="F58" s="46"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="46"/>
+    </row>
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="53"/>
+      <c r="B59" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="75">
+        <f>C56*0.03</f>
+        <v>9000</v>
+      </c>
+      <c r="D59" s="75"/>
+      <c r="E59" s="40">
+        <v>3</v>
+      </c>
+      <c r="F59" s="46"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="46"/>
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="53"/>
+      <c r="B60" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="75">
+        <f>C56*0.02</f>
+        <v>6000</v>
+      </c>
+      <c r="D60" s="75"/>
+      <c r="E60" s="40">
+        <v>2</v>
+      </c>
+      <c r="F60" s="46"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="46"/>
+    </row>
+    <row r="61" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+    </row>
+    <row r="62" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>